--- a/temp/normalized-positive-comparison.xlsx
+++ b/temp/normalized-positive-comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AX60"/>
+  <dimension ref="A1:AW60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,225 +461,220 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>历史住院次数</t>
+          <t>吸烟</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>吸烟</t>
+          <t>饮酒</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>饮酒</t>
+          <t>过敏史</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>过敏史</t>
+          <t>冠心病</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>冠心病</t>
+          <t>高血压</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>高血压</t>
+          <t>2型糖尿病</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2型糖尿病</t>
+          <t>慢阻肺</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>慢阻肺</t>
+          <t>肺部感染</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>肺部感染</t>
+          <t>肺炎</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>肺炎</t>
+          <t>肝/肾功能异常</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>肝/肾功能异常</t>
+          <t>肿瘤</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>肿瘤</t>
+          <t>心房颤动</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>心房颤动</t>
+          <t>心力衰竭</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>心力衰竭</t>
+          <t>气管插管</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>气管插管</t>
+          <t>输血</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>输血</t>
+          <t>用药总数</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>用药总数</t>
+          <t>抗菌药物数目</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>抗菌药物数目</t>
+          <t>利尿剂</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>利尿剂</t>
+          <t>抗心律失常药</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>抗心律失常药</t>
+          <t>胃肠用药</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>胃肠用药</t>
+          <t>支气管扩张药</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>支气管扩张药</t>
+          <t>体温</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>体温</t>
+          <t>呼吸R</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>呼吸R</t>
+          <t>心率HR</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>心率HR</t>
+          <t>舒张压</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>舒张压</t>
+          <t>收缩压</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>收缩压</t>
+          <t>尿酸(UA)</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>尿酸(UA)</t>
+          <t>(AST/ALT)</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>(AST/ALT)</t>
+          <t>尿素(Urea)</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>尿素(Urea)</t>
+          <t>白蛋白(ALB)</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>白蛋白(ALB)</t>
+          <t>总胆红素(TBIL)</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>总胆红素(TBIL)</t>
+          <t>肌酐(Crea)</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>肌酐(Crea)</t>
+          <t>碱性磷酸酶(ALP)</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>碱性磷酸酶(ALP)</t>
+          <t>总蛋白(TP)</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>总蛋白(TP)</t>
+          <t>钾离子(K+)</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>钾离子(K+)</t>
+          <t>氯离子(Cl-)</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>氯离子(Cl-)</t>
+          <t>钙离子(Ca2+)</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>钙离子(Ca2+)</t>
+          <t>钠离子(Na+)</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>钠离子(Na+)</t>
+          <t>白细胞计数(WBC#)</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>白细胞计数(WBC#)</t>
+          <t>血小板计数(PLT#)</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>血小板计数(PLT#)</t>
+          <t>红细胞比容(Hct)</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>红细胞比容(Hct)</t>
+          <t>红细胞计数(RBC#)</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>红细胞计数(RBC#)</t>
+          <t>血红蛋白(Hb)</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>血红蛋白(Hb)</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>不良反应</t>
         </is>
@@ -704,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -713,19 +708,19 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -734,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
         <v>1</v>
@@ -743,22 +738,22 @@
         <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
         <v>1</v>
@@ -767,75 +762,72 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>1.545774758959878</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.556096963359909</v>
+        <v>0.6849834202213746</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.6865572197013861</v>
+        <v>-0.08888888888888889</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.08888888888888889</v>
+        <v>-2.475074203868341</v>
       </c>
       <c r="AE2" t="n">
-        <v>-2.463704011583743</v>
+        <v>-2.315789473684211</v>
       </c>
       <c r="AF2" t="n">
-        <v>-2.315789473684211</v>
+        <v>0.7302513039355144</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.7467758408184089</v>
+        <v>3.411519974713456</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.411096549076162</v>
+        <v>5.879990074489226</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.891091716100367</v>
+        <v>-0.8803364808504325</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.8774948114336697</v>
+        <v>-1.650063101623905</v>
       </c>
       <c r="AK2" t="n">
-        <v>-1.649910650082639</v>
+        <v>0.5954751131221721</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.5954751131221721</v>
+        <v>0.707432719348973</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.7074788650796646</v>
+        <v>-0.6751300616118425</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.6607102193416169</v>
+        <v>0.454545454545454</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.4575783295519781</v>
+        <v>0.09811096438074997</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.09762544363599995</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.4000000000000004</v>
+        <v>1.753371868978805</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.753371868978805</v>
+        <v>-0.3671562082777036</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.3671562082777036</v>
+        <v>-0.6796875</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.6796875</v>
+        <v>-1.398773006134969</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.398773006134969</v>
+        <v>-1.428358071065189</v>
       </c>
       <c r="AV2" t="n">
-        <v>-1.428571428571429</v>
+        <v>-0.8846153846153846</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.8846153846153846</v>
-      </c>
-      <c r="AX2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -861,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -870,10 +862,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
@@ -897,19 +889,19 @@
         <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="V3" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3" t="n">
         <v>1</v>
@@ -921,75 +913,72 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>-0.3864436897399763</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0.3890242408399842</v>
+        <v>-1.712458550553436</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1.716393049253465</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="AD3" t="n">
-        <v>2.222222222222222</v>
+        <v>-0.4750742038683411</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.4637040115837427</v>
+        <v>-0.5614035087719298</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.5614035087719298</v>
+        <v>-1.186296823138928</v>
       </c>
       <c r="AG3" t="n">
-        <v>-1.169772286256034</v>
+        <v>0.1870536982280989</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.1855973506143881</v>
+        <v>-0.02603301390712458</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.02608216521295903</v>
+        <v>-1.957259557773511</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-1.954417888356748</v>
+        <v>1.654284724463051</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.654437176004318</v>
+        <v>-0.4434389140271493</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0.4434389140271493</v>
+        <v>-1.529855416244247</v>
       </c>
       <c r="AM3" t="n">
-        <v>-1.529809270513556</v>
+        <v>-1.895464075856272</v>
       </c>
       <c r="AN3" t="n">
-        <v>-1.879102864756379</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.5712146931883424</v>
+        <v>0.05836970586094703</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.05745289041474987</v>
+        <v>0.7200000000000006</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.7200000000000006</v>
+        <v>-1.348747591522159</v>
       </c>
       <c r="AR3" t="n">
-        <v>-1.348747591522159</v>
+        <v>-0.6381842456608812</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.6381842456608812</v>
+        <v>-0.703125</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.703125</v>
+        <v>0.06134969325153376</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.06134969325153376</v>
+        <v>-0.2595269022340194</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.2597402597402595</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="AX3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1015,25 +1004,25 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
         <v>1</v>
@@ -1057,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
@@ -1075,75 +1064,72 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>-0.3864436897399763</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.3890242408399842</v>
+        <v>-0.3424917101106873</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.343278609850693</v>
+        <v>-0.3703703703703703</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.3703703703703703</v>
+        <v>-0.3500742038683411</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.3387040115837427</v>
+        <v>-0.631578947368421</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.631578947368421</v>
+        <v>-0.4646277856804173</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.4481032487975229</v>
+        <v>4.086800870312485</v>
       </c>
       <c r="AH4" t="n">
-        <v>4.086593763413707</v>
+        <v>-0.4269414280768447</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.4277475094925296</v>
+        <v>-0.4380287885427404</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.4351871191259776</v>
+        <v>1.886168782434066</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.886321233975332</v>
+        <v>-1.067873303167421</v>
       </c>
       <c r="AL4" t="n">
-        <v>-1.067873303167421</v>
+        <v>-0.4112113484476372</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.4111652027169456</v>
+        <v>0.2173530234325897</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.2303530586482823</v>
+        <v>-0.5681818181818182</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.5651489431752942</v>
+        <v>-0.8758408204548424</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.8767576359010395</v>
+        <v>-0.7599999999999998</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.7599999999999998</v>
+        <v>-1.136801541425821</v>
       </c>
       <c r="AR4" t="n">
-        <v>-1.136801541425821</v>
+        <v>-0.4632843791722296</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.4632843791722296</v>
+        <v>0.7421875</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.7421875</v>
+        <v>0.02453987730061385</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.02453987730061385</v>
+        <v>0.1430705003633835</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.1428571428571433</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="AX4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1166,10 +1152,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1184,10 +1170,10 @@
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -1211,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1220,84 +1206,81 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="n">
         <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>4.637324276879633</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.668290890079728</v>
+        <v>1.027475130332062</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.029835829552079</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.08888888888888889</v>
+        <v>-0.1586833191036607</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.1383346207122598</v>
+        <v>-0.4409408449007051</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.4359332749321683</v>
+        <v>0.9953058321479372</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.011830369030832</v>
+        <v>-0.3194069734711719</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.3210255601387701</v>
+        <v>-0.02950408242807462</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.02955978724135366</v>
+        <v>-0.01495186546581643</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.01211019604905363</v>
+        <v>-0.9447490919620695</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.9445966404208028</v>
+        <v>-0.3891402714932127</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0.3891402714932127</v>
+        <v>1.785398821043889</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.78544496677458</v>
+        <v>0.07164149934370319</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.08487333979278894</v>
+        <v>0.9431818181818183</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.9462146931883425</v>
+        <v>-1.033735557296948</v>
       </c>
       <c r="AP5" t="n">
-        <v>-1.034652372743145</v>
+        <v>-0.3200000000000003</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.3200000000000003</v>
+        <v>-0.03853564547206496</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.03853564547206496</v>
+        <v>-0.3805073431241656</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.3805073431241656</v>
+        <v>-0.7265625</v>
       </c>
       <c r="AT5" t="n">
-        <v>-0.7265625</v>
+        <v>3.202453987730062</v>
       </c>
       <c r="AU5" t="n">
-        <v>3.202453987730062</v>
+        <v>2.922291279584165</v>
       </c>
       <c r="AV5" t="n">
-        <v>2.922077922077924</v>
+        <v>2.5</v>
       </c>
       <c r="AW5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AX5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1320,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -1329,13 +1312,13 @@
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
@@ -1344,28 +1327,28 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
         <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1374,84 +1357,81 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>1.545774758959878</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.556096963359909</v>
+        <v>-2.054950260664123</v>
       </c>
       <c r="AC6" t="n">
-        <v>-2.059671659104158</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.02962962962962963</v>
+        <v>-0.4750742038683411</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.4637040115837427</v>
+        <v>-0.2807017543859649</v>
       </c>
       <c r="AF6" t="n">
-        <v>-0.2807017543859649</v>
+        <v>0.5282598387861545</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.5447843756690488</v>
+        <v>0.5753402131975394</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.5740082488584757</v>
+        <v>0.572726305956743</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.5738076346851009</v>
+        <v>1.254278903764954</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.257120573181717</v>
+        <v>-0.03653653157559618</v>
       </c>
       <c r="AK6" t="n">
-        <v>-0.03638408003432952</v>
+        <v>1.257918552036199</v>
       </c>
       <c r="AL6" t="n">
-        <v>1.257918552036199</v>
+        <v>-0.9535842298035694</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.9535380840728778</v>
+        <v>0.9216253898622099</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.9335050331165022</v>
+        <v>0.6818181818181815</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.6848510568247056</v>
+        <v>1.07152760059779</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.070610785151593</v>
+        <v>0.4800000000000004</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.4800000000000004</v>
+        <v>2.119460500963392</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.119460500963392</v>
+        <v>-0.267022696929239</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.267022696929239</v>
+        <v>-0.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>-0.5</v>
+        <v>-0.7484662576687116</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.7484662576687116</v>
+        <v>-0.5582282009353182</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.5584415584415584</v>
+        <v>-0.5769230769230769</v>
       </c>
       <c r="AW6" t="n">
-        <v>-0.5769230769230769</v>
-      </c>
-      <c r="AX6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -1483,16 +1463,16 @@
         <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1501,16 +1481,16 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
@@ -1525,87 +1505,84 @@
         <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0.7728873794799251</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.7780484816799408</v>
+        <v>3.082425390996185</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.089507488656237</v>
+        <v>0.6074074074074074</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.6074074074074074</v>
+        <v>0.3999257961316589</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.4112959884162573</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.2105263157894737</v>
+        <v>1.008582266477003</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.025106803359898</v>
+        <v>-1.484266518379495</v>
       </c>
       <c r="AH7" t="n">
-        <v>-1.486258254871034</v>
+        <v>0.6161146624686175</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.6172779100400327</v>
+        <v>1.542740442226493</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1.545582111643256</v>
+        <v>0.1277146761538727</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.1278671276951394</v>
+        <v>-0.07058823529411774</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0.07058823529411774</v>
+        <v>2.17183949900999</v>
       </c>
       <c r="AM7" t="n">
-        <v>2.171885644740681</v>
+        <v>0.9216253898622099</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.9335050331165022</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.2303056022792511</v>
+        <v>-1.138998715191685</v>
       </c>
       <c r="AP7" t="n">
-        <v>-1.139915530637882</v>
+        <v>-0.6400000000000006</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-0.6400000000000006</v>
+        <v>-1.136801541425821</v>
       </c>
       <c r="AR7" t="n">
-        <v>-1.136801541425821</v>
+        <v>0.8504672897196264</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.8504672897196264</v>
+        <v>0.9609375</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.9609375</v>
+        <v>0.07361963190184068</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.07361963190184068</v>
+        <v>0.3119016691945518</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.3116883116883116</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="AX7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1628,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1646,10 +1623,10 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -1673,16 +1650,16 @@
         <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="n">
         <v>1</v>
@@ -1691,75 +1668,72 @@
         <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>-0.3864436897399763</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.3890242408399842</v>
+        <v>-0.3424917101106873</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.343278609850693</v>
+        <v>-0.237037037037037</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.237037037037037</v>
+        <v>-0.2250742038683411</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.2137040115837427</v>
+        <v>-0.5614035087719298</v>
       </c>
       <c r="AF8" t="n">
-        <v>-0.5614035087719298</v>
+        <v>-1.185348506401138</v>
       </c>
       <c r="AG8" t="n">
-        <v>-1.168823969518244</v>
+        <v>-2.395895727438182</v>
       </c>
       <c r="AH8" t="n">
-        <v>-2.398179494226719</v>
+        <v>-0.2516524677688717</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.2521275970586047</v>
+        <v>-0.7264903270042791</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-0.7236486575875163</v>
+        <v>0.1470383476514572</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.1471907991927238</v>
+        <v>-0.9592760180995475</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0.9592760180995475</v>
+        <v>-1.001041856922214</v>
       </c>
       <c r="AM8" t="n">
-        <v>-1.000995711191522</v>
+        <v>-1.057622812345172</v>
       </c>
       <c r="AN8" t="n">
-        <v>-1.042594481337289</v>
+        <v>-1.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>-1.246967124993476</v>
+        <v>-1.928472399402211</v>
       </c>
       <c r="AP8" t="n">
-        <v>-1.929389214848409</v>
+        <v>-0.8399999999999999</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0.8399999999999999</v>
+        <v>0.2119460500963381</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.2119460500963381</v>
+        <v>-0.5500667556742322</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.5500667556742322</v>
+        <v>-0.234375</v>
       </c>
       <c r="AT8" t="n">
-        <v>-0.234375</v>
+        <v>0.3067484662576688</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.3067484662576688</v>
+        <v>0.1690445263374095</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.1688311688311694</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="AX8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1782,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1794,10 +1768,10 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1815,28 +1789,28 @@
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
         <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V9" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
         <v>1</v>
@@ -1845,75 +1819,72 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>1</v>
+        <v>-2.31866213843983</v>
       </c>
       <c r="AB9" t="n">
-        <v>-2.334145445039878</v>
+        <v>3.76740881121756</v>
       </c>
       <c r="AC9" t="n">
-        <v>3.776064708357624</v>
+        <v>0.3851851851851852</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.3851851851851852</v>
+        <v>0.2749257961316589</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.2862959884162573</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>0.4742057847321005</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.4907303216149949</v>
+        <v>-0.6064013541007585</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.6081118762322263</v>
+        <v>0.720246718097116</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.7216065708918691</v>
+        <v>1.004278903764953</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.007120573181716</v>
+        <v>0.9199852075548388</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.9201376590961055</v>
+        <v>0.5972850678733032</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.5972850678733032</v>
+        <v>-0.6044316874306882</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.6043855416999965</v>
+        <v>0.5573465796399923</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.5698057359777676</v>
+        <v>0.6818181818181815</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.6848510568247056</v>
+        <v>0.4399486532293691</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.439031837783172</v>
+        <v>0.5600000000000005</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.5600000000000005</v>
+        <v>0.2119460500963381</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.2119460500963381</v>
+        <v>0.04939919893190935</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.04939919893190935</v>
+        <v>2.171875</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.171875</v>
+        <v>-0.0368098159509199</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0.0368098159509199</v>
+        <v>0.09112244841533151</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.09090909090909133</v>
+        <v>-0.07692307692307693</v>
       </c>
       <c r="AW9" t="n">
-        <v>-0.07692307692307693</v>
-      </c>
-      <c r="AX9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1936,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -1954,10 +1925,10 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
         <v>1</v>
@@ -1981,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1990,84 +1961,81 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>0.3424917101106873</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.343278609850693</v>
+        <v>1.57037037037037</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.57037037037037</v>
+        <v>0.7749257961316589</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.7862959884162573</v>
+        <v>-0.5614035087719298</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.5614035087719298</v>
+        <v>-0.6840908354596805</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.7282917411493237</v>
+        <v>0.0361694535003278</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.03109085085099129</v>
+        <v>-0.03557886358842378</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.09182855948829649</v>
+        <v>-0.2984624559046782</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.3221110793128063</v>
+        <v>0.01331003507536997</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.01298620565385885</v>
+        <v>-0.2773084198451765</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.3198670407603024</v>
+        <v>-0.0003587996285899654</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.0006313740175455215</v>
+        <v>-0.5156379920012527</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.5207828277698097</v>
+        <v>-0.454545454545455</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.4515125795389309</v>
+        <v>-0.8100513467706318</v>
       </c>
       <c r="AP10" t="n">
-        <v>-0.810968162216829</v>
+        <v>1.359999999999999</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.359999999999999</v>
+        <v>0.4238921001926762</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.4238921001926762</v>
+        <v>-0.2923898531375166</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.2923898531375166</v>
+        <v>0.0078125</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0078125</v>
+        <v>1.509202453987731</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.509202453987731</v>
+        <v>1.467745825038709</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.467532467532469</v>
+        <v>1.384615384615385</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.384615384615385</v>
-      </c>
-      <c r="AX10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2090,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -2108,10 +2076,10 @@
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -2135,10 +2103,10 @@
         <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11" t="n">
         <v>1</v>
@@ -2147,81 +2115,78 @@
         <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>-0.3864436897399763</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.3890242408399842</v>
+        <v>1.712458550553436</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.716393049253465</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.02492579613165891</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.03629598841625725</v>
+        <v>-0.07017543859649122</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.07017543859649122</v>
+        <v>-0.6931721194879089</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.6766475826050146</v>
+        <v>0.05748025335203914</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.05768872577390183</v>
+        <v>-0.5293379494448683</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.5303373593301688</v>
+        <v>-0.2564853474829284</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0.2548845038045101</v>
+        <v>0.01744636940128114</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0174420936728572</v>
+        <v>0.06334841628959276</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.06334841628959276</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>-0.4702052456932863</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0.4554249130627058</v>
+        <v>-0.7954545454545457</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.7924216704480217</v>
+        <v>-1.020577662560105</v>
       </c>
       <c r="AP11" t="n">
-        <v>-1.021494478006302</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.5999999999999996</v>
+        <v>0.2119460500963381</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.2119460500963381</v>
+        <v>-0.4072096128170895</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.4072096128170895</v>
+        <v>0.1015625</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.1015625</v>
+        <v>0.5276073619631908</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.5276073619631908</v>
+        <v>0.3378756951685783</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.3376623376623382</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="AX11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2244,31 +2209,31 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -2283,16 +2248,16 @@
         <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
         <v>1</v>
@@ -2301,81 +2266,78 @@
         <v>1</v>
       </c>
       <c r="Y12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>1.159331069219901</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.167072722519925</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>-0.162962962962963</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.162962962962963</v>
+        <v>-1.287574203868341</v>
       </c>
       <c r="AE12" t="n">
-        <v>-1.276204011583743</v>
+        <v>-1.087719298245614</v>
       </c>
       <c r="AF12" t="n">
-        <v>-1.087719298245614</v>
+        <v>-0.7728307254623045</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.75630618857941</v>
+        <v>-0.370053040641099</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.3716878512140859</v>
+        <v>-0.08677671302374891</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.08694055070986374</v>
+        <v>-1.322644173158125</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-1.319802503741363</v>
+        <v>-0.01721286007801136</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0.01706040853674471</v>
+        <v>-0.9411764705882353</v>
       </c>
       <c r="AL12" t="n">
-        <v>-0.9411764705882353</v>
+        <v>0.707432719348973</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.7074788650796646</v>
+        <v>-0.8147702721970266</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0.8001282832447992</v>
+        <v>-0.5681818181818182</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.5651489431752942</v>
+        <v>-0.1771296794635791</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0.1782192982544605</v>
+        <v>-0.08284680390290866</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0.08237280094324895</v>
+        <v>-0.1580751234989615</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.1569552613294826</v>
+        <v>0.4979973297730308</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.4979973297730308</v>
+        <v>0.765625</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.765625</v>
+        <v>-0.3435582822085887</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0.3435582822085887</v>
+        <v>0.2209925782854616</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.2207792207792214</v>
+        <v>-0.3461538461538461</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0.3461538461538461</v>
-      </c>
-      <c r="AX12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2398,7 +2360,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -2431,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>1</v>
@@ -2443,10 +2405,10 @@
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
         <v>1</v>
@@ -2461,75 +2423,72 @@
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>3.864436897399708</v>
       </c>
       <c r="AB13" t="n">
-        <v>3.890242408399787</v>
+        <v>3.082425390996185</v>
       </c>
       <c r="AC13" t="n">
-        <v>3.089507488656237</v>
+        <v>1.155555555555555</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.155555555555555</v>
+        <v>-1.100074203868341</v>
       </c>
       <c r="AE13" t="n">
-        <v>-1.088704011583743</v>
+        <v>-0.8421052631578947</v>
       </c>
       <c r="AF13" t="n">
-        <v>-0.8421052631578947</v>
+        <v>0.1080574762252265</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.119226718879837</v>
+        <v>0.203996791640624</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.2020254568513402</v>
+        <v>1.520224577224267</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.521411432633121</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>0.03563782074980005</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.03579057833031039</v>
+        <v>0.3861162464415712</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.3830486243025737</v>
+        <v>0.003438707192796593</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.003465167495149263</v>
+        <v>-0.390909192364387</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.381403896841333</v>
+        <v>-1.363636363636364</v>
       </c>
       <c r="AO13" t="n">
-        <v>-1.36060348862984</v>
+        <v>1.229422337439896</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.228505521993699</v>
+        <v>-0.08000000000000007</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0.08000000000000007</v>
+        <v>0.5973025048169549</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.5973025048169549</v>
+        <v>-0.3965287049399199</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0.3965287049399199</v>
+        <v>-0.4375</v>
       </c>
       <c r="AT13" t="n">
-        <v>-0.4375</v>
+        <v>0.02453987730061385</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.02453987730061385</v>
+        <v>-0.1296567723638899</v>
       </c>
       <c r="AV13" t="n">
-        <v>-0.1298701298701301</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.03846153846153846</v>
-      </c>
-      <c r="AX13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,7 +2511,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2561,22 +2520,22 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
@@ -2585,10 +2544,10 @@
         <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2600,7 +2559,7 @@
         <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -2612,78 +2571,75 @@
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>-2.31866213843983</v>
       </c>
       <c r="AB14" t="n">
-        <v>-2.334145445039878</v>
+        <v>1.027475130332062</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.029835829552079</v>
+        <v>-0.5481481481481482</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.5481481481481482</v>
+        <v>-0.1000742038683411</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.08870401158374275</v>
+        <v>-0.4912280701754386</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.4912280701754386</v>
+        <v>0.1484589853010906</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.164983522183985</v>
+        <v>-2.210193481148449</v>
       </c>
       <c r="AH14" t="n">
-        <v>-2.212417760283894</v>
+        <v>-0.229090522382697</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.2295230538740402</v>
+        <v>-0.1687980193119712</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0.1659563498952084</v>
+        <v>0.7847195070717469</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.7848719586130135</v>
+        <v>0.02895927601809944</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.02895927601809944</v>
+        <v>0.005275563798532295</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.005340319039664425</v>
+        <v>0.369653048572546</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.3972289623423227</v>
+        <v>0.3068181818181819</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.309851056824706</v>
+        <v>-0.2600513467706305</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0.2609681622168277</v>
+        <v>-0.7200000000000006</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-0.7200000000000006</v>
+        <v>-1.955684007707131</v>
       </c>
       <c r="AR14" t="n">
-        <v>-1.955684007707131</v>
+        <v>-0.06942590120160208</v>
       </c>
       <c r="AS14" t="n">
-        <v>-0.06942590120160208</v>
+        <v>-0.046875</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0.046875</v>
+        <v>-0.3190184049079748</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0.3190184049079748</v>
+        <v>-0.2595269022340194</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0.2597402597402595</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="AW14" t="n">
-        <v>-0.3076923076923077</v>
-      </c>
-      <c r="AX14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2706,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -2718,19 +2674,19 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
@@ -2751,7 +2707,7 @@
         <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2760,84 +2716,81 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>-1.712458550553436</v>
       </c>
       <c r="AC15" t="n">
-        <v>-1.716393049253465</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.3111111111111111</v>
+        <v>-1.850074203868341</v>
       </c>
       <c r="AE15" t="n">
-        <v>-1.838704011583743</v>
+        <v>-1.614035087719298</v>
       </c>
       <c r="AF15" t="n">
-        <v>-1.614035087719298</v>
+        <v>0.1418207681365574</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.1583453050194519</v>
+        <v>0.08576156388824469</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.08427276846375643</v>
+        <v>0.7775193486927904</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.7789873343603793</v>
+        <v>0.6388942883803377</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.6417359577971005</v>
+        <v>-0.1524785605611034</v>
       </c>
       <c r="AK15" t="n">
-        <v>-0.1523261090198367</v>
+        <v>0.07058823529411774</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.07058823529411774</v>
+        <v>-1.326465585735773</v>
       </c>
       <c r="AM15" t="n">
-        <v>-1.326419440005081</v>
+        <v>-0.09835527875999814</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0.08485299887195373</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.5257601477337969</v>
+        <v>0.4136328637556845</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.4127160483094873</v>
+        <v>-1.28</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-1.28</v>
+        <v>0.5009633911368007</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.5009633911368007</v>
+        <v>1.468624833110814</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.468624833110814</v>
+        <v>-0.0859375</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0.0859375</v>
+        <v>-0.760736196319018</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0.760736196319018</v>
+        <v>-0.7919944347015523</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0.7922077922077925</v>
+        <v>-0.6153846153846154</v>
       </c>
       <c r="AW15" t="n">
-        <v>-0.6153846153846154</v>
-      </c>
-      <c r="AX15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2860,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -2869,28 +2822,28 @@
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -2905,16 +2858,16 @@
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V16" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
         <v>1</v>
@@ -2923,75 +2876,72 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>1</v>
+        <v>0.3864436897399763</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.3890242408399842</v>
+        <v>-0.3424917101106873</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.343278609850693</v>
+        <v>-0.2814814814814815</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.2814814814814815</v>
+        <v>-0.4750742038683411</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.4637040115837427</v>
+        <v>-0.8421052631578947</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.8421052631578947</v>
+        <v>0.1641536273115221</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.1806781641944165</v>
+        <v>-1.028451913850151</v>
       </c>
       <c r="AH16" t="n">
-        <v>-1.030297635193191</v>
+        <v>0.883386938581764</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.8850548062264129</v>
+        <v>-0.3361057116196632</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0.3332640422029004</v>
+        <v>2.014671197893003</v>
       </c>
       <c r="AK16" t="n">
-        <v>2.01482364943427</v>
+        <v>0.9078733031674208</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.9078733031674208</v>
+        <v>-0.06680456878662039</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0.06675842305592873</v>
+        <v>-0.3023514124844399</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0.2885246052696451</v>
+        <v>-0.363636363636364</v>
       </c>
       <c r="AO16" t="n">
-        <v>-0.3606034886298399</v>
+        <v>-1.520577662560107</v>
       </c>
       <c r="AP16" t="n">
-        <v>-1.521494478006304</v>
+        <v>1.720000000000001</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.720000000000001</v>
+        <v>0.8978805394990363</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.8978805394990363</v>
+        <v>1.763684913217624</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.763684913217624</v>
+        <v>0.5703125</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5703125</v>
+        <v>0.1472392638036814</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.1472392638036814</v>
+        <v>0.2209925782854616</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.2207792207792214</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.4615384615384616</v>
-      </c>
-      <c r="AX16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3014,16 +2964,16 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -3035,10 +2985,10 @@
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
@@ -3059,13 +3009,13 @@
         <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="V17" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
         <v>1</v>
@@ -3077,75 +3027,72 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>-0.3864436897399763</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.3890242408399842</v>
+        <v>-0.3424917101106873</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.343278609850693</v>
+        <v>1.259259259259259</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.259259259259259</v>
+        <v>1.399925796131659</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.411295988416257</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.08065433854907535</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.09717887543196976</v>
+        <v>-0.7752215780005156</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.7769861798166124</v>
+        <v>-0.008677671302374861</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.008694055070986343</v>
+        <v>1.023509672995723</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.026351342412485</v>
+        <v>-1.099338463942746</v>
       </c>
       <c r="AK17" t="n">
-        <v>-1.099186012401479</v>
+        <v>-0.16289592760181</v>
       </c>
       <c r="AL17" t="n">
-        <v>-0.16289592760181</v>
+        <v>1.45319543121338</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.453241576944071</v>
+        <v>0.2416382774474045</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.2545996784575316</v>
+        <v>-0.2272727272727275</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.2242398522662034</v>
+        <v>-0.481103978349579</v>
       </c>
       <c r="AP17" t="n">
-        <v>-0.4820207937957761</v>
+        <v>0.5199999999999996</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.5199999999999996</v>
+        <v>-0.9441233140655121</v>
       </c>
       <c r="AR17" t="n">
-        <v>-0.9441233140655121</v>
+        <v>0.1375166889185583</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.1375166889185583</v>
+        <v>-0.375</v>
       </c>
       <c r="AT17" t="n">
-        <v>-0.375</v>
+        <v>0.6802229953688855</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.6953666729654516</v>
+        <v>0.5196938769867598</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.5194805194805197</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.5769230769230769</v>
-      </c>
-      <c r="AX17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3168,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -3177,10 +3124,10 @@
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -3195,10 +3142,10 @@
         <v>1</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -3219,87 +3166,84 @@
         <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>-1.932218448699854</v>
       </c>
       <c r="AB18" t="n">
-        <v>-1.945121204199894</v>
+        <v>-0.6849834202213746</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.6865572197013861</v>
+        <v>-0.2814814814814815</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.2814814814814815</v>
+        <v>-1.537574203868341</v>
       </c>
       <c r="AE18" t="n">
-        <v>-1.526204011583743</v>
+        <v>-1.754385964912281</v>
       </c>
       <c r="AF18" t="n">
-        <v>-1.754385964912281</v>
+        <v>0.8388335704125176</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.8553581072954121</v>
+        <v>-0.8427496675604184</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.8445359012503669</v>
+        <v>7.18511183836641</v>
       </c>
       <c r="AI18" t="n">
-        <v>7.198677598776718</v>
+        <v>-0.9187980193119716</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-0.9159563498952088</v>
+        <v>2.572159120598317</v>
       </c>
       <c r="AK18" t="n">
-        <v>2.572311572139584</v>
+        <v>-0.16289592760181</v>
       </c>
       <c r="AL18" t="n">
-        <v>-0.16289592760181</v>
+        <v>7.758280176976093</v>
       </c>
       <c r="AM18" t="n">
-        <v>7.758326322706783</v>
+        <v>-1.361188487530353</v>
       </c>
       <c r="AN18" t="n">
-        <v>-1.345677228952901</v>
+        <v>0.5113636363636366</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.5143965113701607</v>
+        <v>0.07152760059779027</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.07061078515159311</v>
+        <v>-1.8</v>
       </c>
       <c r="AQ18" t="n">
-        <v>-1.8</v>
+        <v>-1.233140655105975</v>
       </c>
       <c r="AR18" t="n">
-        <v>-1.233140655105975</v>
+        <v>-0.2990654205607477</v>
       </c>
       <c r="AS18" t="n">
-        <v>-0.2990654205607477</v>
+        <v>-0.8515625</v>
       </c>
       <c r="AT18" t="n">
-        <v>-0.8515625</v>
+        <v>-1.214723926380368</v>
       </c>
       <c r="AU18" t="n">
-        <v>-1.214723926380368</v>
+        <v>-0.986799629506747</v>
       </c>
       <c r="AV18" t="n">
-        <v>-0.9870129870129872</v>
+        <v>-0.8846153846153846</v>
       </c>
       <c r="AW18" t="n">
-        <v>-0.8846153846153846</v>
-      </c>
-      <c r="AX18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3322,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -3331,7 +3275,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -3340,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -3355,10 +3299,10 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
@@ -3367,16 +3311,16 @@
         <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
         <v>1</v>
@@ -3385,75 +3329,72 @@
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>0.3040938874547959</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.3020788662990253</v>
+        <v>6.507342492103058</v>
       </c>
       <c r="AC19" t="n">
-        <v>6.522293587163167</v>
+        <v>1.051851851851852</v>
       </c>
       <c r="AD19" t="n">
-        <v>1.051851851851852</v>
+        <v>0.3222936886513832</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.3174988254411089</v>
+        <v>0.1639792252755753</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.1614880805737331</v>
+        <v>0.2916548127074443</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.3081793495903387</v>
+        <v>3.27646379559365</v>
       </c>
       <c r="AH19" t="n">
-        <v>3.275997106208653</v>
+        <v>0.5640486346543679</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.5651135796141143</v>
+        <v>2.408125057611109</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2.410966727027872</v>
+        <v>2.427231584366433</v>
       </c>
       <c r="AK19" t="n">
-        <v>2.427384035907699</v>
+        <v>0.7167420814479637</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.7167420814479637</v>
+        <v>-0.2078215179391626</v>
       </c>
       <c r="AM19" t="n">
-        <v>-0.207775372208471</v>
+        <v>1.492328859210351</v>
       </c>
       <c r="AN19" t="n">
-        <v>1.503300598633854</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.5712146931883424</v>
+        <v>0.5320539163872643</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.5311371009410671</v>
+        <v>0.6799999999999997</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.6799999999999997</v>
+        <v>0.327552986512522</v>
       </c>
       <c r="AR19" t="n">
-        <v>0.327552986512522</v>
+        <v>-0.3805073431241656</v>
       </c>
       <c r="AS19" t="n">
-        <v>-0.3805073431241656</v>
+        <v>-0.734375</v>
       </c>
       <c r="AT19" t="n">
-        <v>-0.734375</v>
+        <v>0.233128834355829</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.233128834355829</v>
+        <v>0.1560575133503962</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.1558441558441561</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.1538461538461539</v>
-      </c>
-      <c r="AX19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,7 +3417,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -3494,10 +3435,10 @@
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
         <v>1</v>
@@ -3530,84 +3471,81 @@
         <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>1</v>
+        <v>-1.545774758959878</v>
       </c>
       <c r="AB20" t="n">
-        <v>-1.556096963359909</v>
+        <v>0.3424917101106873</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.343278609850693</v>
+        <v>0.5481481481481482</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.5481481481481482</v>
+        <v>-0.4750742038683411</v>
       </c>
       <c r="AE20" t="n">
-        <v>-0.4637040115837427</v>
+        <v>-0.7368421052631579</v>
       </c>
       <c r="AF20" t="n">
-        <v>-0.7368421052631579</v>
+        <v>-1.19009009009009</v>
       </c>
       <c r="AG20" t="n">
-        <v>-1.173565553207196</v>
+        <v>-0.488227197370929</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.4898998637231563</v>
+        <v>-0.636941073594317</v>
       </c>
       <c r="AI20" t="n">
-        <v>-0.6381436422103998</v>
+        <v>-1.918798019311972</v>
       </c>
       <c r="AJ20" t="n">
-        <v>-1.915956349895209</v>
+        <v>-1.195956821430669</v>
       </c>
       <c r="AK20" t="n">
-        <v>-1.195804369889402</v>
+        <v>-0.416289592760181</v>
       </c>
       <c r="AL20" t="n">
-        <v>-0.416289592760181</v>
+        <v>-1.868838467091705</v>
       </c>
       <c r="AM20" t="n">
-        <v>-1.868792321361013</v>
+        <v>-1.72546729775257</v>
       </c>
       <c r="AN20" t="n">
-        <v>-1.709376526091636</v>
+        <v>-0.681818181818182</v>
       </c>
       <c r="AO20" t="n">
-        <v>-0.6787853068116579</v>
+        <v>0.04521181112410567</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.0442949956779085</v>
+        <v>-1.640000000000001</v>
       </c>
       <c r="AQ20" t="n">
-        <v>-1.640000000000001</v>
+        <v>-0.366088631984587</v>
       </c>
       <c r="AR20" t="n">
-        <v>-0.366088631984587</v>
+        <v>-0.3831775700934579</v>
       </c>
       <c r="AS20" t="n">
-        <v>-0.3831775700934579</v>
+        <v>-0.2265625</v>
       </c>
       <c r="AT20" t="n">
-        <v>-0.2265625</v>
+        <v>0.02453987730061385</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.02453987730061385</v>
+        <v>0.3119016691945518</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.3116883116883116</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="AX20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3630,7 +3568,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -3639,10 +3577,10 @@
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -3651,10 +3589,10 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -3666,25 +3604,25 @@
         <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V21" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" t="n">
         <v>1</v>
@@ -3693,75 +3631,72 @@
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>-0.7728873794799527</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.7780484816799684</v>
+        <v>-0.3424917101106873</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.343278609850693</v>
+        <v>-0.2962962962962963</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.2962962962962963</v>
+        <v>-0.3500742038683411</v>
       </c>
       <c r="AE21" t="n">
-        <v>-0.3387040115837427</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.7017543859649122</v>
+        <v>-0.6353247984826933</v>
       </c>
       <c r="AG21" t="n">
-        <v>-0.6188002615997988</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>0.1648757547451231</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.1651870463487413</v>
+        <v>-0.1396383134576228</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-0.1366970461574766</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>-0.4886877828054298</v>
       </c>
       <c r="AL21" t="n">
-        <v>-0.4886877828054298</v>
+        <v>0.001407836908417027</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.001421480012179838</v>
+        <v>0.0445583511708418</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.05334924026946326</v>
+        <v>-1.477272727272728</v>
       </c>
       <c r="AO21" t="n">
-        <v>-1.474239852266204</v>
+        <v>-1.138998715191685</v>
       </c>
       <c r="AP21" t="n">
-        <v>-1.139915530637882</v>
+        <v>0</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>0.01926782273602974</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.01926782273602974</v>
+        <v>0.9385847797062753</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.9385847797062753</v>
+        <v>0.7265625</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.7265625</v>
+        <v>0.6380368098159513</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.6380368098159513</v>
+        <v>0.8443692016620847</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.8441558441558445</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.3846153846153846</v>
-      </c>
-      <c r="AX21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3784,7 +3719,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -3793,19 +3728,19 @@
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>1</v>
@@ -3820,10 +3755,10 @@
         <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>1</v>
@@ -3832,90 +3767,87 @@
         <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>1</v>
+        <v>1.159331069219901</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.167072722519925</v>
+        <v>-1.027475130332062</v>
       </c>
       <c r="AC22" t="n">
-        <v>-1.029835829552079</v>
+        <v>-0.05925925925925926</v>
       </c>
       <c r="AD22" t="n">
-        <v>-0.05925925925925926</v>
+        <v>0.08742579613165891</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.09879598841625725</v>
+        <v>0.9824561403508771</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.9824561403508771</v>
+        <v>2.110052157420578</v>
       </c>
       <c r="AG22" t="n">
-        <v>2.126576694303473</v>
+        <v>-0.09994068240148808</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.1014889654790684</v>
+        <v>1.369336531514758</v>
       </c>
       <c r="AI22" t="n">
-        <v>1.37192189020165</v>
+        <v>0.6004327499187987</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.6032744193355615</v>
+        <v>-0.05586020307318065</v>
       </c>
       <c r="AK22" t="n">
-        <v>-0.055707751531914</v>
+        <v>3.257918552036199</v>
       </c>
       <c r="AL22" t="n">
-        <v>3.257918552036199</v>
+        <v>-1.258668975566281</v>
       </c>
       <c r="AM22" t="n">
-        <v>-1.25862282983559</v>
+        <v>-0.2319241758414781</v>
       </c>
       <c r="AN22" t="n">
-        <v>-0.2182094078228233</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.2303056022792511</v>
+        <v>0.7031065479662114</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.7021897325200143</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.1999999999999993</v>
+        <v>1.560693641618497</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.560693641618497</v>
+        <v>1.045393858477971</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.045393858477971</v>
+        <v>-0.296875</v>
       </c>
       <c r="AT22" t="n">
-        <v>-0.296875</v>
+        <v>-0.7116564417177912</v>
       </c>
       <c r="AU22" t="n">
-        <v>-0.7116564417177912</v>
+        <v>-0.5322541749612922</v>
       </c>
       <c r="AV22" t="n">
-        <v>-0.5324675324675324</v>
+        <v>-0.8076923076923077</v>
       </c>
       <c r="AW22" t="n">
-        <v>-0.8076923076923077</v>
-      </c>
-      <c r="AX22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3938,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -3947,10 +3879,10 @@
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -3959,10 +3891,10 @@
         <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
@@ -3977,19 +3909,19 @@
         <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="V23" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
         <v>1</v>
@@ -4001,75 +3933,72 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>1.545774758959878</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.556096963359909</v>
+        <v>-1.712458550553436</v>
       </c>
       <c r="AC23" t="n">
-        <v>-1.716393049253465</v>
+        <v>-0.1333333333333333</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.1333333333333333</v>
+        <v>-0.4750742038683411</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.4637040115837427</v>
+        <v>-0.3157894736842105</v>
       </c>
       <c r="AF23" t="n">
-        <v>-0.3157894736842105</v>
+        <v>-1.218539592223803</v>
       </c>
       <c r="AG23" t="n">
-        <v>-1.202015055340908</v>
+        <v>-1.011569891460175</v>
       </c>
       <c r="AH23" t="n">
-        <v>-1.013410204834753</v>
+        <v>-0.1770244945684477</v>
       </c>
       <c r="AI23" t="n">
-        <v>-0.177358723448122</v>
+        <v>-2.111105711619665</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-2.108264042202902</v>
+        <v>-1.137985806937915</v>
       </c>
       <c r="AK23" t="n">
-        <v>-1.137833355396648</v>
+        <v>-0.8506787330316742</v>
       </c>
       <c r="AL23" t="n">
-        <v>-0.8506787330316742</v>
+        <v>0.7413310244337187</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.7413771701644104</v>
+        <v>-1.45832950358961</v>
       </c>
       <c r="AN23" t="n">
-        <v>-1.442663708189897</v>
+        <v>-0.5681818181818182</v>
       </c>
       <c r="AO23" t="n">
-        <v>-0.5651489431752942</v>
+        <v>-1.79689345203379</v>
       </c>
       <c r="AP23" t="n">
-        <v>-1.797810267479988</v>
+        <v>-0.5600000000000005</v>
       </c>
       <c r="AQ23" t="n">
-        <v>-0.5600000000000005</v>
+        <v>-1.522157996146437</v>
       </c>
       <c r="AR23" t="n">
-        <v>-1.522157996146437</v>
+        <v>1.2456608811749</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.2456608811749</v>
+        <v>3.21875</v>
       </c>
       <c r="AT23" t="n">
-        <v>3.21875</v>
+        <v>-1.079754601226994</v>
       </c>
       <c r="AU23" t="n">
-        <v>-1.079754601226994</v>
+        <v>-0.9348515775586951</v>
       </c>
       <c r="AV23" t="n">
-        <v>-0.9350649350649353</v>
+        <v>-1.269230769230769</v>
       </c>
       <c r="AW23" t="n">
-        <v>-1.269230769230769</v>
-      </c>
-      <c r="AX23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4095,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -4110,10 +4039,10 @@
         <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>1</v>
@@ -4140,90 +4069,87 @@
         <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24" t="n">
-        <v>1</v>
+        <v>-2.31866213843983</v>
       </c>
       <c r="AB24" t="n">
-        <v>-2.334145445039878</v>
+        <v>-0.3424917101106873</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.343278609850693</v>
+        <v>1.718518518518519</v>
       </c>
       <c r="AD24" t="n">
-        <v>1.718518518518519</v>
+        <v>-1.225074203868341</v>
       </c>
       <c r="AE24" t="n">
-        <v>-1.213704011583743</v>
+        <v>-0.8771929824561403</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.8771929824561403</v>
+        <v>-0.7586059743954481</v>
       </c>
       <c r="AG24" t="n">
-        <v>-0.7420814375125537</v>
+        <v>-1.129744048190005</v>
       </c>
       <c r="AH24" t="n">
-        <v>-1.131622217343823</v>
+        <v>-0.6161146624686172</v>
       </c>
       <c r="AI24" t="n">
-        <v>-0.6172779100400325</v>
+        <v>0.06197121145726028</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.06481288087402308</v>
+        <v>-0.8191452272277699</v>
       </c>
       <c r="AK24" t="n">
-        <v>-0.8189927756865033</v>
+        <v>-0.2352941176470588</v>
       </c>
       <c r="AL24" t="n">
-        <v>-0.2352941176470588</v>
+        <v>-0.8518893145493321</v>
       </c>
       <c r="AM24" t="n">
-        <v>-0.8518431688186405</v>
+        <v>-0.3776356999303654</v>
       </c>
       <c r="AN24" t="n">
-        <v>-0.3636891266783175</v>
+        <v>0.7954545454545457</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.7984874204610698</v>
+        <v>-0.08636713624431548</v>
       </c>
       <c r="AP24" t="n">
-        <v>-0.08728395169051265</v>
+        <v>0.1999999999999993</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.01926782273602974</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.01926782273602974</v>
+        <v>0.7650200267022699</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.7650200267022699</v>
+        <v>-0.2421875</v>
       </c>
       <c r="AT24" t="n">
-        <v>-0.2421875</v>
+        <v>0.7607361963190189</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.7607361963190189</v>
+        <v>0.7274860847789679</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.7272727272727277</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="AW24" t="n">
-        <v>0.6153846153846154</v>
-      </c>
-      <c r="AX24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4246,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -4255,34 +4181,34 @@
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -4291,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -4303,81 +4229,78 @@
         <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>0.7728873794799251</v>
       </c>
       <c r="AB25" t="n">
-        <v>0.7780484816799408</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>-0.2074074074074074</v>
       </c>
       <c r="AD25" t="n">
-        <v>-0.2074074074074074</v>
+        <v>-0.1000742038683411</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.08870401158374275</v>
+        <v>-0.3508771929824561</v>
       </c>
       <c r="AF25" t="n">
-        <v>-0.3508771929824561</v>
+        <v>-0.9624940730203888</v>
       </c>
       <c r="AG25" t="n">
-        <v>-0.9459695361374943</v>
+        <v>0.2039357206180746</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.2024847809728268</v>
+        <v>1.414460422287107</v>
       </c>
       <c r="AI25" t="n">
-        <v>1.417130976570779</v>
+        <v>0.2350481345341832</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.237889803950946</v>
+        <v>3.702593903207013</v>
       </c>
       <c r="AK25" t="n">
-        <v>3.70274635474828</v>
+        <v>0.7746606334841631</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.7746606334841631</v>
+        <v>0.6057378040947357</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.6057839498254273</v>
+        <v>-0.5488467407348072</v>
       </c>
       <c r="AN25" t="n">
-        <v>-0.5346277963335223</v>
+        <v>0.7954545454545457</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.7984874204610698</v>
+        <v>-0.05377376013051296</v>
       </c>
       <c r="AP25" t="n">
-        <v>-0.05506246439211766</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="AQ25" t="n">
-        <v>-0.7999999999999998</v>
+        <v>0.7899807321772632</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.7899807321772632</v>
+        <v>0.3230974632843792</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.3230974632843792</v>
+        <v>-0.8046875</v>
       </c>
       <c r="AT25" t="n">
-        <v>-0.8046875</v>
+        <v>-1.852760736196319</v>
       </c>
       <c r="AU25" t="n">
-        <v>-1.852760736196319</v>
+        <v>-1.090695733402851</v>
       </c>
       <c r="AV25" t="n">
-        <v>-1.090909090909091</v>
+        <v>-1.692307692307692</v>
       </c>
       <c r="AW25" t="n">
-        <v>-1.692307692307692</v>
-      </c>
-      <c r="AX25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4400,31 +4323,31 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>1</v>
@@ -4445,93 +4368,90 @@
         <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V26" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" t="n">
         <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="n">
-        <v>1</v>
+        <v>0.3864436897399763</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.3890242408399842</v>
+        <v>-1.027475130332062</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.029835829552079</v>
+        <v>-0.7111111111111111</v>
       </c>
       <c r="AD26" t="n">
-        <v>-0.7111111111111111</v>
+        <v>0.5249257961316589</v>
       </c>
       <c r="AE26" t="n">
-        <v>0.5362959884162573</v>
+        <v>0</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>0.3888572783309625</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.4053818152138569</v>
+        <v>-1.602440675109324</v>
       </c>
       <c r="AH26" t="n">
-        <v>-1.604470267380104</v>
+        <v>-0.08677671302374891</v>
       </c>
       <c r="AI26" t="n">
-        <v>-0.08694055070986374</v>
+        <v>1.388894288380338</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1.391735957797101</v>
+        <v>0.717086656830201</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.7172391083714676</v>
+        <v>0.253393665158371</v>
       </c>
       <c r="AL26" t="n">
-        <v>0.253393665158371</v>
+        <v>-1.055279145057807</v>
       </c>
       <c r="AM26" t="n">
-        <v>-1.055232999327115</v>
+        <v>1.140192675995542</v>
       </c>
       <c r="AN26" t="n">
-        <v>1.151724611399744</v>
+        <v>0.5681818181818182</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.5712146931883424</v>
+        <v>-0.3495250309811578</v>
       </c>
       <c r="AP26" t="n">
-        <v>-0.3504418464273549</v>
+        <v>-0.2400000000000002</v>
       </c>
       <c r="AQ26" t="n">
-        <v>-0.2400000000000002</v>
+        <v>-0.7514450867052037</v>
       </c>
       <c r="AR26" t="n">
-        <v>-0.7514450867052037</v>
+        <v>-0.5834445927903872</v>
       </c>
       <c r="AS26" t="n">
-        <v>-0.5834445927903872</v>
+        <v>0.015625</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.015625</v>
+        <v>0.02453987730061385</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.02453987730061385</v>
+        <v>0.4937198510127344</v>
       </c>
       <c r="AV26" t="n">
-        <v>0.4935064935064942</v>
+        <v>-0.03846153846153846</v>
       </c>
       <c r="AW26" t="n">
-        <v>-0.03846153846153846</v>
-      </c>
-      <c r="AX26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4569,13 +4489,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
         <v>1</v>
@@ -4599,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -4608,84 +4528,81 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27" t="n">
         <v>1</v>
       </c>
       <c r="Z27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>-0.3864436897399763</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.3890242408399842</v>
+        <v>1.027475130332062</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.029835829552079</v>
+        <v>-0.3703703703703703</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.3703703703703703</v>
+        <v>-0.03757420386834109</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.02620401158374275</v>
+        <v>0.1754385964912281</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.1754385964912281</v>
+        <v>0.1280701754385964</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.1445947123214909</v>
+        <v>-1.231036182529859</v>
       </c>
       <c r="AH27" t="n">
-        <v>-1.232946799494455</v>
+        <v>0.7549574033066155</v>
       </c>
       <c r="AI27" t="n">
-        <v>0.7563827911758145</v>
+        <v>-1.303413403927357</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-1.300571734510594</v>
+        <v>-1.398855372155306</v>
       </c>
       <c r="AK27" t="n">
-        <v>-1.39870292061404</v>
+        <v>3.058823529411764</v>
       </c>
       <c r="AL27" t="n">
-        <v>3.058823529411764</v>
+        <v>0.001935724622854222</v>
       </c>
       <c r="AM27" t="n">
-        <v>0.001979279922389936</v>
+        <v>-1.349045860522945</v>
       </c>
       <c r="AN27" t="n">
-        <v>-1.333553919048277</v>
+        <v>-0.3409090909090913</v>
       </c>
       <c r="AO27" t="n">
-        <v>-0.3378762159025672</v>
+        <v>0.1767907584925268</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.1758739430463297</v>
+        <v>-0.4800000000000004</v>
       </c>
       <c r="AQ27" t="n">
-        <v>-0.4800000000000004</v>
+        <v>-0.366088631984587</v>
       </c>
       <c r="AR27" t="n">
-        <v>-0.366088631984587</v>
+        <v>-0.5033377837116155</v>
       </c>
       <c r="AS27" t="n">
-        <v>-0.5033377837116155</v>
+        <v>-0.515625</v>
       </c>
       <c r="AT27" t="n">
-        <v>-0.515625</v>
+        <v>0.8834355828220863</v>
       </c>
       <c r="AU27" t="n">
-        <v>0.8834355828220863</v>
+        <v>2.909304266597151</v>
       </c>
       <c r="AV27" t="n">
-        <v>2.909090909090911</v>
+        <v>1</v>
       </c>
       <c r="AW27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4708,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -4717,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -4726,13 +4643,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>1</v>
@@ -4753,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -4765,81 +4682,78 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" t="n">
         <v>1</v>
       </c>
       <c r="AA28" t="n">
-        <v>1</v>
+        <v>-1.159331069219929</v>
       </c>
       <c r="AB28" t="n">
-        <v>-1.167072722519953</v>
+        <v>4.452392231438934</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.46262192805901</v>
+        <v>0.3851851851851852</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.3851851851851852</v>
+        <v>0.8999257961316589</v>
       </c>
       <c r="AE28" t="n">
-        <v>0.9112959884162573</v>
+        <v>1.894736842105263</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.894736842105263</v>
+        <v>2.010478899952584</v>
       </c>
       <c r="AG28" t="n">
-        <v>2.027003436835479</v>
+        <v>3.15828963886382</v>
       </c>
       <c r="AH28" t="n">
-        <v>3.157785093699583</v>
+        <v>2.316938237734096</v>
       </c>
       <c r="AI28" t="n">
-        <v>2.321312703953362</v>
+        <v>-0.2649518654658168</v>
       </c>
       <c r="AJ28" t="n">
-        <v>-0.2621101960490539</v>
+        <v>0.214671197893003</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.2148236494342697</v>
+        <v>3.402714932126697</v>
       </c>
       <c r="AL28" t="n">
-        <v>3.402714932126697</v>
+        <v>-1.394262195905264</v>
       </c>
       <c r="AM28" t="n">
-        <v>-1.394216050174573</v>
+        <v>0.4237776825585133</v>
       </c>
       <c r="AN28" t="n">
-        <v>0.4364493270268989</v>
+        <v>-0.1136363636363638</v>
       </c>
       <c r="AO28" t="n">
-        <v>-0.1106034886298397</v>
+        <v>0.04521181112410567</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.0442949956779085</v>
+        <v>0.7599999999999998</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.7599999999999998</v>
+        <v>-0.366088631984587</v>
       </c>
       <c r="AR28" t="n">
-        <v>-0.366088631984587</v>
+        <v>1.005340453938585</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.005340453938585</v>
+        <v>0</v>
       </c>
       <c r="AT28" t="n">
-        <v>0</v>
+        <v>-0.5889570552147236</v>
       </c>
       <c r="AU28" t="n">
-        <v>-0.5889570552147236</v>
+        <v>-0.4543320970392147</v>
       </c>
       <c r="AV28" t="n">
-        <v>-0.4545454545454549</v>
+        <v>-0.4615384615384616</v>
       </c>
       <c r="AW28" t="n">
-        <v>-0.4615384615384616</v>
-      </c>
-      <c r="AX28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4868,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -4880,13 +4794,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
         <v>1</v>
@@ -4895,10 +4809,10 @@
         <v>1</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" t="n">
         <v>1</v>
@@ -4907,16 +4821,16 @@
         <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V29" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29" t="n">
         <v>1</v>
@@ -4925,75 +4839,72 @@
         <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>4.452392231438934</v>
       </c>
       <c r="AC29" t="n">
-        <v>4.46262192805901</v>
+        <v>-0.2074074074074074</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.2074074074074074</v>
+        <v>-0.6000742038683411</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.5887040115837427</v>
+        <v>-0.9122807017543859</v>
       </c>
       <c r="AF29" t="n">
-        <v>-0.9122807017543859</v>
+        <v>-0.04262683736367951</v>
       </c>
       <c r="AG29" t="n">
-        <v>-0.02610230048078509</v>
+        <v>-2.075137302028644</v>
       </c>
       <c r="AH29" t="n">
-        <v>-2.077318317416385</v>
+        <v>0.1128097269308737</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.1130227159228229</v>
+        <v>0.177355826841876</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.1801974962586388</v>
+        <v>0.214671197893003</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.2148236494342697</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="AL29" t="n">
-        <v>-0.3076923076923077</v>
+        <v>1.080314075281176</v>
       </c>
       <c r="AM29" t="n">
-        <v>1.080360221011868</v>
+        <v>1.152335303002948</v>
       </c>
       <c r="AN29" t="n">
-        <v>1.163847921304368</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.2303056022792511</v>
+        <v>-1.138998715191685</v>
       </c>
       <c r="AP29" t="n">
-        <v>-1.139915530637882</v>
+        <v>0.9599999999999991</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.9599999999999991</v>
+        <v>-2.100192678227362</v>
       </c>
       <c r="AR29" t="n">
-        <v>-2.100192678227362</v>
+        <v>0.3244325767690254</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.3244325767690254</v>
+        <v>0.296875</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.296875</v>
+        <v>1.990145455851835</v>
       </c>
       <c r="AU29" t="n">
-        <v>1.987554745714361</v>
+        <v>2.29891465620754</v>
       </c>
       <c r="AV29" t="n">
-        <v>2.2987012987013</v>
+        <v>2.153846153846154</v>
       </c>
       <c r="AW29" t="n">
-        <v>2.153846153846154</v>
-      </c>
-      <c r="AX29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5019,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -5028,16 +4939,16 @@
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
         <v>1</v>
@@ -5046,10 +4957,10 @@
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="n">
         <v>1</v>
@@ -5064,90 +4975,87 @@
         <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
         <v>1</v>
       </c>
       <c r="Y30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30" t="n">
-        <v>1</v>
+        <v>8.501761174279341</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.558533298479515</v>
+        <v>4.452392231438934</v>
       </c>
       <c r="AC30" t="n">
-        <v>4.46262192805901</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.9333333333333333</v>
+        <v>1.649925796131659</v>
       </c>
       <c r="AE30" t="n">
-        <v>1.661295988416257</v>
+        <v>0.2807017543859649</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.2807017543859649</v>
+        <v>-0.3420462787737273</v>
       </c>
       <c r="AG30" t="n">
-        <v>-0.4223891454337092</v>
+        <v>0.09742104423827189</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.08123797463347164</v>
+        <v>-0.0239490509171579</v>
       </c>
       <c r="AI30" t="n">
-        <v>-0.1755834033675034</v>
+        <v>-0.106963938341525</v>
       </c>
       <c r="AJ30" t="n">
-        <v>-0.140254093342296</v>
+        <v>0.01262528037012856</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.01140252747465905</v>
+        <v>-0.01819475711590301</v>
       </c>
       <c r="AL30" t="n">
-        <v>-0.09205765951984878</v>
+        <v>0.001173213577708416</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.0007790934841154267</v>
+        <v>0.008292335295322537</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>-0.04656476224182769</v>
       </c>
       <c r="AO30" t="n">
-        <v>-0.06481697170304315</v>
+        <v>-0.09478383602652649</v>
       </c>
       <c r="AP30" t="n">
-        <v>-0.1087544887111829</v>
+        <v>0.006537215672768326</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.01705514735724378</v>
+        <v>-0.08982384783308328</v>
       </c>
       <c r="AR30" t="n">
-        <v>-0.09741777874786441</v>
+        <v>0.1015357015387663</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.081892544986239</v>
+        <v>0.2033712238088579</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.222651636924678</v>
+        <v>0.05644896025384287</v>
       </c>
       <c r="AU30" t="n">
-        <v>0.2214971558010974</v>
+        <v>0</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.1592909891169536</v>
+        <v>0.05185785990409204</v>
       </c>
       <c r="AW30" t="n">
-        <v>0.2028828943496192</v>
-      </c>
-      <c r="AX30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5170,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -5182,22 +5090,22 @@
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -5209,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31" t="n">
         <v>1</v>
@@ -5224,84 +5132,81 @@
         <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>0.4542252410401222</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.4439030366400907</v>
+        <v>1.027475130332062</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.029835829552079</v>
+        <v>-0.07407407407407407</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.07407407407407407</v>
+        <v>0.3999257961316589</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.4112959884162573</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.7065433854907538</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.7230679223736483</v>
+        <v>0.4571660564677099</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.4557962363494057</v>
+        <v>0.3991728799092452</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.3999265332653734</v>
+        <v>0.8504327499187997</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.8532744193355625</v>
+        <v>0.3789224056224715</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.3790748571637382</v>
+        <v>0.8072398190045248</v>
       </c>
       <c r="AL31" t="n">
-        <v>0.8072398190045248</v>
+        <v>-0.1739232128544169</v>
       </c>
       <c r="AM31" t="n">
-        <v>-0.1738770671237252</v>
+        <v>1.22276253964591</v>
       </c>
       <c r="AN31" t="n">
-        <v>1.23416311875119</v>
+        <v>-0.454545454545455</v>
       </c>
       <c r="AO31" t="n">
-        <v>-0.4515125795389309</v>
+        <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>0</v>
+        <v>-0.6800000000000006</v>
       </c>
       <c r="AQ31" t="n">
-        <v>-0.6800000000000006</v>
+        <v>-1.329479768786129</v>
       </c>
       <c r="AR31" t="n">
-        <v>-1.329479768786129</v>
+        <v>1.797062750333779</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.797062750333779</v>
+        <v>0.6640625</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.6640625</v>
+        <v>-0.01226993865030605</v>
       </c>
       <c r="AU31" t="n">
-        <v>-0.01226993865030605</v>
+        <v>0.4028107601036431</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.4025974025974029</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="AW31" t="n">
-        <v>0.2692307692307692</v>
-      </c>
-      <c r="AX31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5324,7 +5229,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -5336,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -5345,13 +5250,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -5360,25 +5265,25 @@
         <v>1</v>
       </c>
       <c r="R32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V32" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32" t="n">
         <v>1</v>
@@ -5387,75 +5292,72 @@
         <v>1</v>
       </c>
       <c r="AA32" t="n">
-        <v>1</v>
+        <v>0.7728873794799251</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.7780484816799408</v>
+        <v>0.6300331595572497</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.6268855605972267</v>
+        <v>6.859259259259259</v>
       </c>
       <c r="AD32" t="n">
-        <v>6.859259259259259</v>
+        <v>0.02492579613165891</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.03629598841625725</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.1403508771929824</v>
+        <v>0.4173067804646751</v>
       </c>
       <c r="AG32" t="n">
-        <v>0.4338313173475696</v>
+        <v>-0.6739294436606613</v>
       </c>
       <c r="AH32" t="n">
-        <v>-0.6756615976659808</v>
+        <v>3.573465042317981</v>
       </c>
       <c r="AI32" t="n">
-        <v>3.580211878232189</v>
+        <v>0.4465865960726452</v>
       </c>
       <c r="AJ32" t="n">
-        <v>0.449428265489408</v>
+        <v>-0.8094833914789776</v>
       </c>
       <c r="AK32" t="n">
-        <v>-0.809330939937711</v>
+        <v>0.06877828054298638</v>
       </c>
       <c r="AL32" t="n">
-        <v>0.06877828054298638</v>
+        <v>-0.2078215179391626</v>
       </c>
       <c r="AM32" t="n">
-        <v>-0.207775372208471</v>
+        <v>-0.9179826017599876</v>
       </c>
       <c r="AN32" t="n">
-        <v>-0.9031764174341067</v>
+        <v>1.136363636363636</v>
       </c>
       <c r="AO32" t="n">
-        <v>1.139396511370161</v>
+        <v>-0.05740718783228937</v>
       </c>
       <c r="AP32" t="n">
-        <v>-0.05768423593755125</v>
+        <v>0.1199999999999992</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.1199999999999992</v>
+        <v>0.4046242774566465</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.4046242774566465</v>
+        <v>0.009345794392523404</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.009345794392523404</v>
+        <v>-0.3828125</v>
       </c>
       <c r="AT32" t="n">
-        <v>-0.3828125</v>
+        <v>1.447852760736197</v>
       </c>
       <c r="AU32" t="n">
-        <v>1.447852760736197</v>
+        <v>1.454758812051696</v>
       </c>
       <c r="AV32" t="n">
-        <v>1.454545454545456</v>
+        <v>1.153846153846154</v>
       </c>
       <c r="AW32" t="n">
-        <v>1.153846153846154</v>
-      </c>
-      <c r="AX32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5478,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -5487,13 +5389,13 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
         <v>1</v>
@@ -5523,7 +5425,7 @@
         <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -5532,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" t="n">
         <v>1</v>
@@ -5541,75 +5443,72 @@
         <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>1</v>
+        <v>5.410211656359586</v>
       </c>
       <c r="AB33" t="n">
-        <v>5.446339371759696</v>
+        <v>-0.3424917101106873</v>
       </c>
       <c r="AC33" t="n">
-        <v>-0.343278609850693</v>
+        <v>0</v>
       </c>
       <c r="AD33" t="n">
-        <v>0</v>
+        <v>-0.7250742038683411</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.7137040115837427</v>
+        <v>-0.03508771929824561</v>
       </c>
       <c r="AF33" t="n">
-        <v>-0.03508771929824561</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.01652453688289442</v>
+        <v>-1.416738428819592</v>
       </c>
       <c r="AH33" t="n">
-        <v>-1.41870853343728</v>
+        <v>-0.7410731292228157</v>
       </c>
       <c r="AI33" t="n">
-        <v>-0.7424723030622363</v>
+        <v>1.554278903764953</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1.557120573181716</v>
+        <v>-0.5592418455852579</v>
       </c>
       <c r="AK33" t="n">
-        <v>-0.5590893940439913</v>
+        <v>-0.3918552036199096</v>
       </c>
       <c r="AL33" t="n">
-        <v>-0.3918552036199096</v>
+        <v>-0.3396859247188237</v>
       </c>
       <c r="AM33" t="n">
-        <v>-0.339639778988132</v>
+        <v>1.026051982125912</v>
       </c>
       <c r="AN33" t="n">
-        <v>1.037765498296273</v>
+        <v>-0.4318181818181823</v>
       </c>
       <c r="AO33" t="n">
-        <v>-0.4287853068116582</v>
+        <v>0.7978433900714745</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.7969265746252774</v>
+        <v>0.6400000000000006</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.6400000000000006</v>
+        <v>-0.1156069364161839</v>
       </c>
       <c r="AR33" t="n">
-        <v>-0.1156069364161839</v>
+        <v>0.7222963951935916</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.7222963951935916</v>
+        <v>0.78125</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.78125</v>
+        <v>0.4417177914110432</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.4417177914110432</v>
+        <v>0.7664471237400072</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.766233766233767</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="AW33" t="n">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="AX33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5632,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -5677,10 +5576,10 @@
         <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V34" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W34" t="n">
         <v>1</v>
@@ -5695,75 +5594,72 @@
         <v>1</v>
       </c>
       <c r="AA34" t="n">
-        <v>1</v>
+        <v>0.2580419756145209</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.2631612827248758</v>
+        <v>0.4578461195060513</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.4604754712612378</v>
+        <v>-0.6518518518518519</v>
       </c>
       <c r="AD34" t="n">
-        <v>-0.6518518518518519</v>
+        <v>0.317437620662016</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.3357916929506723</v>
+        <v>0.1191453507773892</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.1231273281558074</v>
+        <v>0.03072494148724562</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.05280133012446279</v>
+        <v>0.06842595688107336</v>
       </c>
       <c r="AH34" t="n">
-        <v>0.06736488070632467</v>
+        <v>-0.2731434108273967</v>
       </c>
       <c r="AI34" t="n">
-        <v>-0.2698830408737116</v>
+        <v>0.1395634186072944</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.1464981329292712</v>
+        <v>0.006474482091446554</v>
       </c>
       <c r="AK34" t="n">
-        <v>0.006652784575108276</v>
+        <v>0.1838449735639493</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.1879890436105557</v>
+        <v>0.004512444783732478</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.004593919002081362</v>
+        <v>0.3768861154118889</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.3952425946622634</v>
+        <v>0.4204545454545456</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.4234874204610697</v>
+        <v>0.4662644427030537</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.4653476272568566</v>
+        <v>0.2400000000000002</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.2400000000000002</v>
+        <v>0.1541425818882434</v>
       </c>
       <c r="AR34" t="n">
-        <v>0.1541425818882434</v>
+        <v>1.493991989319092</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.493991989319092</v>
+        <v>0.7265625</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.7265625</v>
+        <v>0.01226993865030693</v>
       </c>
       <c r="AU34" t="n">
-        <v>0.01226993865030693</v>
+        <v>0.0002133575062401861</v>
       </c>
       <c r="AV34" t="n">
-        <v>0</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="AW34" t="n">
-        <v>0.1923076923076923</v>
-      </c>
-      <c r="AX34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5789,7 +5685,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -5798,10 +5694,10 @@
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
@@ -5831,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -5843,81 +5739,78 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" t="n">
         <v>1</v>
       </c>
       <c r="AA35" t="n">
-        <v>1</v>
+        <v>-0.000674439808012837</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.01430213497320125</v>
+        <v>0.3889241723567746</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.3939424864683759</v>
+        <v>-0.2666666666666667</v>
       </c>
       <c r="AD35" t="n">
-        <v>-0.2666666666666667</v>
+        <v>0.7749257961316589</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.7862959884162573</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="AF35" t="n">
-        <v>0.3508771929824561</v>
+        <v>-0.639118065433855</v>
       </c>
       <c r="AG35" t="n">
-        <v>-0.6225935285509606</v>
+        <v>0.08479411917207626</v>
       </c>
       <c r="AH35" t="n">
-        <v>0.08490581820201264</v>
+        <v>-0.6820649643666664</v>
       </c>
       <c r="AI35" t="n">
-        <v>-0.683352728579529</v>
+        <v>-0.1965367039211154</v>
       </c>
       <c r="AJ35" t="n">
-        <v>-0.1943955889285085</v>
+        <v>0.01751883812583497</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.01755844056804943</v>
+        <v>0.4434389140271493</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.4434389140271493</v>
+        <v>0.0003304760194205532</v>
       </c>
       <c r="AM35" t="n">
-        <v>0.0003360134102339451</v>
+        <v>-0.2794701201758518</v>
       </c>
       <c r="AN35" t="n">
-        <v>-0.2638004297168816</v>
+        <v>-0.772727272727273</v>
       </c>
       <c r="AO35" t="n">
-        <v>-0.7696943977207489</v>
+        <v>0.5452118111241057</v>
       </c>
       <c r="AP35" t="n">
-        <v>0.5442949956779085</v>
+        <v>-0.4400000000000004</v>
       </c>
       <c r="AQ35" t="n">
-        <v>-0.4400000000000004</v>
+        <v>0.6165703275529846</v>
       </c>
       <c r="AR35" t="n">
-        <v>0.6165703275529846</v>
+        <v>-0.6181575433911883</v>
       </c>
       <c r="AS35" t="n">
-        <v>-0.6181575433911883</v>
+        <v>0.298580853535114</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.2977639288935743</v>
+        <v>-0.1963190184049073</v>
       </c>
       <c r="AU35" t="n">
-        <v>-0.1963190184049073</v>
+        <v>-0.06472170742882455</v>
       </c>
       <c r="AV35" t="n">
-        <v>-0.06493506493506473</v>
+        <v>-0.1153846153846154</v>
       </c>
       <c r="AW35" t="n">
-        <v>-0.1153846153846154</v>
-      </c>
-      <c r="AX35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5946,16 +5839,16 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
         <v>1</v>
@@ -5985,93 +5878,90 @@
         <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V36" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" t="n">
         <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>1</v>
+        <v>-1.545774758959878</v>
       </c>
       <c r="AB36" t="n">
-        <v>-1.556096963359909</v>
+        <v>-0.3424917101106873</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.343278609850693</v>
+        <v>-0.2666666666666667</v>
       </c>
       <c r="AD36" t="n">
-        <v>-0.2666666666666667</v>
+        <v>0.1608300928754502</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.1567011412554722</v>
+        <v>0.04634956818159309</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.02592656539650506</v>
+        <v>0.04567807264155414</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.03810808780353394</v>
+        <v>0.1453522837802043</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.1396980132634672</v>
+        <v>0.3195103201683028</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.2914369630132435</v>
+        <v>0.1078945567616854</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.1019915542606498</v>
+        <v>0.02223294912479619</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.02212154506234692</v>
+        <v>0.2871701901248127</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.268943281544695</v>
+        <v>0.004051211380993121</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.004014980889627492</v>
+        <v>0.1712938059720092</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.1701469751921906</v>
+        <v>0.001494120156340802</v>
       </c>
       <c r="AO36" t="n">
-        <v>0</v>
+        <v>-0.0342477654319084</v>
       </c>
       <c r="AP36" t="n">
-        <v>-0.03816950221291988</v>
+        <v>-0.04256552281666082</v>
       </c>
       <c r="AQ36" t="n">
-        <v>-0.04201929195904341</v>
+        <v>-0.05981070709023471</v>
       </c>
       <c r="AR36" t="n">
-        <v>-0.06172387981647739</v>
+        <v>0.1883975137852016</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.1842432803985767</v>
+        <v>0.1777940530211219</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.1817890353182421</v>
+        <v>-0.1931023015253226</v>
       </c>
       <c r="AU36" t="n">
-        <v>-0.1445160187139656</v>
+        <v>-0.04414389128108931</v>
       </c>
       <c r="AV36" t="n">
-        <v>-0.0009741957008854182</v>
+        <v>-0.1067169671370383</v>
       </c>
       <c r="AW36" t="n">
-        <v>-0.06374361608310372</v>
-      </c>
-      <c r="AX36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6094,31 +5984,31 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
         <v>1</v>
@@ -6130,102 +6020,99 @@
         <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V37" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37" t="n">
         <v>1</v>
       </c>
       <c r="AA37" t="n">
-        <v>1</v>
+        <v>0.1943720680125862</v>
       </c>
       <c r="AB37" t="n">
-        <v>0.1936443645897477</v>
+        <v>-0.3424917101106873</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.343278609850693</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.1481481481481481</v>
+        <v>2.649925796131659</v>
       </c>
       <c r="AE37" t="n">
-        <v>2.661295988416257</v>
+        <v>2.070175438596491</v>
       </c>
       <c r="AF37" t="n">
-        <v>2.070175438596491</v>
+        <v>-0.215563911487497</v>
       </c>
       <c r="AG37" t="n">
-        <v>-0.2394617919014992</v>
+        <v>0.3558739221278556</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.354471654198774</v>
+        <v>-1.301144420992242</v>
       </c>
       <c r="AI37" t="n">
-        <v>-1.345744594345334</v>
+        <v>-1.014951865465818</v>
       </c>
       <c r="AJ37" t="n">
-        <v>-1.012110196049055</v>
+        <v>-1.012381942203615</v>
       </c>
       <c r="AK37" t="n">
-        <v>-1.012229490662349</v>
+        <v>0.07345438715439763</v>
       </c>
       <c r="AL37" t="n">
-        <v>0.04454878188617815</v>
+        <v>-0.6146011789561118</v>
       </c>
       <c r="AM37" t="n">
-        <v>-0.6145550332254202</v>
+        <v>-0.2076389218266641</v>
       </c>
       <c r="AN37" t="n">
-        <v>-0.1939627880135748</v>
+        <v>-0.2500000000000003</v>
       </c>
       <c r="AO37" t="n">
-        <v>-0.2469671249934762</v>
+        <v>-0.7574197678232626</v>
       </c>
       <c r="AP37" t="n">
-        <v>-0.7583365832694597</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.1600000000000001</v>
+        <v>-0.6319845857418117</v>
       </c>
       <c r="AR37" t="n">
-        <v>-0.6319845857418117</v>
+        <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.625</v>
+        <v>0.1472392638036814</v>
       </c>
       <c r="AU37" t="n">
-        <v>0.1472392638036814</v>
+        <v>-0.05173469444181183</v>
       </c>
       <c r="AV37" t="n">
-        <v>-0.05194805194805202</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AW37" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="AX37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6248,25 +6135,25 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -6293,7 +6180,7 @@
         <v>1</v>
       </c>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -6302,84 +6189,81 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>0.3424917101106873</v>
       </c>
       <c r="AC38" t="n">
-        <v>0.343278609850693</v>
+        <v>-0.9185185185185185</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.9185185185185185</v>
+        <v>-1.537574203868341</v>
       </c>
       <c r="AE38" t="n">
-        <v>-1.526204011583743</v>
+        <v>-1.894736842105263</v>
       </c>
       <c r="AF38" t="n">
-        <v>-1.894736842105263</v>
+        <v>-0.6120910384068279</v>
       </c>
       <c r="AG38" t="n">
-        <v>-0.5955665015239334</v>
+        <v>2.398598631314914</v>
       </c>
       <c r="AH38" t="n">
-        <v>2.397850727569845</v>
+        <v>-0.2360326594245969</v>
       </c>
       <c r="AI38" t="n">
-        <v>-0.2364782979308293</v>
+        <v>0.6004327499187987</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0.6032744193355615</v>
+        <v>-0.01721286007801136</v>
       </c>
       <c r="AK38" t="n">
-        <v>-0.01706040853674471</v>
+        <v>-0.1737556561085972</v>
       </c>
       <c r="AL38" t="n">
-        <v>-0.1737556561085972</v>
+        <v>0.9718394990099903</v>
       </c>
       <c r="AM38" t="n">
-        <v>0.971885644740682</v>
+        <v>0</v>
       </c>
       <c r="AN38" t="n">
-        <v>0.01334581135550404</v>
+        <v>0</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.00303287500652409</v>
+        <v>0.5057381269135797</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.5048213114673825</v>
+        <v>0.6400000000000006</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.6400000000000006</v>
+        <v>-0.5587668593448953</v>
       </c>
       <c r="AR38" t="n">
-        <v>-0.5587668593448953</v>
+        <v>-0.1495327102803737</v>
       </c>
       <c r="AS38" t="n">
-        <v>-0.1495327102803737</v>
+        <v>-0.1640625</v>
       </c>
       <c r="AT38" t="n">
-        <v>-0.1640625</v>
+        <v>0</v>
       </c>
       <c r="AU38" t="n">
-        <v>0</v>
+        <v>0.4547588120516951</v>
       </c>
       <c r="AV38" t="n">
-        <v>0.4545454545454549</v>
+        <v>0</v>
       </c>
       <c r="AW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6402,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -6411,10 +6295,10 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>1</v>
@@ -6438,10 +6322,10 @@
         <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
         <v>1</v>
@@ -6456,84 +6340,81 @@
         <v>1</v>
       </c>
       <c r="X39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z39" t="n">
         <v>1</v>
       </c>
       <c r="AA39" t="n">
-        <v>1</v>
+        <v>-1.545774758959878</v>
       </c>
       <c r="AB39" t="n">
-        <v>-1.556096963359909</v>
+        <v>0.3424917101106873</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.343278609850693</v>
+        <v>1.451851851851852</v>
       </c>
       <c r="AD39" t="n">
-        <v>1.451851851851852</v>
+        <v>0.08742579613165891</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.09879598841625725</v>
+        <v>0.8771929824561403</v>
       </c>
       <c r="AF39" t="n">
-        <v>0.8771929824561403</v>
+        <v>-0.7974869606448554</v>
       </c>
       <c r="AG39" t="n">
-        <v>-0.7809624237619609</v>
+        <v>-0.03974538682092472</v>
       </c>
       <c r="AH39" t="n">
-        <v>-0.0392931100499018</v>
+        <v>-0.6751228273247665</v>
       </c>
       <c r="AI39" t="n">
-        <v>-0.6763974845227398</v>
+        <v>-0.3351922012834417</v>
       </c>
       <c r="AJ39" t="n">
-        <v>-0.333459692794939</v>
+        <v>-0.01775422850540759</v>
       </c>
       <c r="AK39" t="n">
-        <v>-0.01779991530785984</v>
+        <v>-0.7257918552036199</v>
       </c>
       <c r="AL39" t="n">
-        <v>-0.7257918552036199</v>
+        <v>-0.0007837362913864188</v>
       </c>
       <c r="AM39" t="n">
-        <v>-0.0007937523633999671</v>
+        <v>-0.319078705871558</v>
       </c>
       <c r="AN39" t="n">
-        <v>-0.3051581814415931</v>
+        <v>-0.363636363636364</v>
       </c>
       <c r="AO39" t="n">
-        <v>-0.3606034886298399</v>
+        <v>-0.2837355572969472</v>
       </c>
       <c r="AP39" t="n">
-        <v>-0.2846523727431444</v>
+        <v>-0.5200000000000005</v>
       </c>
       <c r="AQ39" t="n">
-        <v>-0.5200000000000005</v>
+        <v>-0.03853564547206496</v>
       </c>
       <c r="AR39" t="n">
-        <v>-0.03853564547206496</v>
+        <v>-0.2336448598130841</v>
       </c>
       <c r="AS39" t="n">
-        <v>-0.2336448598130841</v>
+        <v>0.9765625</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.9765625</v>
+        <v>-0.49079754601227</v>
       </c>
       <c r="AU39" t="n">
-        <v>-0.49079754601227</v>
+        <v>-0.6491372918444095</v>
       </c>
       <c r="AV39" t="n">
-        <v>-0.6493506493506497</v>
+        <v>-0.3461538461538461</v>
       </c>
       <c r="AW39" t="n">
-        <v>-0.3461538461538461</v>
-      </c>
-      <c r="AX39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6556,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -6565,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -6574,7 +6455,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
@@ -6592,10 +6473,10 @@
         <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
         <v>1</v>
@@ -6604,90 +6485,87 @@
         <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40" t="n">
-        <v>1</v>
+        <v>-0.03112193056227494</v>
       </c>
       <c r="AB40" t="n">
-        <v>-0.008452092773990385</v>
+        <v>0.3672705373170012</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.3736147239217147</v>
+        <v>0.8296296296296296</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.8296296296296296</v>
+        <v>1.899925796131659</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.911295988416257</v>
+        <v>1.192982456140351</v>
       </c>
       <c r="AF40" t="n">
-        <v>1.192982456140351</v>
+        <v>-0.9615457562825984</v>
       </c>
       <c r="AG40" t="n">
-        <v>-0.9450212193997041</v>
+        <v>-0.04929461523156096</v>
       </c>
       <c r="AH40" t="n">
-        <v>-0.05082667440375253</v>
+        <v>-0.6404121421152669</v>
       </c>
       <c r="AI40" t="n">
-        <v>-0.6416212642387943</v>
+        <v>0.5619712114572609</v>
       </c>
       <c r="AJ40" t="n">
-        <v>0.5648128808740238</v>
+        <v>-0.2394350823002337</v>
       </c>
       <c r="AK40" t="n">
-        <v>-0.239282630758967</v>
+        <v>-0.4931027751394108</v>
       </c>
       <c r="AL40" t="n">
-        <v>-0.4941440719179931</v>
+        <v>0.266754753247278</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.2668008989779697</v>
+        <v>0.4359203095659198</v>
       </c>
       <c r="AN40" t="n">
-        <v>0.4485726369315227</v>
+        <v>-0.1477272727272731</v>
       </c>
       <c r="AO40" t="n">
-        <v>-0.144694397720749</v>
+        <v>-0.6389987151916847</v>
       </c>
       <c r="AP40" t="n">
-        <v>-0.6399155306378819</v>
+        <v>0.3599999999999994</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.4624277456647412</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.4624277456647412</v>
+        <v>0.3871829105473966</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.3871829105473966</v>
+        <v>0.453125</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.453125</v>
+        <v>-0.4294478527607363</v>
       </c>
       <c r="AU40" t="n">
-        <v>-0.4294478527607363</v>
+        <v>-0.6101762528833702</v>
       </c>
       <c r="AV40" t="n">
-        <v>-0.6103896103896104</v>
+        <v>-0.3076923076923077</v>
       </c>
       <c r="AW40" t="n">
-        <v>-0.3076923076923077</v>
-      </c>
-      <c r="AX40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6713,25 +6591,25 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>1</v>
@@ -6746,16 +6624,16 @@
         <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -6764,84 +6642,81 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y41" t="n">
         <v>1</v>
       </c>
       <c r="Z41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>-0.7728873794799527</v>
       </c>
       <c r="AB41" t="n">
-        <v>-0.7780484816799684</v>
+        <v>-0.3424917101106873</v>
       </c>
       <c r="AC41" t="n">
-        <v>-0.343278609850693</v>
+        <v>1.540740740740741</v>
       </c>
       <c r="AD41" t="n">
-        <v>1.540740740740741</v>
+        <v>-0.6872850703790192</v>
       </c>
       <c r="AE41" t="n">
-        <v>-0.6797662200846073</v>
+        <v>-0.6935625090614354</v>
       </c>
       <c r="AF41" t="n">
-        <v>-0.694855436503772</v>
+        <v>-0.2180654338549076</v>
       </c>
       <c r="AG41" t="n">
-        <v>-0.2015408969720132</v>
+        <v>-0.4713451749809532</v>
       </c>
       <c r="AH41" t="n">
-        <v>-0.4730124333647177</v>
+        <v>3.497101534857081</v>
       </c>
       <c r="AI41" t="n">
-        <v>3.503704193607509</v>
+        <v>-1.668798019311972</v>
       </c>
       <c r="AJ41" t="n">
-        <v>-1.665956349895209</v>
+        <v>1.39341515924566</v>
       </c>
       <c r="AK41" t="n">
-        <v>1.393567610786927</v>
+        <v>1.665158371040724</v>
       </c>
       <c r="AL41" t="n">
-        <v>1.665158371040724</v>
+        <v>0.06336492273880345</v>
       </c>
       <c r="AM41" t="n">
-        <v>0.06341106846949511</v>
+        <v>-2.247600259071082</v>
       </c>
       <c r="AN41" t="n">
-        <v>-2.230678851990489</v>
+        <v>1.136363636363636</v>
       </c>
       <c r="AO41" t="n">
-        <v>1.139396511370161</v>
+        <v>-0.481103978349579</v>
       </c>
       <c r="AP41" t="n">
-        <v>-0.4820207937957761</v>
+        <v>-2.24</v>
       </c>
       <c r="AQ41" t="n">
-        <v>-2.24</v>
+        <v>-1.136801541425821</v>
       </c>
       <c r="AR41" t="n">
-        <v>-1.136801541425821</v>
+        <v>0.6755674232309747</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.6755674232309747</v>
+        <v>-0.8515625</v>
       </c>
       <c r="AT41" t="n">
-        <v>-0.8515625</v>
+        <v>-0.5521472392638038</v>
       </c>
       <c r="AU41" t="n">
-        <v>-0.5521472392638038</v>
+        <v>-0.1945918372989546</v>
       </c>
       <c r="AV41" t="n">
-        <v>-0.1948051948051948</v>
+        <v>-0.1923076923076923</v>
       </c>
       <c r="AW41" t="n">
-        <v>-0.1923076923076923</v>
-      </c>
-      <c r="AX41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6864,7 +6739,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -6888,16 +6763,16 @@
         <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>1</v>
@@ -6906,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -6918,84 +6793,81 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42" t="n">
-        <v>1</v>
+        <v>0.05239089244407431</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.0674397393507206</v>
+        <v>0.3703366119467374</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.3760084285911645</v>
+        <v>0.01481481481481482</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.01481481481481482</v>
+        <v>0.6499257961316589</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.6612959884162573</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.4912280701754386</v>
+        <v>-0.7197249881460408</v>
       </c>
       <c r="AG42" t="n">
-        <v>-0.7032004512631465</v>
+        <v>-0.2349968615212934</v>
       </c>
       <c r="AH42" t="n">
-        <v>-0.236588408346577</v>
+        <v>-0.6490898134176418</v>
       </c>
       <c r="AI42" t="n">
-        <v>-0.6503153193097807</v>
+        <v>0.2350481345341832</v>
       </c>
       <c r="AJ42" t="n">
-        <v>0.237889803950946</v>
+        <v>-0.4519954687736637</v>
       </c>
       <c r="AK42" t="n">
-        <v>-0.4518430172323971</v>
+        <v>-0.7764705882352941</v>
       </c>
       <c r="AL42" t="n">
-        <v>-0.7764705882352941</v>
+        <v>-1.377313043362892</v>
       </c>
       <c r="AM42" t="n">
-        <v>-1.3772668976322</v>
+        <v>0.361552610506103</v>
       </c>
       <c r="AN42" t="n">
-        <v>0.3766337849968783</v>
+        <v>-0.3863636363636367</v>
       </c>
       <c r="AO42" t="n">
-        <v>-0.3833307613571126</v>
+        <v>0.9267907584925278</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.9258739430463306</v>
+        <v>-0.3600000000000003</v>
       </c>
       <c r="AQ42" t="n">
-        <v>-0.3600000000000003</v>
+        <v>1.028901734104047</v>
       </c>
       <c r="AR42" t="n">
-        <v>1.028901734104047</v>
+        <v>-0.9305740987983979</v>
       </c>
       <c r="AS42" t="n">
-        <v>-0.9305740987983979</v>
+        <v>0.7265625</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.7265625</v>
+        <v>-1.067484662576687</v>
       </c>
       <c r="AU42" t="n">
-        <v>-1.067484662576687</v>
+        <v>-1.77900742171454</v>
       </c>
       <c r="AV42" t="n">
-        <v>-1.77922077922078</v>
+        <v>-1.192307692307692</v>
       </c>
       <c r="AW42" t="n">
-        <v>-1.192307692307692</v>
-      </c>
-      <c r="AX42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7018,7 +6890,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -7027,16 +6899,16 @@
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>1</v>
@@ -7063,93 +6935,90 @@
         <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V43" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43" t="n">
         <v>1</v>
       </c>
       <c r="AA43" t="n">
-        <v>1</v>
+        <v>-0.3864436897399763</v>
       </c>
       <c r="AB43" t="n">
-        <v>-0.3890242408399842</v>
+        <v>3.082425390996185</v>
       </c>
       <c r="AC43" t="n">
-        <v>3.089507488656237</v>
+        <v>1.422222222222222</v>
       </c>
       <c r="AD43" t="n">
-        <v>1.422222222222222</v>
+        <v>-1.725074203868341</v>
       </c>
       <c r="AE43" t="n">
-        <v>-1.713704011583743</v>
+        <v>-1.754385964912281</v>
       </c>
       <c r="AF43" t="n">
-        <v>-1.754385964912281</v>
+        <v>-0.322380275011854</v>
       </c>
       <c r="AG43" t="n">
-        <v>-0.3058557381289596</v>
+        <v>-0.5557552869308318</v>
       </c>
       <c r="AH43" t="n">
-        <v>-0.5574495851569108</v>
+        <v>0.1197518639727734</v>
       </c>
       <c r="AI43" t="n">
-        <v>0.1199779599796119</v>
+        <v>-2.418798019311972</v>
       </c>
       <c r="AJ43" t="n">
-        <v>-2.415956349895209</v>
+        <v>-0.1428167248123109</v>
       </c>
       <c r="AK43" t="n">
-        <v>-0.1426642732710443</v>
+        <v>0.5447963800904977</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.5447963800904977</v>
+        <v>0.9447208549421933</v>
       </c>
       <c r="AM43" t="n">
-        <v>0.944767000672885</v>
+        <v>-1.673254001620719</v>
       </c>
       <c r="AN43" t="n">
-        <v>-1.657246293501751</v>
+        <v>-0.1136363636363638</v>
       </c>
       <c r="AO43" t="n">
-        <v>-0.1106034886298397</v>
+        <v>0.9136328637556845</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.9127160483094874</v>
+        <v>-0.1600000000000001</v>
       </c>
       <c r="AQ43" t="n">
-        <v>-0.1600000000000001</v>
+        <v>-1.907514450867054</v>
       </c>
       <c r="AR43" t="n">
-        <v>-1.907514450867054</v>
+        <v>2.291054739652871</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.291054739652871</v>
+        <v>0.34375</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.34375</v>
+        <v>-0.8343558282208587</v>
       </c>
       <c r="AU43" t="n">
-        <v>-0.8343558282208587</v>
+        <v>-0.6880983308054482</v>
       </c>
       <c r="AV43" t="n">
-        <v>-0.6883116883116884</v>
+        <v>-0.6538461538461539</v>
       </c>
       <c r="AW43" t="n">
-        <v>-0.6538461538461539</v>
-      </c>
-      <c r="AX43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7172,7 +7041,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -7181,19 +7050,19 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
         <v>1</v>
@@ -7205,105 +7074,102 @@
         <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V44" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" t="n">
         <v>1</v>
       </c>
       <c r="Y44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA44" t="n">
-        <v>1</v>
+        <v>-0.7728873794799527</v>
       </c>
       <c r="AB44" t="n">
-        <v>-0.7780484816799684</v>
+        <v>-0.3424917101106873</v>
       </c>
       <c r="AC44" t="n">
-        <v>-0.343278609850693</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.8999257961316589</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.9112959884162573</v>
+        <v>1.298245614035088</v>
       </c>
       <c r="AF44" t="n">
-        <v>1.298245614035088</v>
+        <v>-0.6182550972024656</v>
       </c>
       <c r="AG44" t="n">
-        <v>-0.6017305603195713</v>
+        <v>1.655789646155984</v>
       </c>
       <c r="AH44" t="n">
-        <v>1.654803791798547</v>
+        <v>-0.2811565501969464</v>
       </c>
       <c r="AI44" t="n">
-        <v>-0.2816873842999584</v>
+        <v>0.5619712114572609</v>
       </c>
       <c r="AJ44" t="n">
-        <v>0.5648128808740238</v>
+        <v>-0.500304647517625</v>
       </c>
       <c r="AK44" t="n">
-        <v>-0.5001521959763584</v>
+        <v>-0.1936651583710408</v>
       </c>
       <c r="AL44" t="n">
-        <v>-0.1936651583710408</v>
+        <v>0.4362462786710068</v>
       </c>
       <c r="AM44" t="n">
-        <v>0.4362924244016985</v>
+        <v>-0.5112045970118454</v>
       </c>
       <c r="AN44" t="n">
-        <v>-0.497045535629187</v>
+        <v>-0.5227272727272727</v>
       </c>
       <c r="AO44" t="n">
-        <v>-0.5196943977207487</v>
+        <v>0.1899486532293682</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.189031837783171</v>
+        <v>0.4399999999999995</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.4399999999999995</v>
+        <v>-0.2466281310211949</v>
       </c>
       <c r="AR44" t="n">
-        <v>-0.2466281310211949</v>
+        <v>-0.1695594125500667</v>
       </c>
       <c r="AS44" t="n">
-        <v>-0.1695594125500667</v>
+        <v>0.703125</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.703125</v>
+        <v>0.1349693251533744</v>
       </c>
       <c r="AU44" t="n">
-        <v>0.1349693251533744</v>
+        <v>0.2599536172464997</v>
       </c>
       <c r="AV44" t="n">
-        <v>0.2597402597402595</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="AW44" t="n">
-        <v>0.2692307692307692</v>
-      </c>
-      <c r="AX44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7326,25 +7192,25 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
@@ -7353,13 +7219,13 @@
         <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
         <v>1</v>
@@ -7371,93 +7237,90 @@
         <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V45" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" t="n">
         <v>1</v>
       </c>
       <c r="Y45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA45" t="n">
-        <v>1</v>
+        <v>-0.3864436897399763</v>
       </c>
       <c r="AB45" t="n">
-        <v>-0.3890242408399842</v>
+        <v>0.543546607390183</v>
       </c>
       <c r="AC45" t="n">
-        <v>0.5417184078630141</v>
+        <v>1.6</v>
       </c>
       <c r="AD45" t="n">
-        <v>1.6</v>
+        <v>2.524925796131659</v>
       </c>
       <c r="AE45" t="n">
-        <v>2.536295988416257</v>
+        <v>2.075163197126109</v>
       </c>
       <c r="AF45" t="n">
-        <v>2.088745525424259</v>
+        <v>0.6534376481744902</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.6699621850573847</v>
+        <v>3.51281210905331</v>
       </c>
       <c r="AH45" t="n">
-        <v>3.512421131226793</v>
+        <v>-0.2481813992479218</v>
       </c>
       <c r="AI45" t="n">
-        <v>-0.2486499750302102</v>
+        <v>-0.361105711619663</v>
       </c>
       <c r="AJ45" t="n">
-        <v>-0.3582640422029002</v>
+        <v>0.03562731418604655</v>
       </c>
       <c r="AK45" t="n">
-        <v>0.03589749159476634</v>
+        <v>-0.5755656108597285</v>
       </c>
       <c r="AL45" t="n">
-        <v>-0.5755656108597285</v>
+        <v>-0.2078215179391626</v>
       </c>
       <c r="AM45" t="n">
-        <v>-0.207775372208471</v>
+        <v>2.524452154839967</v>
       </c>
       <c r="AN45" t="n">
-        <v>2.533781940526935</v>
+        <v>-0.1363636363636365</v>
       </c>
       <c r="AO45" t="n">
-        <v>-0.1333307613571124</v>
+        <v>0.6636328637556854</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.6627160483094883</v>
+        <v>1.08</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.08</v>
+        <v>0.847784200385358</v>
       </c>
       <c r="AR45" t="n">
-        <v>0.847784200385358</v>
+        <v>-0.7236315086782377</v>
       </c>
       <c r="AS45" t="n">
-        <v>-0.7236315086782377</v>
+        <v>-0.7265625</v>
       </c>
       <c r="AT45" t="n">
-        <v>-0.7265625</v>
+        <v>-2.417177914110429</v>
       </c>
       <c r="AU45" t="n">
-        <v>-2.417177914110429</v>
+        <v>-2.817968460675579</v>
       </c>
       <c r="AV45" t="n">
-        <v>-2.81818181818182</v>
+        <v>-2.461538461538462</v>
       </c>
       <c r="AW45" t="n">
-        <v>-2.461538461538462</v>
-      </c>
-      <c r="AX45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7480,7 +7343,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -7489,10 +7352,10 @@
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -7501,10 +7364,10 @@
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
         <v>1</v>
@@ -7516,22 +7379,22 @@
         <v>1</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
         <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V46" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X46" t="n">
         <v>1</v>
@@ -7540,78 +7403,75 @@
         <v>1</v>
       </c>
       <c r="Z46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0</v>
+        <v>0.3388796204032221</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.3390772708196783</v>
+        <v>0.4724420437000019</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.4738200320161962</v>
+        <v>-0.08888888888888889</v>
       </c>
       <c r="AD46" t="n">
-        <v>-0.08888888888888889</v>
+        <v>0.5249257961316589</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.5362959884162573</v>
+        <v>0.3859649122807017</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.3859649122807017</v>
+        <v>0.1437174016121385</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.1602419384950329</v>
+        <v>-0.7414575332205642</v>
       </c>
       <c r="AH46" t="n">
-        <v>-0.7432113190997353</v>
+        <v>0.008677671302375015</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.008694055070986497</v>
+        <v>0.1965865960726456</v>
       </c>
       <c r="AJ46" t="n">
-        <v>0.1994282654894084</v>
+        <v>-0.5969230050055477</v>
       </c>
       <c r="AK46" t="n">
-        <v>-0.5967705534642811</v>
+        <v>-0.539366515837104</v>
       </c>
       <c r="AL46" t="n">
-        <v>-0.539366515837104</v>
+        <v>-0.004431687430688067</v>
       </c>
       <c r="AM46" t="n">
-        <v>-0.004385541699996416</v>
+        <v>-0.2804946838711069</v>
       </c>
       <c r="AN46" t="n">
-        <v>-0.2667026474413211</v>
+        <v>-0.454545454545455</v>
       </c>
       <c r="AO46" t="n">
-        <v>-0.4515125795389309</v>
+        <v>0.6767907584925268</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.6758739430463296</v>
+        <v>1.24</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.24</v>
+        <v>0.4046242774566465</v>
       </c>
       <c r="AR46" t="n">
-        <v>0.4046242774566465</v>
+        <v>-0.6355140186915889</v>
       </c>
       <c r="AS46" t="n">
-        <v>-0.6355140186915889</v>
+        <v>1</v>
       </c>
       <c r="AT46" t="n">
-        <v>1</v>
+        <v>-0.5889570552147236</v>
       </c>
       <c r="AU46" t="n">
-        <v>-0.5889570552147236</v>
+        <v>-0.3244619671690847</v>
       </c>
       <c r="AV46" t="n">
-        <v>-0.3246753246753248</v>
+        <v>-0.7307692307692307</v>
       </c>
       <c r="AW46" t="n">
-        <v>-0.7307692307692307</v>
-      </c>
-      <c r="AX46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7634,7 +7494,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -7652,10 +7512,10 @@
         <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
         <v>1</v>
@@ -7679,93 +7539,90 @@
         <v>1</v>
       </c>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="n">
         <v>0</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA47" t="n">
-        <v>1</v>
+        <v>0.7728873794799251</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.7780484816799408</v>
+        <v>-0.6849834202213746</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.6865572197013861</v>
+        <v>0.325925925925926</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.325925925925926</v>
+        <v>1.962425796131659</v>
       </c>
       <c r="AE47" t="n">
-        <v>1.973795988416257</v>
+        <v>1.929824561403509</v>
       </c>
       <c r="AF47" t="n">
-        <v>1.929824561403509</v>
+        <v>1.597961119013751</v>
       </c>
       <c r="AG47" t="n">
-        <v>1.614485655896645</v>
+        <v>0.1195256086681961</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.1180476291806337</v>
+        <v>1.397105079682358</v>
       </c>
       <c r="AI47" t="n">
-        <v>1.399742866428806</v>
+        <v>1.119663519149569</v>
       </c>
       <c r="AJ47" t="n">
-        <v>1.122505188566332</v>
+        <v>0.8137050143181237</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.8138574658593903</v>
+        <v>2.44343891402715</v>
       </c>
       <c r="AL47" t="n">
-        <v>2.44343891402715</v>
+        <v>0.7413310244337187</v>
       </c>
       <c r="AM47" t="n">
-        <v>0.7413771701644104</v>
+        <v>0.1809251424103683</v>
       </c>
       <c r="AN47" t="n">
-        <v>0.1939831289344092</v>
+        <v>1.477272727272727</v>
       </c>
       <c r="AO47" t="n">
-        <v>1.480305602279251</v>
+        <v>0.308369705860948</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.3074528904147508</v>
+        <v>-1.12</v>
       </c>
       <c r="AQ47" t="n">
-        <v>-1.12</v>
+        <v>-0.366088631984587</v>
       </c>
       <c r="AR47" t="n">
-        <v>-0.366088631984587</v>
+        <v>2.660881174899867</v>
       </c>
       <c r="AS47" t="n">
-        <v>2.660881174899867</v>
+        <v>-0.109375</v>
       </c>
       <c r="AT47" t="n">
-        <v>-0.109375</v>
+        <v>0.5153374233128839</v>
       </c>
       <c r="AU47" t="n">
-        <v>0.5153374233128839</v>
+        <v>0.5196938769867598</v>
       </c>
       <c r="AV47" t="n">
-        <v>0.5194805194805197</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="AW47" t="n">
-        <v>0.3076923076923077</v>
-      </c>
-      <c r="AX47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7788,7 +7645,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -7797,16 +7654,16 @@
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
@@ -7833,93 +7690,90 @@
         <v>1</v>
       </c>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" t="n">
         <v>1</v>
       </c>
       <c r="Y48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>-0.3424917101106873</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.343278609850693</v>
+        <v>-0.4296296296296296</v>
       </c>
       <c r="AD48" t="n">
-        <v>-0.4296296296296296</v>
+        <v>0</v>
       </c>
       <c r="AE48" t="n">
-        <v>0</v>
+        <v>-0.1310704755841438</v>
       </c>
       <c r="AF48" t="n">
-        <v>-0.1375423969780562</v>
+        <v>0.3366998577524893</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.3532243946353837</v>
+        <v>0.2625031457708699</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.2604302897523866</v>
+        <v>0.8243787737256147</v>
       </c>
       <c r="AI48" t="n">
-        <v>0.8259352317437055</v>
+        <v>1.408125057611108</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1.41096672702787</v>
+        <v>0.4948644346079787</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.4950168861492454</v>
+        <v>0.5248868778280543</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.5248868778280543</v>
+        <v>0.1650598379930407</v>
       </c>
       <c r="AM48" t="n">
-        <v>0.1651059837237324</v>
+        <v>1.686610891328868</v>
       </c>
       <c r="AN48" t="n">
-        <v>1.697273557107846</v>
+        <v>0.3409090909090908</v>
       </c>
       <c r="AO48" t="n">
-        <v>0.3439419659156148</v>
+        <v>0.308369705860948</v>
       </c>
       <c r="AP48" t="n">
-        <v>0.3074528904147508</v>
+        <v>-0.2400000000000002</v>
       </c>
       <c r="AQ48" t="n">
-        <v>-0.2400000000000002</v>
+        <v>0.01926782273602974</v>
       </c>
       <c r="AR48" t="n">
-        <v>0.01926782273602974</v>
+        <v>0.2069425901201603</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.2069425901201603</v>
+        <v>-0.703125</v>
       </c>
       <c r="AT48" t="n">
-        <v>-0.703125</v>
+        <v>0</v>
       </c>
       <c r="AU48" t="n">
-        <v>0</v>
+        <v>0.1820315393244223</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.1818181818181821</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="AW48" t="n">
-        <v>0.6538461538461539</v>
-      </c>
-      <c r="AX48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7942,7 +7796,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -7951,10 +7805,10 @@
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
@@ -7963,10 +7817,10 @@
         <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
         <v>1</v>
@@ -7975,105 +7829,102 @@
         <v>1</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
         <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V49" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" t="n">
         <v>1</v>
       </c>
       <c r="Y49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA49" t="n">
-        <v>1</v>
+        <v>-1.545774758959878</v>
       </c>
       <c r="AB49" t="n">
-        <v>-1.556096963359909</v>
+        <v>1.712458550553436</v>
       </c>
       <c r="AC49" t="n">
-        <v>1.716393049253465</v>
+        <v>0.237037037037037</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.237037037037037</v>
+        <v>0.02492579613165891</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.03629598841625725</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.4912280701754386</v>
+        <v>-0.5385964912280702</v>
       </c>
       <c r="AG49" t="n">
-        <v>-0.5220719543451757</v>
+        <v>-0.2687609063012448</v>
       </c>
       <c r="AH49" t="n">
-        <v>-0.2703632690634542</v>
+        <v>-0.08677671302374891</v>
       </c>
       <c r="AI49" t="n">
-        <v>-0.08694055070986374</v>
+        <v>-0.4380287885427404</v>
       </c>
       <c r="AJ49" t="n">
-        <v>-0.4351871191259776</v>
+        <v>-0.6645558552470936</v>
       </c>
       <c r="AK49" t="n">
-        <v>-0.664403403705827</v>
+        <v>-0.6823529411764706</v>
       </c>
       <c r="AL49" t="n">
-        <v>-0.6823529411764706</v>
+        <v>-0.8722282976001794</v>
       </c>
       <c r="AM49" t="n">
-        <v>-0.8721821518694878</v>
+        <v>-0.4747767159896231</v>
       </c>
       <c r="AN49" t="n">
-        <v>-0.460675605915313</v>
+        <v>0</v>
       </c>
       <c r="AO49" t="n">
-        <v>0.00303287500652409</v>
+        <v>0.6636328637556854</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.6627160483094883</v>
+        <v>-0.4800000000000004</v>
       </c>
       <c r="AQ49" t="n">
-        <v>-0.4800000000000004</v>
+        <v>-0.2986512524084802</v>
       </c>
       <c r="AR49" t="n">
-        <v>-0.2986512524084802</v>
+        <v>0.3631508678237652</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.3631508678237652</v>
+        <v>-0.3359375</v>
       </c>
       <c r="AT49" t="n">
-        <v>-0.3359375</v>
+        <v>0.1472392638036814</v>
       </c>
       <c r="AU49" t="n">
-        <v>0.1472392638036814</v>
+        <v>0.3248886821815656</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.3246753246753254</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="AW49" t="n">
-        <v>0.2307692307692308</v>
-      </c>
-      <c r="AX49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8096,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -8108,10 +7959,10 @@
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
@@ -8141,16 +7992,16 @@
         <v>1</v>
       </c>
       <c r="U50" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V50" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
       </c>
       <c r="X50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50" t="n">
         <v>1</v>
@@ -8159,75 +8010,72 @@
         <v>1</v>
       </c>
       <c r="AA50" t="n">
-        <v>1</v>
+        <v>1.159331069219901</v>
       </c>
       <c r="AB50" t="n">
-        <v>1.167072722519925</v>
+        <v>-1.027475130332062</v>
       </c>
       <c r="AC50" t="n">
-        <v>-1.029835829552079</v>
+        <v>2.014814814814815</v>
       </c>
       <c r="AD50" t="n">
-        <v>2.014814814814815</v>
+        <v>0.4439115571826822</v>
       </c>
       <c r="AE50" t="n">
-        <v>0.370426611461288</v>
+        <v>1.100949561506965</v>
       </c>
       <c r="AF50" t="n">
-        <v>1.064811557758702</v>
+        <v>1.580891417733523</v>
       </c>
       <c r="AG50" t="n">
-        <v>1.597415954616417</v>
+        <v>-0.2687609063012448</v>
       </c>
       <c r="AH50" t="n">
-        <v>-0.2703632690634542</v>
+        <v>3.063217969738337</v>
       </c>
       <c r="AI50" t="n">
-        <v>3.06900144005819</v>
+        <v>-0.5341826346965867</v>
       </c>
       <c r="AJ50" t="n">
-        <v>-0.5313409652798239</v>
+        <v>-1.166971314184292</v>
       </c>
       <c r="AK50" t="n">
-        <v>-1.166818862643025</v>
+        <v>1.460522234409422</v>
       </c>
       <c r="AL50" t="n">
-        <v>1.461350142995365</v>
+        <v>-1.462058806074756</v>
       </c>
       <c r="AM50" t="n">
-        <v>-1.462012660344064</v>
+        <v>-0.7661997641673969</v>
       </c>
       <c r="AN50" t="n">
-        <v>-0.7516350436263006</v>
+        <v>-1.136363636363636</v>
       </c>
       <c r="AO50" t="n">
-        <v>-1.133330761357112</v>
+        <v>-1.270577662560106</v>
       </c>
       <c r="AP50" t="n">
-        <v>-1.271494478006303</v>
+        <v>-1.56</v>
       </c>
       <c r="AQ50" t="n">
-        <v>-1.56</v>
+        <v>0</v>
       </c>
       <c r="AR50" t="n">
-        <v>0</v>
+        <v>-0.03738317757009338</v>
       </c>
       <c r="AS50" t="n">
-        <v>-0.03738317757009338</v>
+        <v>-0.078125</v>
       </c>
       <c r="AT50" t="n">
-        <v>-0.078125</v>
+        <v>-1.521472392638037</v>
       </c>
       <c r="AU50" t="n">
-        <v>-1.521472392638037</v>
+        <v>-1.960825603532722</v>
       </c>
       <c r="AV50" t="n">
-        <v>-1.961038961038962</v>
+        <v>-1.615384615384615</v>
       </c>
       <c r="AW50" t="n">
-        <v>-1.615384615384615</v>
-      </c>
-      <c r="AX50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8250,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -8262,10 +8110,10 @@
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
@@ -8274,10 +8122,10 @@
         <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -8295,93 +8143,90 @@
         <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V51" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X51" t="n">
         <v>1</v>
       </c>
       <c r="Y51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51" t="n">
-        <v>1</v>
+        <v>0.7728873794799251</v>
       </c>
       <c r="AB51" t="n">
-        <v>0.7780484816799408</v>
+        <v>-1.027475130332062</v>
       </c>
       <c r="AC51" t="n">
-        <v>-1.029835829552079</v>
+        <v>-0.6814814814814815</v>
       </c>
       <c r="AD51" t="n">
-        <v>-0.6814814814814815</v>
+        <v>0.5249257961316589</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.5362959884162573</v>
+        <v>0.4912280701754386</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.4912280701754386</v>
+        <v>0.006215613612204828</v>
       </c>
       <c r="AG51" t="n">
-        <v>0</v>
+        <v>0.1715121164535767</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.1678458246880169</v>
+        <v>0.2336546807559531</v>
       </c>
       <c r="AI51" t="n">
-        <v>0.2130751061249408</v>
+        <v>0.1246308061068319</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0.1192484016139805</v>
+        <v>0.02314909520850933</v>
       </c>
       <c r="AK51" t="n">
-        <v>0.02305701336401955</v>
+        <v>0.2859486725123133</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.2691664093578171</v>
+        <v>0.003967355235196488</v>
       </c>
       <c r="AM51" t="n">
-        <v>0.003922441786481725</v>
+        <v>0.3874073719766921</v>
       </c>
       <c r="AN51" t="n">
-        <v>0.3968774558404139</v>
+        <v>-0.05681818181818213</v>
       </c>
       <c r="AO51" t="n">
-        <v>-0.05378530681165804</v>
+        <v>1.229422337439896</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.228505521993699</v>
+        <v>-0.04000000000000092</v>
       </c>
       <c r="AQ51" t="n">
-        <v>-0.04000000000000092</v>
+        <v>1.368015414258188</v>
       </c>
       <c r="AR51" t="n">
-        <v>1.368015414258188</v>
+        <v>0.1721409680094473</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.1674066670849546</v>
+        <v>0.2262638041711977</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.2305051300309366</v>
+        <v>-0.9586368128395518</v>
       </c>
       <c r="AU51" t="n">
-        <v>-0.9599931690667975</v>
+        <v>-0.8038896912880081</v>
       </c>
       <c r="AV51" t="n">
-        <v>-0.8089984735448145</v>
+        <v>-0.8625150184257765</v>
       </c>
       <c r="AW51" t="n">
-        <v>-0.8656460374192927</v>
-      </c>
-      <c r="AX51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8404,25 +8249,25 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
@@ -8431,10 +8276,10 @@
         <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -8449,93 +8294,90 @@
         <v>1</v>
       </c>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V52" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52" t="n">
         <v>1</v>
       </c>
       <c r="Y52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA52" t="n">
-        <v>1</v>
+        <v>0.3864436897399763</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.3890242408399842</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>-0.725925925925926</v>
       </c>
       <c r="AD52" t="n">
-        <v>-0.725925925925926</v>
+        <v>-0.5375742038683411</v>
       </c>
       <c r="AE52" t="n">
-        <v>-0.5262040115837427</v>
+        <v>1.192982456140351</v>
       </c>
       <c r="AF52" t="n">
-        <v>1.192982456140351</v>
+        <v>1.008677098150782</v>
       </c>
       <c r="AG52" t="n">
-        <v>1.025201635033677</v>
+        <v>-1.332328316869714</v>
       </c>
       <c r="AH52" t="n">
-        <v>-1.334271381645087</v>
+        <v>0.6421476763757421</v>
       </c>
       <c r="AI52" t="n">
-        <v>0.6433600752529919</v>
+        <v>1.785048134534185</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1.787889803950948</v>
+        <v>-0.001753922879943717</v>
       </c>
       <c r="AK52" t="n">
-        <v>-0.001601471338677059</v>
+        <v>-0.11710407239819</v>
       </c>
       <c r="AL52" t="n">
-        <v>-0.11710407239819</v>
+        <v>-1.614601178956112</v>
       </c>
       <c r="AM52" t="n">
-        <v>-1.61455503322542</v>
+        <v>1.657468586511089</v>
       </c>
       <c r="AN52" t="n">
-        <v>1.668177613336747</v>
+        <v>0.7500000000000002</v>
       </c>
       <c r="AO52" t="n">
-        <v>0.7530328750065244</v>
+        <v>1.082053916387264</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.081137100941067</v>
+        <v>1.44</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.44</v>
+        <v>0.3526011560693613</v>
       </c>
       <c r="AR52" t="n">
-        <v>0.3526011560693613</v>
+        <v>-0.5246995994659546</v>
       </c>
       <c r="AS52" t="n">
-        <v>-0.5246995994659546</v>
+        <v>-0.4375</v>
       </c>
       <c r="AT52" t="n">
-        <v>-0.4375</v>
+        <v>-0.3803680981595086</v>
       </c>
       <c r="AU52" t="n">
-        <v>-0.3803680981595086</v>
+        <v>-0.1166697593768766</v>
       </c>
       <c r="AV52" t="n">
-        <v>-0.1168831168831168</v>
+        <v>-0.2692307692307692</v>
       </c>
       <c r="AW52" t="n">
-        <v>-0.2692307692307692</v>
-      </c>
-      <c r="AX52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8558,13 +8400,13 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -8588,10 +8430,10 @@
         <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
         <v>1</v>
@@ -8603,93 +8445,90 @@
         <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V53" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53" t="n">
         <v>1</v>
       </c>
       <c r="Y53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA53" t="n">
-        <v>1</v>
+        <v>0.2810576366098925</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.2846394449538958</v>
+        <v>0.438989340511256</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.4414346393078925</v>
+        <v>-0.725925925925926</v>
       </c>
       <c r="AD53" t="n">
-        <v>-0.725925925925926</v>
+        <v>-0.1729368152323509</v>
       </c>
       <c r="AE53" t="n">
-        <v>-0.1497486557793719</v>
+        <v>-0.07155120550588752</v>
       </c>
       <c r="AF53" t="n">
-        <v>-0.06269465036026652</v>
+        <v>0.005263157894736907</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.02178769477763133</v>
+        <v>-0.8427496675604184</v>
       </c>
       <c r="AH53" t="n">
-        <v>-0.8445359012503669</v>
+        <v>-0.4842140586725189</v>
       </c>
       <c r="AI53" t="n">
-        <v>-0.4851282729610397</v>
+        <v>1.196586596072646</v>
       </c>
       <c r="AJ53" t="n">
-        <v>1.199428265489408</v>
+        <v>-1.070352956696369</v>
       </c>
       <c r="AK53" t="n">
-        <v>-1.070200505155102</v>
+        <v>-0.620814479638009</v>
       </c>
       <c r="AL53" t="n">
-        <v>-0.620814479638009</v>
+        <v>-1.140024907769671</v>
       </c>
       <c r="AM53" t="n">
-        <v>-1.139978762038979</v>
+        <v>0.4237776825585133</v>
       </c>
       <c r="AN53" t="n">
-        <v>0.4364493270268989</v>
+        <v>0.7727272727272725</v>
       </c>
       <c r="AO53" t="n">
-        <v>0.7757601477337965</v>
+        <v>0.6110012848083163</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.6100844693621191</v>
+        <v>0.2400000000000002</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.2400000000000002</v>
+        <v>-0.01926782273602974</v>
       </c>
       <c r="AR53" t="n">
-        <v>-0.01926782273602974</v>
+        <v>-0.8731642189586114</v>
       </c>
       <c r="AS53" t="n">
-        <v>-0.8731642189586114</v>
+        <v>-0.1796875</v>
       </c>
       <c r="AT53" t="n">
-        <v>-0.1796875</v>
+        <v>-0.245398773006135</v>
       </c>
       <c r="AU53" t="n">
-        <v>-0.245398773006135</v>
+        <v>-0.2855009282080453</v>
       </c>
       <c r="AV53" t="n">
-        <v>-0.2857142857142855</v>
+        <v>0</v>
       </c>
       <c r="AW53" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8712,7 +8551,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -8724,10 +8563,10 @@
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
         <v>1</v>
@@ -8757,16 +8596,16 @@
         <v>1</v>
       </c>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54" t="n">
         <v>1</v>
@@ -8775,75 +8614,72 @@
         <v>1</v>
       </c>
       <c r="AA54" t="n">
-        <v>1</v>
+        <v>0.2425182274071807</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.2494258348458641</v>
+        <v>0.4513153320901065</v>
       </c>
       <c r="AC54" t="n">
-        <v>0.4536856893362859</v>
+        <v>-0.1185185185185185</v>
       </c>
       <c r="AD54" t="n">
-        <v>-0.1185185185185185</v>
+        <v>1.649925796131659</v>
       </c>
       <c r="AE54" t="n">
-        <v>1.661295988416257</v>
+        <v>0.3508771929824561</v>
       </c>
       <c r="AF54" t="n">
-        <v>0.3508771929824561</v>
+        <v>-0.08008534850640107</v>
       </c>
       <c r="AG54" t="n">
-        <v>-0.06356081162350664</v>
+        <v>0.8454525714371507</v>
       </c>
       <c r="AH54" t="n">
-        <v>0.8442071345934936</v>
+        <v>0</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
+        <v>1.215817365303415</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1.218659034720178</v>
+        <v>-0.857792570222939</v>
       </c>
       <c r="AK54" t="n">
-        <v>-0.8576401186816723</v>
+        <v>0.1846153846153847</v>
       </c>
       <c r="AL54" t="n">
-        <v>0.1846153846153847</v>
+        <v>-1.495957111159502</v>
       </c>
       <c r="AM54" t="n">
-        <v>-1.49591096542881</v>
+        <v>1.80803716140294</v>
       </c>
       <c r="AN54" t="n">
-        <v>1.818506656154091</v>
+        <v>-0.5000000000000006</v>
       </c>
       <c r="AO54" t="n">
-        <v>-0.4969671249934764</v>
+        <v>0.5583697058609489</v>
       </c>
       <c r="AP54" t="n">
-        <v>0.5574528904147518</v>
+        <v>0.1199999999999992</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.1199999999999992</v>
+        <v>0.3082851637764923</v>
       </c>
       <c r="AR54" t="n">
-        <v>0.3082851637764923</v>
+        <v>0.4806408544726302</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.4806408544726302</v>
+        <v>0.078125</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.078125</v>
+        <v>0.4049079754601233</v>
       </c>
       <c r="AU54" t="n">
-        <v>0.4049079754601233</v>
+        <v>1.065148422441305</v>
       </c>
       <c r="AV54" t="n">
-        <v>1.064935064935065</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="AW54" t="n">
-        <v>0.4615384615384616</v>
-      </c>
-      <c r="AX54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8866,7 +8702,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -8875,10 +8711,10 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>1</v>
@@ -8890,10 +8726,10 @@
         <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
         <v>1</v>
@@ -8917,87 +8753,84 @@
         <v>1</v>
       </c>
       <c r="W55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA55" t="n">
-        <v>1</v>
+        <v>0.03768030025648098</v>
       </c>
       <c r="AB55" t="n">
-        <v>0.05262571140046227</v>
+        <v>-0.3424917101106873</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.343278609850693</v>
+        <v>-0.4296296296296296</v>
       </c>
       <c r="AD55" t="n">
-        <v>-0.4296296296296296</v>
+        <v>-0.4125742038683411</v>
       </c>
       <c r="AE55" t="n">
-        <v>-0.4012040115837427</v>
+        <v>0</v>
       </c>
       <c r="AF55" t="n">
-        <v>0</v>
+        <v>-0.7623992413466099</v>
       </c>
       <c r="AG55" t="n">
-        <v>-0.7458747044637154</v>
+        <v>0.2208177430080503</v>
       </c>
       <c r="AH55" t="n">
-        <v>0.2193722113312654</v>
+        <v>-0.7254533208785409</v>
       </c>
       <c r="AI55" t="n">
-        <v>-0.7268230039344609</v>
+        <v>-0.07264417315812499</v>
       </c>
       <c r="AJ55" t="n">
-        <v>-0.0698025037413622</v>
+        <v>-1.224942328677045</v>
       </c>
       <c r="AK55" t="n">
-        <v>-1.224789877135779</v>
+        <v>-0.9411764705882353</v>
       </c>
       <c r="AL55" t="n">
-        <v>-0.9411764705882353</v>
+        <v>0.266754753247278</v>
       </c>
       <c r="AM55" t="n">
-        <v>0.2668008989779697</v>
+        <v>1.334474708114057</v>
       </c>
       <c r="AN55" t="n">
-        <v>1.345697569873736</v>
+        <v>0.227272727272727</v>
       </c>
       <c r="AO55" t="n">
-        <v>0.2303056022792511</v>
+        <v>-0.2968934520337886</v>
       </c>
       <c r="AP55" t="n">
-        <v>-0.2978102674799857</v>
+        <v>1.08</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.08</v>
+        <v>0.3853564547206167</v>
       </c>
       <c r="AR55" t="n">
-        <v>0.3853564547206167</v>
+        <v>-0.540720961281709</v>
       </c>
       <c r="AS55" t="n">
-        <v>-0.540720961281709</v>
+        <v>1.15625</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.15625</v>
+        <v>-1.337423312883436</v>
       </c>
       <c r="AU55" t="n">
-        <v>-1.337423312883436</v>
+        <v>-1.623163265870384</v>
       </c>
       <c r="AV55" t="n">
-        <v>-1.623376623376624</v>
+        <v>-1.423076923076923</v>
       </c>
       <c r="AW55" t="n">
-        <v>-1.423076923076923</v>
-      </c>
-      <c r="AX55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9020,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -9029,7 +8862,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -9041,7 +8874,7 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
         <v>1</v>
@@ -9059,99 +8892,96 @@
         <v>1</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
         <v>1</v>
       </c>
       <c r="V56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA56" t="n">
-        <v>1</v>
+        <v>-1.159331069219929</v>
       </c>
       <c r="AB56" t="n">
-        <v>-1.167072722519953</v>
+        <v>0.3798194299811747</v>
       </c>
       <c r="AC56" t="n">
-        <v>0.3849794284607885</v>
+        <v>-0.3555555555555556</v>
       </c>
       <c r="AD56" t="n">
-        <v>-0.3555555555555556</v>
+        <v>0.5249257961316589</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.5362959884162573</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="AF56" t="n">
-        <v>0.3157894736842105</v>
+        <v>-0.7396396396396396</v>
       </c>
       <c r="AG56" t="n">
-        <v>-0.7231151027567453</v>
+        <v>0.271463810177977</v>
       </c>
       <c r="AH56" t="n">
-        <v>0.2700345024065809</v>
+        <v>1.338096914826209</v>
       </c>
       <c r="AI56" t="n">
-        <v>1.340623291946099</v>
+        <v>0.4658173653034147</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0.4686590347201776</v>
+        <v>0.3112895553809257</v>
       </c>
       <c r="AK56" t="n">
-        <v>0.3114420069221924</v>
+        <v>1.695927601809954</v>
       </c>
       <c r="AL56" t="n">
-        <v>1.695927601809954</v>
+        <v>-0.3095164331933999</v>
       </c>
       <c r="AM56" t="n">
-        <v>-0.3094702874627083</v>
+        <v>-1.041837397235542</v>
       </c>
       <c r="AN56" t="n">
-        <v>-1.026834178461277</v>
+        <v>0</v>
       </c>
       <c r="AO56" t="n">
-        <v>0.00303287500652409</v>
+        <v>-0.07227329115980265</v>
       </c>
       <c r="AP56" t="n">
-        <v>-0.07328524714891976</v>
+        <v>-0.2400000000000002</v>
       </c>
       <c r="AQ56" t="n">
-        <v>-0.2400000000000002</v>
+        <v>0.4046242774566465</v>
       </c>
       <c r="AR56" t="n">
-        <v>0.4046242774566465</v>
+        <v>1.451268357810414</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.451268357810414</v>
+        <v>-0.0546875</v>
       </c>
       <c r="AT56" t="n">
-        <v>-0.0546875</v>
+        <v>-1.263803680981595</v>
       </c>
       <c r="AU56" t="n">
-        <v>-1.263803680981595</v>
+        <v>-1.142643785350903</v>
       </c>
       <c r="AV56" t="n">
-        <v>-1.142857142857143</v>
+        <v>-1.115384615384615</v>
       </c>
       <c r="AW56" t="n">
-        <v>-1.115384615384615</v>
-      </c>
-      <c r="AX56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9174,10 +9004,10 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -9186,19 +9016,19 @@
         <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
         <v>1</v>
@@ -9219,7 +9049,7 @@
         <v>1</v>
       </c>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
@@ -9228,84 +9058,81 @@
         <v>0</v>
       </c>
       <c r="X57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57" t="n">
         <v>1</v>
       </c>
       <c r="Z57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA57" t="n">
         <v>0</v>
       </c>
       <c r="AB57" t="n">
-        <v>0</v>
+        <v>-0.6849834202213746</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.6865572197013861</v>
+        <v>-0.3111111111111111</v>
       </c>
       <c r="AD57" t="n">
-        <v>-0.3111111111111111</v>
+        <v>-0.0333268451609392</v>
       </c>
       <c r="AE57" t="n">
-        <v>-0.03356197953412643</v>
+        <v>-0.0104256902791967</v>
       </c>
       <c r="AF57" t="n">
-        <v>-0.01573752402176123</v>
+        <v>-0.4463306197605192</v>
       </c>
       <c r="AG57" t="n">
-        <v>-0.4439362138612047</v>
+        <v>6.754160407928643</v>
       </c>
       <c r="AH57" t="n">
-        <v>6.754807760047006</v>
+        <v>0.6042988282308364</v>
       </c>
       <c r="AI57" t="n">
-        <v>0.5939878491602063</v>
+        <v>-0.9572595577735099</v>
       </c>
       <c r="AJ57" t="n">
-        <v>-0.9544178883567471</v>
+        <v>0.5934151592456601</v>
       </c>
       <c r="AK57" t="n">
-        <v>0.5935676107869269</v>
+        <v>-0.03026128434555168</v>
       </c>
       <c r="AL57" t="n">
-        <v>-0.04071927606995494</v>
+        <v>-0.1501943992950948</v>
       </c>
       <c r="AM57" t="n">
-        <v>-0.1501482535644031</v>
+        <v>-0.6447734940933244</v>
       </c>
       <c r="AN57" t="n">
-        <v>-0.6304019445800557</v>
+        <v>0.9204545454545451</v>
       </c>
       <c r="AO57" t="n">
-        <v>0.9234874204610692</v>
+        <v>-0.03373555729694628</v>
       </c>
       <c r="AP57" t="n">
-        <v>-0.03465237274314344</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.03999999999999915</v>
+        <v>-0.847784200385358</v>
       </c>
       <c r="AR57" t="n">
-        <v>-0.847784200385358</v>
+        <v>-0.4192256341789052</v>
       </c>
       <c r="AS57" t="n">
-        <v>-0.4192256341789052</v>
+        <v>0.3046875</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.3046875</v>
+        <v>-1.950920245398773</v>
       </c>
       <c r="AU57" t="n">
-        <v>-1.950920245398773</v>
+        <v>-2.181604824311942</v>
       </c>
       <c r="AV57" t="n">
-        <v>-2.181818181818183</v>
+        <v>-2</v>
       </c>
       <c r="AW57" t="n">
-        <v>-2</v>
-      </c>
-      <c r="AX57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9334,16 +9161,16 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
@@ -9373,10 +9200,10 @@
         <v>1</v>
       </c>
       <c r="U58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W58" t="n">
         <v>1</v>
@@ -9388,78 +9215,75 @@
         <v>1</v>
       </c>
       <c r="Z58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>0</v>
+        <v>-0.3864436897399763</v>
       </c>
       <c r="AB58" t="n">
-        <v>-0.3890242408399842</v>
+        <v>-1.027475130332062</v>
       </c>
       <c r="AC58" t="n">
-        <v>-1.029835829552079</v>
+        <v>0.3851851851851852</v>
       </c>
       <c r="AD58" t="n">
-        <v>0.3851851851851852</v>
+        <v>-0.4125742038683411</v>
       </c>
       <c r="AE58" t="n">
-        <v>-0.4012040115837427</v>
+        <v>-0.4912280701754386</v>
       </c>
       <c r="AF58" t="n">
-        <v>-0.4912280701754386</v>
+        <v>0.1138454243717401</v>
       </c>
       <c r="AG58" t="n">
-        <v>0.1303699612546345</v>
+        <v>0.794806504267224</v>
       </c>
       <c r="AH58" t="n">
-        <v>0.7935448435181781</v>
+        <v>0.2308260566431721</v>
       </c>
       <c r="AI58" t="n">
-        <v>0.2312618648882376</v>
+        <v>-0.1303364808504322</v>
       </c>
       <c r="AJ58" t="n">
-        <v>-0.1274948114336694</v>
+        <v>-1.263589671672215</v>
       </c>
       <c r="AK58" t="n">
-        <v>-1.263437220130948</v>
+        <v>0</v>
       </c>
       <c r="AL58" t="n">
-        <v>0</v>
+        <v>0.004291489749298558</v>
       </c>
       <c r="AM58" t="n">
-        <v>0.00435007770591186</v>
+        <v>0.1687825154029609</v>
       </c>
       <c r="AN58" t="n">
-        <v>0.1818598190297845</v>
+        <v>0.7045454545454547</v>
       </c>
       <c r="AO58" t="n">
-        <v>0.7075783295519789</v>
+        <v>-0.2047881888758953</v>
       </c>
       <c r="AP58" t="n">
-        <v>-0.2057050043220924</v>
+        <v>-1.52</v>
       </c>
       <c r="AQ58" t="n">
-        <v>-1.52</v>
+        <v>1.522157996146437</v>
       </c>
       <c r="AR58" t="n">
-        <v>1.522157996146437</v>
+        <v>0.204272363150868</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.204272363150868</v>
+        <v>-0.0859375</v>
       </c>
       <c r="AT58" t="n">
-        <v>-0.0859375</v>
+        <v>1.386503067484663</v>
       </c>
       <c r="AU58" t="n">
-        <v>1.386503067484663</v>
+        <v>1.285927643220526</v>
       </c>
       <c r="AV58" t="n">
-        <v>1.285714285714286</v>
+        <v>1.230769230769231</v>
       </c>
       <c r="AW58" t="n">
-        <v>1.230769230769231</v>
-      </c>
-      <c r="AX58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9485,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>1</v>
@@ -9500,13 +9324,13 @@
         <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
         <v>1</v>
@@ -9515,10 +9339,10 @@
         <v>1</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S59" t="n">
         <v>1</v>
@@ -9527,16 +9351,16 @@
         <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="V59" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
       </c>
       <c r="X59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y59" t="n">
         <v>1</v>
@@ -9545,75 +9369,72 @@
         <v>1</v>
       </c>
       <c r="AA59" t="n">
-        <v>1</v>
+        <v>-0.3864436897399763</v>
       </c>
       <c r="AB59" t="n">
-        <v>-0.3890242408399842</v>
+        <v>-0.6849834202213746</v>
       </c>
       <c r="AC59" t="n">
-        <v>-0.6865572197013861</v>
+        <v>0.02962962962962963</v>
       </c>
       <c r="AD59" t="n">
-        <v>0.02962962962962963</v>
+        <v>-0.6000742038683411</v>
       </c>
       <c r="AE59" t="n">
-        <v>-0.5887040115837427</v>
+        <v>-1.403508771929824</v>
       </c>
       <c r="AF59" t="n">
-        <v>-1.403508771929824</v>
+        <v>-0.194357515410147</v>
       </c>
       <c r="AG59" t="n">
-        <v>-0.1778329785272526</v>
+        <v>0.1261818192827679</v>
       </c>
       <c r="AH59" t="n">
-        <v>0.125194802509364</v>
+        <v>-0.008677671302374861</v>
       </c>
       <c r="AI59" t="n">
-        <v>-0.008694055070986343</v>
+        <v>-0.08897931131931994</v>
       </c>
       <c r="AJ59" t="n">
-        <v>-0.08717247468843989</v>
+        <v>0.02976847236899436</v>
       </c>
       <c r="AK59" t="n">
-        <v>0.02988243537151607</v>
+        <v>0.6877828054298643</v>
       </c>
       <c r="AL59" t="n">
-        <v>0.6877828054298643</v>
+        <v>0.002949856583990044</v>
       </c>
       <c r="AM59" t="n">
-        <v>0.002988103007681784</v>
+        <v>-0.5938837925422432</v>
       </c>
       <c r="AN59" t="n">
-        <v>-0.5827749016889813</v>
+        <v>-0.9090909090909095</v>
       </c>
       <c r="AO59" t="n">
-        <v>-0.9060580340843855</v>
+        <v>-0.481103978349579</v>
       </c>
       <c r="AP59" t="n">
-        <v>-0.4820207937957761</v>
+        <v>0.1199999999999992</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.1199999999999992</v>
+        <v>-0.7514450867052037</v>
       </c>
       <c r="AR59" t="n">
-        <v>-0.7514450867052037</v>
+        <v>-0.7436582109479306</v>
       </c>
       <c r="AS59" t="n">
-        <v>-0.7436582109479306</v>
+        <v>-0.03125</v>
       </c>
       <c r="AT59" t="n">
-        <v>-0.03125</v>
+        <v>0.3368841547595906</v>
       </c>
       <c r="AU59" t="n">
-        <v>0.3302228841402128</v>
+        <v>0.01320037049325348</v>
       </c>
       <c r="AV59" t="n">
-        <v>0.01298701298701329</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="AW59" t="n">
-        <v>0.4230769230769231</v>
-      </c>
-      <c r="AX59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9639,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>1</v>
@@ -9660,16 +9481,16 @@
         <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
         <v>1</v>
@@ -9681,93 +9502,90 @@
         <v>1</v>
       </c>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X60" t="n">
         <v>1</v>
       </c>
       <c r="Y60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" t="n">
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>0</v>
+        <v>-0.3864436897399763</v>
       </c>
       <c r="AB60" t="n">
-        <v>-0.3890242408399842</v>
+        <v>0</v>
       </c>
       <c r="AC60" t="n">
-        <v>0</v>
+        <v>-0.237037037037037</v>
       </c>
       <c r="AD60" t="n">
-        <v>-0.237037037037037</v>
+        <v>0.6499257961316589</v>
       </c>
       <c r="AE60" t="n">
-        <v>0.6612959884162573</v>
+        <v>-0.2105263157894737</v>
       </c>
       <c r="AF60" t="n">
-        <v>-0.2105263157894737</v>
+        <v>-0.5262683736367947</v>
       </c>
       <c r="AG60" t="n">
-        <v>-0.5097438367539003</v>
+        <v>-1.146626070579981</v>
       </c>
       <c r="AH60" t="n">
-        <v>-1.148509647702262</v>
+        <v>-0.3627266604392704</v>
       </c>
       <c r="AI60" t="n">
-        <v>-0.3634115019672304</v>
+        <v>0.2158173653034137</v>
       </c>
       <c r="AJ60" t="n">
-        <v>0.2186590347201765</v>
+        <v>-1.327357787614244</v>
       </c>
       <c r="AK60" t="n">
-        <v>-1.327205336072977</v>
+        <v>-0.7638009049773756</v>
       </c>
       <c r="AL60" t="n">
-        <v>-0.7638009049773756</v>
+        <v>1.795568312569312</v>
       </c>
       <c r="AM60" t="n">
-        <v>1.795614458300003</v>
+        <v>0.4334917841644389</v>
       </c>
       <c r="AN60" t="n">
-        <v>0.4461479749505983</v>
+        <v>0.1136363636363632</v>
       </c>
       <c r="AO60" t="n">
-        <v>0.1166692386428873</v>
+        <v>0.308369705860948</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.3074528904147508</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.1600000000000001</v>
+        <v>0.01926782273602974</v>
       </c>
       <c r="AR60" t="n">
-        <v>0.01926782273602974</v>
+        <v>-0.5327102803738317</v>
       </c>
       <c r="AS60" t="n">
-        <v>-0.5327102803738317</v>
+        <v>1.8828125</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.8828125</v>
+        <v>-0.9079754601226994</v>
       </c>
       <c r="AU60" t="n">
-        <v>-0.9079754601226994</v>
+        <v>-0.6751113178184356</v>
       </c>
       <c r="AV60" t="n">
-        <v>-0.6753246753246758</v>
+        <v>-0.8461538461538461</v>
       </c>
       <c r="AW60" t="n">
-        <v>-0.8461538461538461</v>
-      </c>
-      <c r="AX60" t="n">
         <v>0</v>
       </c>
     </row>

--- a/temp/normalized-positive-comparison.xlsx
+++ b/temp/normalized-positive-comparison.xlsx
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4166666666666667</v>
+        <v>-0.3573942848683141</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -762,70 +762,70 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.545774758959878</v>
+        <v>0.6293295818202352</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.6849834202213746</v>
+        <v>0.1300601872228954</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.08888888888888889</v>
+        <v>-0.3633087440129351</v>
       </c>
       <c r="AD2" t="n">
-        <v>-2.475074203868341</v>
+        <v>-0.9869110165137206</v>
       </c>
       <c r="AE2" t="n">
-        <v>-2.315789473684211</v>
+        <v>-0.9838778563023519</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.7302513039355144</v>
+        <v>0.7573852625571265</v>
       </c>
       <c r="AG2" t="n">
-        <v>3.411519974713456</v>
+        <v>0.9672358246664009</v>
       </c>
       <c r="AH2" t="n">
-        <v>5.879990074489226</v>
+        <v>0.9984614348883354</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.8803364808504325</v>
+        <v>-0.7242750304461407</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.650063101623905</v>
+        <v>-0.9226220996102201</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.5954751131221721</v>
+        <v>0.3616388153587635</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.707432719348973</v>
+        <v>0.4810661090147146</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.6751300616118425</v>
+        <v>-0.5846244055186051</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.454545454545454</v>
+        <v>0.5919936828873144</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.09811096438074997</v>
+        <v>0.1960101853705707</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.4000000000000004</v>
+        <v>-0.3961342899208463</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.753371868978805</v>
+        <v>0.966601320946273</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.3671562082777036</v>
+        <v>-0.5879214333715589</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.6796875</v>
+        <v>-0.8023089065723432</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.398773006134969</v>
+        <v>-0.8676248433684788</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.428358071065189</v>
+        <v>-0.8645344083601844</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.8846153846153846</v>
+        <v>-0.7131484839336756</v>
       </c>
       <c r="AW2" t="n">
         <v>0</v>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5833333333333334</v>
+        <v>-0.5323337997277721</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -895,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>-2</v>
+        <v>-0.9548792538221945</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W3" t="n">
         <v>1</v>
@@ -913,70 +913,70 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.3864436897399763</v>
+        <v>-0.3354942779691847</v>
       </c>
       <c r="AB3" t="n">
-        <v>-1.712458550553436</v>
+        <v>-0.8607098182044952</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.222222222222222</v>
+        <v>0.9281239425335548</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.4750742038683411</v>
+        <v>-0.4741062854822649</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.5614035087719298</v>
+        <v>-0.5103725799645799</v>
       </c>
       <c r="AF3" t="n">
-        <v>-1.186296823138928</v>
+        <v>-0.9065574774518728</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.1870536982280989</v>
+        <v>0.0330664682639075</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.02603301390712458</v>
+        <v>-0.3482780721019213</v>
       </c>
       <c r="AI3" t="n">
-        <v>-1.957259557773511</v>
+        <v>-0.9641304110645823</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.654284724463051</v>
+        <v>0.9174932627952684</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0.4434389140271493</v>
+        <v>-0.5823875142829562</v>
       </c>
       <c r="AL3" t="n">
-        <v>-1.529855416244247</v>
+        <v>-0.8149983047348464</v>
       </c>
       <c r="AM3" t="n">
-        <v>-1.895464075856272</v>
+        <v>-0.9583985971334369</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.5681818181818182</v>
+        <v>0.6936599324219705</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.05836970586094703</v>
+        <v>0.1438482449108341</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.7200000000000006</v>
+        <v>0.7405601156791809</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-1.348747591522159</v>
+        <v>-0.8931423577855884</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.6381842456608812</v>
+        <v>-0.7656588314317971</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.703125</v>
+        <v>-0.813058817367162</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.06134969325153376</v>
+        <v>0.2085759601895979</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0.2595269022340194</v>
+        <v>-0.2017460241143525</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.3285958462299234</v>
       </c>
       <c r="AW3" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3751105745702884</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -1046,10 +1046,10 @@
         <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W4" t="n">
         <v>1</v>
@@ -1064,70 +1064,70 @@
         <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.3864436897399763</v>
+        <v>-0.3354942779691847</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0.3424917101106873</v>
+        <v>-0.4468185158542887</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.3703703703703703</v>
+        <v>-0.5562403221818188</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.3500742038683411</v>
+        <v>-0.3718846727424996</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.631578947368421</v>
+        <v>-0.5628236483042348</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.4646277856804173</v>
+        <v>-0.5133560655010249</v>
       </c>
       <c r="AG4" t="n">
-        <v>4.086800870312485</v>
+        <v>0.9857754581325885</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.4269414280768447</v>
+        <v>-0.5590749444679221</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.4380287885427404</v>
+        <v>-0.4390101321940445</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1.886168782434066</v>
+        <v>0.9463961688771286</v>
       </c>
       <c r="AK4" t="n">
-        <v>-1.067873303167421</v>
+        <v>-0.8601869579179072</v>
       </c>
       <c r="AL4" t="n">
-        <v>-0.4112113484476372</v>
+        <v>-0.2992389248794839</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.2173530234325897</v>
+        <v>0.2443644654535561</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.5681818181818182</v>
+        <v>-0.710147864279886</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.8758408204548424</v>
+        <v>-0.8069156464651408</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.7599999999999998</v>
+        <v>-0.696083086085599</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-1.136801541425821</v>
+        <v>-0.8336009590869643</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.4632843791722296</v>
+        <v>-0.6603285635941776</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.7421875</v>
+        <v>0.6476927514699318</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.02453987730061385</v>
+        <v>0.1712777583296207</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.1430705003633835</v>
+        <v>0.174754050646332</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.4023192294555042</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -1146,7 +1146,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.25</v>
+        <v>-0.8998440634279272</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -1197,10 +1197,10 @@
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1215,70 +1215,70 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>4.637324276879633</v>
+        <v>0.9861601831518675</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.027475130332062</v>
+        <v>0.3226845497853514</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.08888888888888889</v>
+        <v>-0.2211782885014039</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.1586833191036607</v>
+        <v>-0.1969977869895784</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.4409408449007051</v>
+        <v>-0.4108896694513838</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.9953058321479372</v>
+        <v>0.8705893650658046</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.3194069734711719</v>
+        <v>-0.2759811196738067</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.02950408242807462</v>
+        <v>-0.3503153442191086</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.01495186546581643</v>
+        <v>-0.04477173894961237</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.9447490919620695</v>
+        <v>-0.7295410053365358</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0.3891402714932127</v>
+        <v>-0.5451538773963476</v>
       </c>
       <c r="AL5" t="n">
-        <v>1.785398821043889</v>
+        <v>0.8685465176371896</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.07164149934370319</v>
+        <v>0.0990648929422261</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.9431818181818183</v>
+        <v>0.8916638735937321</v>
       </c>
       <c r="AO5" t="n">
-        <v>-1.033735557296948</v>
+        <v>-0.8696363624283878</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0.3200000000000003</v>
+        <v>-0.3105399665422227</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.03853564547206496</v>
+        <v>0.03045330743320394</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.3805073431241656</v>
+        <v>-0.5986235109216069</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.7265625</v>
+        <v>-0.8232814928204404</v>
       </c>
       <c r="AT5" t="n">
-        <v>3.202453987730062</v>
+        <v>0.9982282527261732</v>
       </c>
       <c r="AU5" t="n">
-        <v>2.922291279584165</v>
+        <v>0.9927409984102368</v>
       </c>
       <c r="AV5" t="n">
-        <v>2.5</v>
+        <v>0.993376270305219</v>
       </c>
       <c r="AW5" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.75</v>
+        <v>0.8218886837721318</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -1348,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1366,70 +1366,70 @@
         <v>1</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.545774758959878</v>
+        <v>0.6293295818202352</v>
       </c>
       <c r="AB6" t="n">
-        <v>-2.054950260664123</v>
+        <v>-0.9051331959121582</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.02962962962962963</v>
+        <v>-0.2699661289567384</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.4750742038683411</v>
+        <v>-0.4741062854822649</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.2807017543859649</v>
+        <v>-0.2620810221489759</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.5282598387861545</v>
+        <v>0.6210981148009629</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.5753402131975394</v>
+        <v>0.2688796692647352</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.572726305956743</v>
+        <v>0.03676593364724259</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.254278903764954</v>
+        <v>0.8436794992536027</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.03653653157559618</v>
+        <v>-0.05384537091499027</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.257918552036199</v>
+        <v>0.7798512489192276</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.9535842298035694</v>
+        <v>-0.6122973919084613</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.9216253898622099</v>
+        <v>0.750677498877632</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.6818181818181815</v>
+        <v>0.7735958895659386</v>
       </c>
       <c r="AO6" t="n">
-        <v>1.07152760059779</v>
+        <v>0.9077451302596646</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.4800000000000004</v>
+        <v>0.5770184372987994</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.119460500963392</v>
+        <v>0.9851542314542983</v>
       </c>
       <c r="AR6" t="n">
-        <v>-0.267022696929239</v>
+        <v>-0.5009820863247435</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.5</v>
+        <v>-0.7003234571382254</v>
       </c>
       <c r="AT6" t="n">
-        <v>-0.7484662576687116</v>
+        <v>-0.5646974366881961</v>
       </c>
       <c r="AU6" t="n">
-        <v>-0.5582282009353182</v>
+        <v>-0.4520845249019916</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.5769230769230769</v>
+        <v>-0.50270780454951</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.2581684061764928</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -1499,10 +1499,10 @@
         <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1517,70 +1517,70 @@
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7728873794799251</v>
+        <v>0.2954988086669205</v>
       </c>
       <c r="AB7" t="n">
-        <v>3.082425390996185</v>
+        <v>0.9150436589795111</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.6074074074074074</v>
+        <v>0.2255688283832331</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.3999257961316589</v>
+        <v>0.3433319087081056</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2427734155542451</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.008582266477003</v>
+        <v>0.8747155649792573</v>
       </c>
       <c r="AG7" t="n">
-        <v>-1.484266518379495</v>
+        <v>-0.766199422518567</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.6161146624686175</v>
+        <v>0.06569250073480415</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.542740442226493</v>
+        <v>0.9094609574019854</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1277146761538727</v>
+        <v>0.1037639937822209</v>
       </c>
       <c r="AK7" t="n">
-        <v>-0.07058823529411774</v>
+        <v>-0.283138968513641</v>
       </c>
       <c r="AL7" t="n">
-        <v>2.17183949900999</v>
+        <v>0.9238828869985942</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.9216253898622099</v>
+        <v>0.750677498877632</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.227272727272727</v>
+        <v>0.3205305721524314</v>
       </c>
       <c r="AO7" t="n">
-        <v>-1.138998715191685</v>
+        <v>-0.9003175034715845</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0.6400000000000006</v>
+        <v>-0.6124250066184218</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-1.136801541425821</v>
+        <v>-0.8336009590869643</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.8504672897196264</v>
+        <v>0.6814095101446784</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.9609375</v>
+        <v>0.7856587108841694</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.07361963190184068</v>
+        <v>0.2208807565842044</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.3119016691945518</v>
+        <v>0.3242508407267169</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.3285958462299234</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5</v>
+        <v>-0.4491586645508897</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -1650,10 +1650,10 @@
         <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1668,70 +1668,70 @@
         <v>1</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.3864436897399763</v>
+        <v>-0.3354942779691847</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.3424917101106873</v>
+        <v>-0.4468185158542887</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.237037037037037</v>
+        <v>-0.4703534465647949</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.2250742038683411</v>
+        <v>-0.2597711037702586</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.5614035087719298</v>
+        <v>-0.5103725799645799</v>
       </c>
       <c r="AF8" t="n">
-        <v>-1.185348506401138</v>
+        <v>-0.9063370370373668</v>
       </c>
       <c r="AG8" t="n">
-        <v>-2.395895727438182</v>
+        <v>-0.9186936118325564</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.2516524677688717</v>
+        <v>-0.4732945106303556</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.7264903270042791</v>
+        <v>-0.6420163128346589</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.1470383476514572</v>
+        <v>0.1221187922106653</v>
       </c>
       <c r="AK8" t="n">
-        <v>-0.9592760180995475</v>
+        <v>-0.8289737296313233</v>
       </c>
       <c r="AL8" t="n">
-        <v>-1.001041856922214</v>
+        <v>-0.6339124512641899</v>
       </c>
       <c r="AM8" t="n">
-        <v>-1.057622812345172</v>
+        <v>-0.7869088764971277</v>
       </c>
       <c r="AN8" t="n">
-        <v>-1.25</v>
+        <v>-0.9589717239003741</v>
       </c>
       <c r="AO8" t="n">
-        <v>-1.928472399402211</v>
+        <v>-0.987666485346347</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0.8399999999999999</v>
+        <v>-0.7431926328221717</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.2119460500963381</v>
+        <v>0.3013960830059272</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0.5500667556742322</v>
+        <v>-0.7166616482802021</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.234375</v>
+        <v>-0.475693806313096</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.3067484662576688</v>
+        <v>0.4379387963135118</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.1690445263374095</v>
+        <v>0.1984846771580971</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.4373851622235651</v>
       </c>
       <c r="AW8" t="n">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.854436136604922</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -1801,10 +1801,10 @@
         <v>1</v>
       </c>
       <c r="U9" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1819,70 +1819,70 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>-2.31866213843983</v>
+        <v>-0.8933587369273768</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.76740881121756</v>
+        <v>0.9614966227690732</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.3851851851851852</v>
+        <v>0.0347544480724623</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.2749257961316589</v>
+        <v>0.2289861533382425</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.02654400647126983</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.4742057847321005</v>
+        <v>0.5759227004631202</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.6064013541007585</v>
+        <v>-0.4322194823362287</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.720246718097116</v>
+        <v>0.1345772133879393</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.004278903764953</v>
+        <v>0.7539123890862691</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.9199852075548388</v>
+        <v>0.6995566248234005</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.5972850678733032</v>
+        <v>0.3632199877437813</v>
       </c>
       <c r="AL9" t="n">
-        <v>-0.6044316874306882</v>
+        <v>-0.424013031420434</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.5573465796399923</v>
+        <v>0.5366626031089966</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.6818181818181815</v>
+        <v>0.7735958895659386</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.4399486532293691</v>
+        <v>0.5788404065698263</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.5600000000000005</v>
+        <v>0.6386519366521469</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.2119460500963381</v>
+        <v>0.3013960830059272</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.04939919893190935</v>
+        <v>-0.1578649906997888</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.171875</v>
+        <v>0.9902232292201114</v>
       </c>
       <c r="AT9" t="n">
-        <v>-0.0368098159509199</v>
+        <v>0.1080602789805509</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.09112244841533151</v>
+        <v>0.126705100310255</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.07692307692307693</v>
+        <v>0.0006146846954934584</v>
       </c>
       <c r="AW9" t="n">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8814230771304676</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -1952,10 +1952,10 @@
         <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1970,70 +1970,70 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>-0.130397538075627</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.3424917101106873</v>
+        <v>-0.07290904473171461</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.57037037037037</v>
+        <v>0.7907465785162263</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.7749257961316589</v>
+        <v>0.624349306375235</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.5614035087719298</v>
+        <v>-0.5103725799645799</v>
       </c>
       <c r="AF10" t="n">
-        <v>-0.6840908354596805</v>
+        <v>-0.6927949632569292</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0361694535003278</v>
+        <v>-0.0611083285611345</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.03557886358842378</v>
+        <v>-0.3538728394767338</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.2984624559046782</v>
+        <v>-0.3188860955276615</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.01331003507536997</v>
+        <v>-0.005936941140855542</v>
       </c>
       <c r="AK10" t="n">
-        <v>-0.2773084198451765</v>
+        <v>-0.4613226880467995</v>
       </c>
       <c r="AL10" t="n">
-        <v>-0.0003587996285899654</v>
+        <v>-0.002721675218125516</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.5156379920012527</v>
+        <v>-0.4662376561403553</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.454545454545455</v>
+        <v>-0.6127022377815027</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.8100513467706318</v>
+        <v>-0.773580315712981</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.359999999999999</v>
+        <v>0.9396461448414651</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.4238921001926762</v>
+        <v>0.4993788228375748</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0.2923898531375166</v>
+        <v>-0.5241147382408317</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0078125</v>
+        <v>-0.1952619061878694</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.509202453987731</v>
+        <v>0.9395099378218561</v>
       </c>
       <c r="AU10" t="n">
-        <v>1.467745825038709</v>
+        <v>0.8917830382362317</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.384615384615385</v>
+        <v>0.9244278674405877</v>
       </c>
       <c r="AW10" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.1730960220394006</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -2103,10 +2103,10 @@
         <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W11" t="n">
         <v>1</v>
@@ -2121,70 +2121,70 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.3864436897399763</v>
+        <v>-0.3354942779691847</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.712458550553436</v>
+        <v>0.6305449432529118</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.16312943278745</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.02492579613165891</v>
+        <v>-0.01637037541152294</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.07017543859649122</v>
+        <v>-0.04713775930284919</v>
       </c>
       <c r="AF11" t="n">
-        <v>-0.6931721194879089</v>
+        <v>-0.6988997410232859</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.05748025335203914</v>
+        <v>-0.04783436747282153</v>
       </c>
       <c r="AH11" t="n">
-        <v>-0.5293379494448683</v>
+        <v>-0.6043282173342598</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.2564853474829284</v>
+        <v>-0.2804030097165477</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.01744636940128114</v>
+        <v>-0.001957183290016362</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.06334841628959276</v>
+        <v>-0.1551282976565519</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>-0.002454479019943034</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.4702052456932863</v>
+        <v>-0.4288414032140847</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0.7954545454545457</v>
+        <v>-0.8443033447938331</v>
       </c>
       <c r="AO11" t="n">
-        <v>-1.020577662560105</v>
+        <v>-0.8652330934382668</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.5999999999999996</v>
+        <v>0.6667394508853638</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.2119460500963381</v>
+        <v>0.3013960830059272</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0.4072096128170895</v>
+        <v>-0.619399629698935</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.1015625</v>
+        <v>-0.07394972979506029</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5276073619631908</v>
+        <v>0.6055556788524115</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.3378756951685783</v>
+        <v>0.3460755397676133</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.770895251507082</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.854436136604922</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -2254,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V12" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W12" t="n">
         <v>1</v>
@@ -2272,70 +2272,70 @@
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.159331069219901</v>
+        <v>0.4795832592247129</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>-0.2700134826579289</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.162962962962963</v>
+        <v>-0.4182823563927137</v>
       </c>
       <c r="AD12" t="n">
-        <v>-1.287574203868341</v>
+        <v>-0.8683175373055801</v>
       </c>
       <c r="AE12" t="n">
-        <v>-1.087719298245614</v>
+        <v>-0.8062275757572159</v>
       </c>
       <c r="AF12" t="n">
-        <v>-0.7728307254623045</v>
+        <v>-0.74825061007656</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.370053040641099</v>
+        <v>-0.3049490945001164</v>
       </c>
       <c r="AH12" t="n">
-        <v>-0.08677671302374891</v>
+        <v>-0.3834425742663561</v>
       </c>
       <c r="AI12" t="n">
-        <v>-1.322644173158125</v>
+        <v>-0.8768917450592074</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.01721286007801136</v>
+        <v>-0.03529032983166955</v>
       </c>
       <c r="AK12" t="n">
-        <v>-0.9411764705882353</v>
+        <v>-0.8231932753145567</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.707432719348973</v>
+        <v>0.4810661090147146</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.8147702721970266</v>
+        <v>-0.6713674577964814</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0.5681818181818182</v>
+        <v>-0.710147864279886</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.1771296794635791</v>
+        <v>-0.1718024440680856</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0.08284680390290866</v>
+        <v>-0.03088002015908544</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0.1580751234989615</v>
+        <v>-0.1030789946555875</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.4979973297730308</v>
+        <v>0.3762880353408831</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.765625</v>
+        <v>0.6652888758535661</v>
       </c>
       <c r="AT12" t="n">
-        <v>-0.3435582822085887</v>
+        <v>-0.2108020691853669</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.2209925782854616</v>
+        <v>0.2452299184308503</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.3461538461538461</v>
+        <v>-0.2889718944635423</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.25</v>
+        <v>0.465341549799722</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -2405,10 +2405,10 @@
         <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W13" t="n">
         <v>1</v>
@@ -2423,70 +2423,70 @@
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.864436897399708</v>
+        <v>0.9672329317318266</v>
       </c>
       <c r="AB13" t="n">
-        <v>3.082425390996185</v>
+        <v>0.9150436589795111</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.155555555555555</v>
+        <v>0.6106094518925372</v>
       </c>
       <c r="AD13" t="n">
-        <v>-1.100074203868341</v>
+        <v>-0.8141046627267827</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.8421052631578947</v>
+        <v>-0.6952905194039424</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.1080574762252265</v>
+        <v>0.1772341168441925</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.203996791640624</v>
+        <v>0.0436357915671049</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.520224577224267</v>
+        <v>0.5850961123784296</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>-0.02973060837703232</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.03563782074980005</v>
+        <v>0.01554469133582014</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.3861162464415712</v>
+        <v>0.1666484164882018</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.003438707192796593</v>
+        <v>0.0001063203971278812</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.390909192364387</v>
+        <v>-0.3599562230975992</v>
       </c>
       <c r="AN13" t="n">
-        <v>-1.363636363636364</v>
+        <v>-0.9708683713441977</v>
       </c>
       <c r="AO13" t="n">
-        <v>1.229422337439896</v>
+        <v>0.9388217636786093</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0.08000000000000007</v>
+        <v>-0.02739876377717163</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.5973025048169549</v>
+        <v>0.6307941826109343</v>
       </c>
       <c r="AR13" t="n">
-        <v>-0.3965287049399199</v>
+        <v>-0.6111894752481376</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0.4375</v>
+        <v>-0.6558277971473111</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.02453987730061385</v>
+        <v>0.1712777583296207</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.1296567723638899</v>
+        <v>-0.08142990228520118</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.03846153846153846</v>
+        <v>0.1276539172847967</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
@@ -2505,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3751105745702884</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -2556,10 +2556,10 @@
         <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -2574,70 +2574,70 @@
         <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>-2.31866213843983</v>
+        <v>-0.8933587369273768</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.027475130332062</v>
+        <v>0.3226845497853514</v>
       </c>
       <c r="AC14" t="n">
-        <v>-0.5481481481481482</v>
+        <v>-0.6545226495124553</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.1000742038683411</v>
+        <v>-0.1401880439779588</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.4912280701754386</v>
+        <v>-0.453827829304181</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.1484589853010906</v>
+        <v>0.2277190352221108</v>
       </c>
       <c r="AG14" t="n">
-        <v>-2.210193481148449</v>
+        <v>-0.8985370134477118</v>
       </c>
       <c r="AH14" t="n">
-        <v>-0.229090522382697</v>
+        <v>-0.4615073892847207</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.1687980193119712</v>
+        <v>-0.1971680439485279</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.7847195070717469</v>
+        <v>0.6268948704326784</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.02895927601809944</v>
+        <v>-0.1886878125903247</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.005275563798532295</v>
+        <v>0.001474225963060296</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.369653048572546</v>
+        <v>0.3852528493167467</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.3068181818181819</v>
+        <v>0.4253537720495451</v>
       </c>
       <c r="AO14" t="n">
-        <v>-0.2600513467706305</v>
+        <v>-0.2781047506094889</v>
       </c>
       <c r="AP14" t="n">
-        <v>-0.7200000000000006</v>
+        <v>-0.6699789957475755</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-1.955684007707131</v>
+        <v>-0.9714336430274845</v>
       </c>
       <c r="AR14" t="n">
-        <v>-0.06942590120160208</v>
+        <v>-0.2969627917304225</v>
       </c>
       <c r="AS14" t="n">
-        <v>-0.046875</v>
+        <v>-0.2635969709635498</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0.3190184049079748</v>
+        <v>-0.1860197000828868</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0.2595269022340194</v>
+        <v>-0.2017460241143525</v>
       </c>
       <c r="AV14" t="n">
-        <v>-0.3076923076923077</v>
+        <v>-0.2494856909398409</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.75</v>
+        <v>0.8218886837721318</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -2707,10 +2707,10 @@
         <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2725,70 +2725,70 @@
         <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>-0.130397538075627</v>
       </c>
       <c r="AB15" t="n">
-        <v>-1.712458550553436</v>
+        <v>-0.8607098182044952</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.3111111111111111</v>
+        <v>-0.0301381980051105</v>
       </c>
       <c r="AD15" t="n">
-        <v>-1.850074203868341</v>
+        <v>-0.9551592705794482</v>
       </c>
       <c r="AE15" t="n">
-        <v>-1.614035087719298</v>
+        <v>-0.9314296655578593</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.1418207681365574</v>
+        <v>0.2194998630308596</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.08576156388824469</v>
+        <v>-0.03019331744964324</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.7775193486927904</v>
+        <v>0.1719591838451519</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.6388942883803377</v>
+        <v>0.5468487304181968</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-0.1524785605611034</v>
+        <v>-0.163959174240714</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.07058823529411774</v>
+        <v>-0.1480145048831894</v>
       </c>
       <c r="AL15" t="n">
-        <v>-1.326465585735773</v>
+        <v>-0.7574787329028357</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.09835527875999814</v>
+        <v>-0.07548814716372153</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.5227272727272727</v>
+        <v>0.6557253330689136</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.4136328637556845</v>
+        <v>0.5546967996480975</v>
       </c>
       <c r="AP15" t="n">
-        <v>-1.28</v>
+        <v>-0.9044395450779441</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.5009633911368007</v>
+        <v>0.5613582393995709</v>
       </c>
       <c r="AR15" t="n">
-        <v>1.468624833110814</v>
+        <v>0.9211269147319671</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0.0859375</v>
+        <v>-0.3108795461429708</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0.760736196319018</v>
+        <v>-0.5734196709222711</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0.7919944347015523</v>
+        <v>-0.6098055196741173</v>
       </c>
       <c r="AV15" t="n">
-        <v>-0.6153846153846154</v>
+        <v>-0.5338418226687827</v>
       </c>
       <c r="AW15" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.75</v>
+        <v>-0.6711852882635027</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -2858,10 +2858,10 @@
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -2876,70 +2876,70 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.3864436897399763</v>
+        <v>0.08650142022793875</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.3424917101106873</v>
+        <v>-0.4468185158542887</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.2814814814814815</v>
+        <v>-0.5001255519480448</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.4750742038683411</v>
+        <v>-0.4741062854822649</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.8421052631578947</v>
+        <v>-0.6952905194039424</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.1641536273115221</v>
+        <v>0.2470211031301368</v>
       </c>
       <c r="AG16" t="n">
-        <v>-1.028451913850151</v>
+        <v>-0.6207926825415122</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.883386938581764</v>
+        <v>0.2397005587437679</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.3361057116196632</v>
+        <v>-0.3525283245678432</v>
       </c>
       <c r="AJ16" t="n">
-        <v>2.014671197893003</v>
+        <v>0.9578923600130874</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.9078733031674208</v>
+        <v>0.599873497820042</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.06680456878662039</v>
+        <v>-0.05215645782816093</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0.3023514124844399</v>
+        <v>-0.2781349646352528</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0.363636363636364</v>
+        <v>-0.5181735936253662</v>
       </c>
       <c r="AO16" t="n">
-        <v>-1.520577662560107</v>
+        <v>-0.9632967261471583</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.720000000000001</v>
+        <v>0.9745466772067963</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.8978805394990363</v>
+        <v>0.7929928821912366</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.763684913217624</v>
+        <v>0.9611971780818627</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.5703125</v>
+        <v>0.4963863548834229</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.1472392638036814</v>
+        <v>0.2931240058041512</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.2209925782854616</v>
+        <v>0.2452299184308503</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5347202608114747</v>
       </c>
       <c r="AW16" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-1</v>
+        <v>-0.815136188169989</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -3009,10 +3009,10 @@
         <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>-2</v>
+        <v>-0.9548792538221945</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W17" t="n">
         <v>1</v>
@@ -3027,70 +3027,70 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.3864436897399763</v>
+        <v>-0.3354942779691847</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.3424917101106873</v>
+        <v>-0.4468185158542887</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.259259259259259</v>
+        <v>0.6644696167553577</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.399925796131659</v>
+        <v>0.875422162825778</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.9122807017543859</v>
+        <v>0.755200206522494</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.08065433854907535</v>
+        <v>0.1424350077566287</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.7752215780005156</v>
+        <v>-0.513956076651012</v>
       </c>
       <c r="AH17" t="n">
-        <v>-0.008677671302374861</v>
+        <v>-0.3380425620317823</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.023509672995723</v>
+        <v>0.7621526316142858</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-1.099338463942746</v>
+        <v>-0.7918921559952149</v>
       </c>
       <c r="AK17" t="n">
-        <v>-0.16289592760181</v>
+        <v>-0.3661115743445154</v>
       </c>
       <c r="AL17" t="n">
-        <v>1.45319543121338</v>
+        <v>0.7931025759561031</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.2416382774474045</v>
+        <v>0.2677270815768023</v>
       </c>
       <c r="AN17" t="n">
-        <v>-0.2272727272727275</v>
+        <v>-0.3493864970158825</v>
       </c>
       <c r="AO17" t="n">
-        <v>-0.481103978349579</v>
+        <v>-0.5259083113612723</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.5199999999999996</v>
+        <v>0.6087528619467971</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0.9441233140655121</v>
+        <v>-0.7547855243525589</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.1375166889185583</v>
+        <v>-0.05015118596314425</v>
       </c>
       <c r="AS17" t="n">
-        <v>-0.375</v>
+        <v>-0.6062553772108529</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.6802229953688855</v>
+        <v>0.6974527461632949</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.5196938769867598</v>
+        <v>0.487744388872788</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.6196715884331994</v>
       </c>
       <c r="AW17" t="n">
         <v>0</v>
@@ -3109,7 +3109,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8814230771304676</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -3160,10 +3160,10 @@
         <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V18" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -3178,70 +3178,70 @@
         <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>-1.932218448699854</v>
+        <v>-0.8397886867234408</v>
       </c>
       <c r="AB18" t="n">
-        <v>-0.6849834202213746</v>
+        <v>-0.5944744579723749</v>
       </c>
       <c r="AC18" t="n">
-        <v>-0.2814814814814815</v>
+        <v>-0.5001255519480448</v>
       </c>
       <c r="AD18" t="n">
-        <v>-1.537574203868341</v>
+        <v>-0.91792631057081</v>
       </c>
       <c r="AE18" t="n">
-        <v>-1.754385964912281</v>
+        <v>-0.9484906818659582</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.8388335704125176</v>
+        <v>0.8115569542110371</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.8427496675604184</v>
+        <v>-0.544323156582783</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.18511183836641</v>
+        <v>0.9997311063453851</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0.9187980193119716</v>
+        <v>-0.7421841756458168</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2.572159120598317</v>
+        <v>0.9853946112527414</v>
       </c>
       <c r="AK18" t="n">
-        <v>-0.16289592760181</v>
+        <v>-0.3661115743445154</v>
       </c>
       <c r="AL18" t="n">
-        <v>7.758280176976093</v>
+        <v>0.9999807332918799</v>
       </c>
       <c r="AM18" t="n">
-        <v>-1.361188487530353</v>
+        <v>-0.8800078002999434</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.5113636363636366</v>
+        <v>0.645679132182458</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.07152760059779027</v>
+        <v>0.1612222892586219</v>
       </c>
       <c r="AP18" t="n">
-        <v>-1.8</v>
+        <v>-0.9722869459816763</v>
       </c>
       <c r="AQ18" t="n">
-        <v>-1.233140655105975</v>
+        <v>-0.8637034784397454</v>
       </c>
       <c r="AR18" t="n">
-        <v>-0.2990654205607477</v>
+        <v>-0.5300782114774417</v>
       </c>
       <c r="AS18" t="n">
-        <v>-0.8515625</v>
+        <v>-0.8697064550424086</v>
       </c>
       <c r="AT18" t="n">
-        <v>-1.214723926380368</v>
+        <v>-0.8109832319862464</v>
       </c>
       <c r="AU18" t="n">
-        <v>-0.986799629506747</v>
+        <v>-0.7128840186477726</v>
       </c>
       <c r="AV18" t="n">
-        <v>-0.8846153846153846</v>
+        <v>-0.7131484839336756</v>
       </c>
       <c r="AW18" t="n">
         <v>0</v>
@@ -3260,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.9036666573739073</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -3311,10 +3311,10 @@
         <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -3329,70 +3329,70 @@
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.3040938874547959</v>
+        <v>0.04027063784002786</v>
       </c>
       <c r="AB19" t="n">
-        <v>6.507342492103058</v>
+        <v>0.9984961963197276</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.051851851851852</v>
+        <v>0.5504386801007927</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.3222936886513832</v>
+        <v>0.2732666661464203</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.1639792252755753</v>
+        <v>0.1962400457856118</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.2916548127074443</v>
+        <v>0.3955941692904658</v>
       </c>
       <c r="AG19" t="n">
-        <v>3.27646379559365</v>
+        <v>0.9613294542943689</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.5640486346543679</v>
+        <v>0.03097165780491156</v>
       </c>
       <c r="AI19" t="n">
-        <v>2.408125057611109</v>
+        <v>0.9835505192712857</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2.427231584366433</v>
+        <v>0.9807418958757513</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.7167420814479637</v>
+        <v>0.4626898619002244</v>
       </c>
       <c r="AL19" t="n">
-        <v>-0.2078215179391626</v>
+        <v>-0.1559364218162308</v>
       </c>
       <c r="AM19" t="n">
-        <v>1.492328859210351</v>
+        <v>0.9157571683150434</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.5681818181818182</v>
+        <v>0.6936599324219705</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.5320539163872643</v>
+        <v>0.6557017535682345</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.6799999999999997</v>
+        <v>0.7176402725649244</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.327552986512522</v>
+        <v>0.41410715058827</v>
       </c>
       <c r="AR19" t="n">
-        <v>-0.3805073431241656</v>
+        <v>-0.5986235109216069</v>
       </c>
       <c r="AS19" t="n">
-        <v>-0.734375</v>
+        <v>-0.8265752956898337</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.233128834355829</v>
+        <v>0.3733232286541016</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.1560575133503962</v>
+        <v>0.1866465893794606</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.2506381866391193</v>
       </c>
       <c r="AW19" t="n">
         <v>0</v>
@@ -3411,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.25</v>
+        <v>-0.1531794064600764</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -3462,10 +3462,10 @@
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W20" t="n">
         <v>1</v>
@@ -3480,70 +3480,70 @@
         <v>1</v>
       </c>
       <c r="AA20" t="n">
-        <v>-1.545774758959878</v>
+        <v>-0.7626813302436208</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.3424917101106873</v>
+        <v>-0.07290904473171461</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.5481481481481482</v>
+        <v>0.1757396749022166</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.4750742038683411</v>
+        <v>-0.4741062854822649</v>
       </c>
       <c r="AE20" t="n">
-        <v>-0.7368421052631579</v>
+        <v>-0.6336795713076109</v>
       </c>
       <c r="AF20" t="n">
-        <v>-1.19009009009009</v>
+        <v>-0.9074343144901891</v>
       </c>
       <c r="AG20" t="n">
-        <v>-0.488227197370929</v>
+        <v>-0.3703209206995834</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.636941073594317</v>
+        <v>-0.6480151667357172</v>
       </c>
       <c r="AI20" t="n">
-        <v>-1.918798019311972</v>
+        <v>-0.9612962251171763</v>
       </c>
       <c r="AJ20" t="n">
-        <v>-1.195956821430669</v>
+        <v>-0.824095144114552</v>
       </c>
       <c r="AK20" t="n">
-        <v>-0.416289592760181</v>
+        <v>-0.5640573440101612</v>
       </c>
       <c r="AL20" t="n">
-        <v>-1.868838467091705</v>
+        <v>-0.8840867029700713</v>
       </c>
       <c r="AM20" t="n">
-        <v>-1.72546729775257</v>
+        <v>-0.941472352653007</v>
       </c>
       <c r="AN20" t="n">
-        <v>-0.681818181818182</v>
+        <v>-0.7863242752123473</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.04521181112410567</v>
+        <v>0.1263850673427668</v>
       </c>
       <c r="AP20" t="n">
-        <v>-1.640000000000001</v>
+        <v>-0.9592713350901786</v>
       </c>
       <c r="AQ20" t="n">
-        <v>-0.366088631984587</v>
+        <v>-0.3243177915534737</v>
       </c>
       <c r="AR20" t="n">
-        <v>-0.3831775700934579</v>
+        <v>-0.6007387692791309</v>
       </c>
       <c r="AS20" t="n">
-        <v>-0.2265625</v>
+        <v>-0.4676779729258865</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.02453987730061385</v>
+        <v>0.1712777583296207</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.3119016691945518</v>
+        <v>0.3242508407267169</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.3285958462299234</v>
       </c>
       <c r="AW20" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.619139542494697</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -3613,10 +3613,10 @@
         <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -3631,70 +3631,70 @@
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>-0.7728873794799527</v>
+        <v>-0.5130561592160638</v>
       </c>
       <c r="AB21" t="n">
-        <v>-0.3424917101106873</v>
+        <v>-0.4468185158542887</v>
       </c>
       <c r="AC21" t="n">
-        <v>-0.2962962962962963</v>
+        <v>-0.5097979402622674</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.3500742038683411</v>
+        <v>-0.3718846727424996</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.7017543859649122</v>
+        <v>0.6432979853410308</v>
       </c>
       <c r="AF21" t="n">
-        <v>-0.6353247984826933</v>
+        <v>-0.6582684432000797</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>-0.08358551057743972</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.1648757547451231</v>
+        <v>-0.2315834144902963</v>
       </c>
       <c r="AI21" t="n">
-        <v>-0.1396383134576228</v>
+        <v>-0.1687786335782751</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>-0.0187412307200513</v>
       </c>
       <c r="AK21" t="n">
-        <v>-0.4886877828054298</v>
+        <v>-0.6116634946575178</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.001407836908417027</v>
+        <v>-0.001406067245099718</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.0445583511708418</v>
+        <v>0.07138536509227261</v>
       </c>
       <c r="AN21" t="n">
-        <v>-1.477272727272728</v>
+        <v>-0.979351800901197</v>
       </c>
       <c r="AO21" t="n">
-        <v>-1.138998715191685</v>
+        <v>-0.9003175034715845</v>
       </c>
       <c r="AP21" t="n">
-        <v>0</v>
+        <v>0.07039019807734888</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.01926782273602974</v>
+        <v>0.09492797352024622</v>
       </c>
       <c r="AR21" t="n">
-        <v>0.9385847797062753</v>
+        <v>0.7355637336718064</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.7265625</v>
+        <v>0.635562988627234</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.6380368098159513</v>
+        <v>0.6739643399502054</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.8443692016620847</v>
+        <v>0.6860472381352105</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.4711696145519846</v>
       </c>
       <c r="AW21" t="n">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.083333333333333</v>
+        <v>-0.8488151745662359</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -3764,10 +3764,10 @@
         <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -3782,70 +3782,70 @@
         <v>1</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.159331069219901</v>
+        <v>0.4795832592247129</v>
       </c>
       <c r="AB22" t="n">
-        <v>-1.027475130332062</v>
+        <v>-0.7106013351234176</v>
       </c>
       <c r="AC22" t="n">
-        <v>-0.05925925925925926</v>
+        <v>-0.3405603187086702</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.08742579613165891</v>
+        <v>0.04596851538997422</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.9824561403508771</v>
+        <v>0.7851549495718165</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.110052157420578</v>
+        <v>0.9924592115715278</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.09994068240148808</v>
+        <v>-0.145184519094967</v>
       </c>
       <c r="AH22" t="n">
-        <v>1.369336531514758</v>
+        <v>0.5148519110720192</v>
       </c>
       <c r="AI22" t="n">
-        <v>0.6004327499187987</v>
+        <v>0.5191159838697217</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-0.05586020307318065</v>
+        <v>-0.07236330176061265</v>
       </c>
       <c r="AK22" t="n">
-        <v>3.257918552036199</v>
+        <v>0.9955810579957928</v>
       </c>
       <c r="AL22" t="n">
-        <v>-1.258668975566281</v>
+        <v>-0.7351234286395141</v>
       </c>
       <c r="AM22" t="n">
-        <v>-0.2319241758414781</v>
+        <v>-0.2099796240134862</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.227272727272727</v>
+        <v>0.3205305721524314</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.7031065479662114</v>
+        <v>0.7684311423221059</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.3052399873026375</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.560693641618497</v>
+        <v>0.9490308092990789</v>
       </c>
       <c r="AR22" t="n">
-        <v>1.045393858477971</v>
+        <v>0.7905395138234699</v>
       </c>
       <c r="AS22" t="n">
-        <v>-0.296875</v>
+        <v>-0.53696543196126</v>
       </c>
       <c r="AT22" t="n">
-        <v>-0.7116564417177912</v>
+        <v>-0.5377635183697016</v>
       </c>
       <c r="AU22" t="n">
-        <v>-0.5322541749612922</v>
+        <v>-0.432305734823974</v>
       </c>
       <c r="AV22" t="n">
-        <v>-0.8076923076923077</v>
+        <v>-0.6687078204333121</v>
       </c>
       <c r="AW22" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0.9036666573739073</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -3915,10 +3915,10 @@
         <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>-2</v>
+        <v>-0.9548792538221945</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
@@ -3933,70 +3933,70 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.545774758959878</v>
+        <v>0.6293295818202352</v>
       </c>
       <c r="AB23" t="n">
-        <v>-1.712458550553436</v>
+        <v>-0.8607098182044952</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.1333333333333333</v>
+        <v>-0.3966287956728968</v>
       </c>
       <c r="AD23" t="n">
-        <v>-0.4750742038683411</v>
+        <v>-0.4741062854822649</v>
       </c>
       <c r="AE23" t="n">
-        <v>-0.3157894736842105</v>
+        <v>-0.2960668996846445</v>
       </c>
       <c r="AF23" t="n">
-        <v>-1.218539592223803</v>
+        <v>-0.9137652255142864</v>
       </c>
       <c r="AG23" t="n">
-        <v>-1.011569891460175</v>
+        <v>-0.6142679445985721</v>
       </c>
       <c r="AH23" t="n">
-        <v>-0.1770244945684477</v>
+        <v>-0.4336791696392625</v>
       </c>
       <c r="AI23" t="n">
-        <v>-2.111105711619665</v>
+        <v>-0.9735642799177723</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-1.137985806937915</v>
+        <v>-0.8053560330995397</v>
       </c>
       <c r="AK23" t="n">
-        <v>-0.8506787330316742</v>
+        <v>-0.7915729329415562</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.7413310244337187</v>
+        <v>0.5002312580222671</v>
       </c>
       <c r="AM23" t="n">
-        <v>-1.45832950358961</v>
+        <v>-0.9006810021040615</v>
       </c>
       <c r="AN23" t="n">
-        <v>-0.5681818181818182</v>
+        <v>-0.710147864279886</v>
       </c>
       <c r="AO23" t="n">
-        <v>-1.79689345203379</v>
+        <v>-0.9824429209684877</v>
       </c>
       <c r="AP23" t="n">
-        <v>-0.5600000000000005</v>
+        <v>-0.5475532477170391</v>
       </c>
       <c r="AQ23" t="n">
-        <v>-1.522157996146437</v>
+        <v>-0.9262754317989265</v>
       </c>
       <c r="AR23" t="n">
-        <v>1.2456608811749</v>
+        <v>0.8669337604423786</v>
       </c>
       <c r="AS23" t="n">
-        <v>3.21875</v>
+        <v>0.9993802325389995</v>
       </c>
       <c r="AT23" t="n">
-        <v>-1.079754601226994</v>
+        <v>-0.7565070239136565</v>
       </c>
       <c r="AU23" t="n">
-        <v>-0.9348515775586951</v>
+        <v>-0.6878414281298285</v>
       </c>
       <c r="AV23" t="n">
-        <v>-1.269230769230769</v>
+        <v>-0.866624687203756</v>
       </c>
       <c r="AW23" t="n">
         <v>0</v>
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2771635421220417</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -4066,10 +4066,10 @@
         <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W24" t="n">
         <v>1</v>
@@ -4084,70 +4084,70 @@
         <v>1</v>
       </c>
       <c r="AA24" t="n">
-        <v>-2.31866213843983</v>
+        <v>-0.8933587369273768</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.3424917101106873</v>
+        <v>-0.4468185158542887</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.718518518518519</v>
+        <v>0.8346439909231621</v>
       </c>
       <c r="AD24" t="n">
-        <v>-1.225074203868341</v>
+        <v>-0.8521158276102277</v>
       </c>
       <c r="AE24" t="n">
-        <v>-0.8771929824561403</v>
+        <v>-0.7138480709710667</v>
       </c>
       <c r="AF24" t="n">
-        <v>-0.7586059743954481</v>
+        <v>-0.7399770990030753</v>
       </c>
       <c r="AG24" t="n">
-        <v>-1.129744048190005</v>
+        <v>-0.6581680943425176</v>
       </c>
       <c r="AH24" t="n">
-        <v>-0.6161146624686172</v>
+        <v>-0.6398661942369946</v>
       </c>
       <c r="AI24" t="n">
-        <v>0.06197121145726028</v>
+        <v>0.03267799101618573</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-0.8191452272277699</v>
+        <v>-0.6678733351738356</v>
       </c>
       <c r="AK24" t="n">
-        <v>-0.2352941176470588</v>
+        <v>-0.4274205556870471</v>
       </c>
       <c r="AL24" t="n">
-        <v>-0.8518893145493321</v>
+        <v>-0.5627551973019694</v>
       </c>
       <c r="AM24" t="n">
-        <v>-0.3776356999303654</v>
+        <v>-0.3480029046835442</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.7954545454545457</v>
+        <v>0.8347091182734924</v>
       </c>
       <c r="AO24" t="n">
-        <v>-0.08636713624431548</v>
+        <v>-0.05077595755700495</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.1999999999999993</v>
+        <v>0.3052399873026375</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.01926782273602974</v>
+        <v>0.09492797352024622</v>
       </c>
       <c r="AR24" t="n">
-        <v>0.7650200267022699</v>
+        <v>0.6206370786760081</v>
       </c>
       <c r="AS24" t="n">
-        <v>-0.2421875</v>
+        <v>-0.483631402387334</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.7607361963190189</v>
+        <v>0.7384079394566959</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.7274860847789679</v>
+        <v>0.6229445435203814</v>
       </c>
       <c r="AV24" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6452117432464126</v>
       </c>
       <c r="AW24" t="n">
         <v>0</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.1730960220394006</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -4217,10 +4217,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W25" t="n">
         <v>1</v>
@@ -4235,70 +4235,70 @@
         <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.7728873794799251</v>
+        <v>0.2954988086669205</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>-0.2700134826579289</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.2074074074074074</v>
+        <v>-0.4498863515354574</v>
       </c>
       <c r="AD25" t="n">
-        <v>-0.1000742038683411</v>
+        <v>-0.1401880439779588</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.3508771929824561</v>
+        <v>-0.3293193067698243</v>
       </c>
       <c r="AF25" t="n">
-        <v>-0.9624940730203888</v>
+        <v>-0.8385188696039272</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.2039357206180746</v>
+        <v>0.04359771077454839</v>
       </c>
       <c r="AH25" t="n">
-        <v>1.414460422287107</v>
+        <v>0.5366753937818978</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.2350481345341832</v>
+        <v>0.2041364516139013</v>
       </c>
       <c r="AJ25" t="n">
-        <v>3.702593903207013</v>
+        <v>0.9983304379185028</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.7746606334841631</v>
+        <v>0.5072182188259914</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.6057378040947357</v>
+        <v>0.4207790436322661</v>
       </c>
       <c r="AM25" t="n">
-        <v>-0.5488467407348072</v>
+        <v>-0.4925660299160203</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.7954545454545457</v>
+        <v>0.8347091182734924</v>
       </c>
       <c r="AO25" t="n">
-        <v>-0.05377376013051296</v>
+        <v>-0.006755930453346707</v>
       </c>
       <c r="AP25" t="n">
-        <v>-0.7999999999999998</v>
+        <v>-0.7204680058177634</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.7899807321772632</v>
+        <v>0.7436400655431565</v>
       </c>
       <c r="AR25" t="n">
-        <v>0.3230974632843792</v>
+        <v>0.1774744233945214</v>
       </c>
       <c r="AS25" t="n">
-        <v>-0.8046875</v>
+        <v>-0.8538017029892101</v>
       </c>
       <c r="AT25" t="n">
-        <v>-1.852760736196319</v>
+        <v>-0.9468767117823786</v>
       </c>
       <c r="AU25" t="n">
-        <v>-1.090695733402851</v>
+        <v>-0.7579488172778424</v>
       </c>
       <c r="AV25" t="n">
-        <v>-1.692307692307692</v>
+        <v>-0.9455213448507601</v>
       </c>
       <c r="AW25" t="n">
         <v>0</v>
@@ -4317,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.666666666666667</v>
+        <v>-0.9974773041788961</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4368,10 +4368,10 @@
         <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W26" t="n">
         <v>1</v>
@@ -4386,70 +4386,70 @@
         <v>1</v>
       </c>
       <c r="AA26" t="n">
-        <v>0.3864436897399763</v>
+        <v>0.08650142022793875</v>
       </c>
       <c r="AB26" t="n">
-        <v>-1.027475130332062</v>
+        <v>-0.7106013351234176</v>
       </c>
       <c r="AC26" t="n">
-        <v>-0.7111111111111111</v>
+        <v>-0.7287165128183165</v>
       </c>
       <c r="AD26" t="n">
-        <v>0.5249257961316589</v>
+        <v>0.4483317139259444</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>0.02654400647126983</v>
       </c>
       <c r="AF26" t="n">
-        <v>0.3888572783309625</v>
+        <v>0.4968405564924633</v>
       </c>
       <c r="AG26" t="n">
-        <v>-1.602440675109324</v>
+        <v>-0.7950040813480824</v>
       </c>
       <c r="AH26" t="n">
-        <v>-0.08677671302374891</v>
+        <v>-0.3834425742663561</v>
       </c>
       <c r="AI26" t="n">
-        <v>1.388894288380338</v>
+        <v>0.8785587817542013</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.717086656830201</v>
+        <v>0.5857754850607881</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.253393665158371</v>
+        <v>0.03472399410218448</v>
       </c>
       <c r="AL26" t="n">
-        <v>-1.055279145057807</v>
+        <v>-0.6574566004116521</v>
       </c>
       <c r="AM26" t="n">
-        <v>1.140192675995542</v>
+        <v>0.8335126883756298</v>
       </c>
       <c r="AN26" t="n">
-        <v>0.5681818181818182</v>
+        <v>0.6936599324219705</v>
       </c>
       <c r="AO26" t="n">
-        <v>-0.3495250309811578</v>
+        <v>-0.3855717686503826</v>
       </c>
       <c r="AP26" t="n">
-        <v>-0.2400000000000002</v>
+        <v>-0.2195949244198452</v>
       </c>
       <c r="AQ26" t="n">
-        <v>-0.7514450867052037</v>
+        <v>-0.6458492374608811</v>
       </c>
       <c r="AR26" t="n">
-        <v>-0.5834445927903872</v>
+        <v>-0.7361565391696047</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.015625</v>
+        <v>-0.1853255960197526</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.02453987730061385</v>
+        <v>0.1712777583296207</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.4937198510127344</v>
+        <v>0.4687819378907175</v>
       </c>
       <c r="AV26" t="n">
-        <v>-0.03846153846153846</v>
+        <v>0.04316767043699331</v>
       </c>
       <c r="AW26" t="n">
         <v>0</v>
@@ -4468,7 +4468,7 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.5833333333333334</v>
+        <v>-0.5323337997277721</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -4519,10 +4519,10 @@
         <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -4537,70 +4537,70 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.3864436897399763</v>
+        <v>-0.3354942779691847</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.027475130332062</v>
+        <v>0.3226845497853514</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.3703703703703703</v>
+        <v>-0.5562403221818188</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.03757420386834109</v>
+        <v>-0.07858225635246967</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.1754385964912281</v>
+        <v>0.2077872647841883</v>
       </c>
       <c r="AF27" t="n">
-        <v>0.1280701754385964</v>
+        <v>0.202376149512064</v>
       </c>
       <c r="AG27" t="n">
-        <v>-1.231036182529859</v>
+        <v>-0.6925584764338738</v>
       </c>
       <c r="AH27" t="n">
-        <v>0.7549574033066155</v>
+        <v>0.1572857671378216</v>
       </c>
       <c r="AI27" t="n">
-        <v>-1.303413403927357</v>
+        <v>-0.8723386645613407</v>
       </c>
       <c r="AJ27" t="n">
-        <v>-1.398855372155306</v>
+        <v>-0.8774716396977614</v>
       </c>
       <c r="AK27" t="n">
-        <v>3.058823529411764</v>
+        <v>0.9934118453261312</v>
       </c>
       <c r="AL27" t="n">
-        <v>0.001935724622854222</v>
+        <v>-0.001012949982481194</v>
       </c>
       <c r="AM27" t="n">
-        <v>-1.349045860522945</v>
+        <v>-0.8771563812701528</v>
       </c>
       <c r="AN27" t="n">
-        <v>-0.3409090909090913</v>
+        <v>-0.4922234710762314</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.1767907584925268</v>
+        <v>0.2958347874928655</v>
       </c>
       <c r="AP27" t="n">
-        <v>-0.4800000000000004</v>
+        <v>-0.4753563194158595</v>
       </c>
       <c r="AQ27" t="n">
-        <v>-0.366088631984587</v>
+        <v>-0.3243177915534737</v>
       </c>
       <c r="AR27" t="n">
-        <v>-0.5033377837116155</v>
+        <v>-0.6873646453407822</v>
       </c>
       <c r="AS27" t="n">
-        <v>-0.515625</v>
+        <v>-0.7106790481138298</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.8834355828220863</v>
+        <v>0.7916987769875533</v>
       </c>
       <c r="AU27" t="n">
-        <v>2.909304266597151</v>
+        <v>0.9925609717427188</v>
       </c>
       <c r="AV27" t="n">
-        <v>1</v>
+        <v>0.8314606444990618</v>
       </c>
       <c r="AW27" t="n">
         <v>0</v>
@@ -4619,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5</v>
+        <v>0.6822754766200587</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -4670,10 +4670,10 @@
         <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -4688,70 +4688,70 @@
         <v>1</v>
       </c>
       <c r="AA28" t="n">
-        <v>-1.159331069219929</v>
+        <v>-0.6554140263198619</v>
       </c>
       <c r="AB28" t="n">
-        <v>4.452392231438934</v>
+        <v>0.9827781609638037</v>
       </c>
       <c r="AC28" t="n">
-        <v>0.3851851851851852</v>
+        <v>0.0347544480724623</v>
       </c>
       <c r="AD28" t="n">
-        <v>0.8999257961316589</v>
+        <v>0.6946295924138213</v>
       </c>
       <c r="AE28" t="n">
-        <v>1.894736842105263</v>
+        <v>0.9652139665269608</v>
       </c>
       <c r="AF28" t="n">
-        <v>2.010478899952584</v>
+        <v>0.9902353864310883</v>
       </c>
       <c r="AG28" t="n">
-        <v>3.15828963886382</v>
+        <v>0.9553139149126775</v>
       </c>
       <c r="AH28" t="n">
-        <v>2.316938237734096</v>
+        <v>0.8344983944958116</v>
       </c>
       <c r="AI28" t="n">
-        <v>-0.2649518654658168</v>
+        <v>-0.2882425276760004</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.214671197893003</v>
+        <v>0.1856278193408803</v>
       </c>
       <c r="AK28" t="n">
-        <v>3.402714932126697</v>
+        <v>0.9966957330317686</v>
       </c>
       <c r="AL28" t="n">
-        <v>-1.394262195905264</v>
+        <v>-0.7781884696833231</v>
       </c>
       <c r="AM28" t="n">
-        <v>0.4237776825585133</v>
+        <v>0.4316626982512994</v>
       </c>
       <c r="AN28" t="n">
-        <v>-0.1136363636363638</v>
+        <v>-0.188227573592891</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.04521181112410567</v>
+        <v>0.1263850673427668</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.7599999999999998</v>
+        <v>0.7618774202786398</v>
       </c>
       <c r="AQ28" t="n">
-        <v>-0.366088631984587</v>
+        <v>-0.3243177915534737</v>
       </c>
       <c r="AR28" t="n">
-        <v>1.005340453938585</v>
+        <v>0.7712160372261978</v>
       </c>
       <c r="AS28" t="n">
-        <v>0</v>
+        <v>-0.2051582925749572</v>
       </c>
       <c r="AT28" t="n">
-        <v>-0.5889570552147236</v>
+        <v>-0.4398187860444738</v>
       </c>
       <c r="AU28" t="n">
-        <v>-0.4543320970392147</v>
+        <v>-0.3704668231566814</v>
       </c>
       <c r="AV28" t="n">
-        <v>-0.4615384615384616</v>
+        <v>-0.4012883372427085</v>
       </c>
       <c r="AW28" t="n">
         <v>0</v>
@@ -4770,7 +4770,7 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1666666666666667</v>
+        <v>-0.04461459224905492</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -4821,10 +4821,10 @@
         <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -4839,70 +4839,70 @@
         <v>1</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>-0.130397538075627</v>
       </c>
       <c r="AB29" t="n">
-        <v>4.452392231438934</v>
+        <v>0.9827781609638037</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.2074074074074074</v>
+        <v>-0.4498863515354574</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.6000742038683411</v>
+        <v>-0.5649673455773495</v>
       </c>
       <c r="AE29" t="n">
-        <v>-0.9122807017543859</v>
+        <v>-0.7314544537234987</v>
       </c>
       <c r="AF29" t="n">
-        <v>-0.04262683736367951</v>
+        <v>-0.01726505084069316</v>
       </c>
       <c r="AG29" t="n">
-        <v>-2.075137302028644</v>
+        <v>-0.8809955311117129</v>
       </c>
       <c r="AH29" t="n">
-        <v>0.1128097269308737</v>
+        <v>-0.2642459714043507</v>
       </c>
       <c r="AI29" t="n">
-        <v>0.177355826841876</v>
+        <v>0.1478352705000404</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.214671197893003</v>
+        <v>0.1856278193408803</v>
       </c>
       <c r="AK29" t="n">
-        <v>-0.3076923076923077</v>
+        <v>-0.4850350547205905</v>
       </c>
       <c r="AL29" t="n">
-        <v>1.080314075281176</v>
+        <v>0.6651841312163491</v>
       </c>
       <c r="AM29" t="n">
-        <v>1.152335303002948</v>
+        <v>0.837289344892831</v>
       </c>
       <c r="AN29" t="n">
-        <v>0.227272727272727</v>
+        <v>0.3205305721524314</v>
       </c>
       <c r="AO29" t="n">
-        <v>-1.138998715191685</v>
+        <v>-0.9003175034715845</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.9599999999999991</v>
+        <v>0.8470044809470264</v>
       </c>
       <c r="AQ29" t="n">
-        <v>-2.100192678227362</v>
+        <v>-0.979252449319133</v>
       </c>
       <c r="AR29" t="n">
-        <v>0.3244325767690254</v>
+        <v>0.1790734952908871</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.296875</v>
+        <v>0.181621077265083</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.990145455851835</v>
+        <v>0.9775644134575194</v>
       </c>
       <c r="AU29" t="n">
-        <v>2.29891465620754</v>
+        <v>0.9765627206835582</v>
       </c>
       <c r="AV29" t="n">
-        <v>2.153846153846154</v>
+        <v>0.9857993569577359</v>
       </c>
       <c r="AW29" t="n">
         <v>0</v>
@@ -4921,7 +4921,7 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.08333333333333333</v>
+        <v>0.06501433184629341</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -4972,10 +4972,10 @@
         <v>1</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W30" t="n">
         <v>1</v>
@@ -4990,70 +4990,70 @@
         <v>1</v>
       </c>
       <c r="AA30" t="n">
-        <v>8.501761174279341</v>
+        <v>0.9998214422725816</v>
       </c>
       <c r="AB30" t="n">
-        <v>4.452392231438934</v>
+        <v>0.9827781609638037</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.4739443970861307</v>
       </c>
       <c r="AD30" t="n">
-        <v>1.649925796131659</v>
+        <v>0.9224654833611496</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.2807017543859649</v>
+        <v>0.3108102856069037</v>
       </c>
       <c r="AF30" t="n">
-        <v>-0.3420462787737273</v>
+        <v>-0.3863573918739957</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.09742104423827189</v>
+        <v>-0.02291436766414866</v>
       </c>
       <c r="AH30" t="n">
-        <v>-0.0239490509171579</v>
+        <v>-0.3470533488927026</v>
       </c>
       <c r="AI30" t="n">
-        <v>-0.106963938341525</v>
+        <v>-0.1366335600884634</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0.01262528037012856</v>
+        <v>-0.006595760434389893</v>
       </c>
       <c r="AK30" t="n">
-        <v>-0.01819475711590301</v>
+        <v>-0.2339830653296203</v>
       </c>
       <c r="AL30" t="n">
-        <v>0.001173213577708416</v>
+        <v>-0.001580790787934067</v>
       </c>
       <c r="AM30" t="n">
-        <v>0.008292335295322537</v>
+        <v>0.03415544398890007</v>
       </c>
       <c r="AN30" t="n">
-        <v>-0.04656476224182769</v>
+        <v>-0.08743010253801155</v>
       </c>
       <c r="AO30" t="n">
-        <v>-0.09478383602652649</v>
+        <v>-0.06211828094049666</v>
       </c>
       <c r="AP30" t="n">
-        <v>0.006537215672768326</v>
+        <v>0.07834683724817004</v>
       </c>
       <c r="AQ30" t="n">
-        <v>-0.08982384783308328</v>
+        <v>-0.02698420464759237</v>
       </c>
       <c r="AR30" t="n">
-        <v>0.1015357015387663</v>
+        <v>-0.09442037953592144</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.2033712238088579</v>
+        <v>0.06019373141117158</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.05644896025384287</v>
+        <v>0.20364255076492</v>
       </c>
       <c r="AU30" t="n">
-        <v>0</v>
+        <v>0.04110563452999211</v>
       </c>
       <c r="AV30" t="n">
-        <v>0.05185785990409204</v>
+        <v>0.1422143493435749</v>
       </c>
       <c r="AW30" t="n">
         <v>0</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>1.083333333333333</v>
+        <v>0.9219108004276781</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -5123,10 +5123,10 @@
         <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V31" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W31" t="n">
         <v>1</v>
@@ -5141,70 +5141,70 @@
         <v>0</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.4542252410401222</v>
+        <v>0.1242848974830863</v>
       </c>
       <c r="AB31" t="n">
-        <v>1.027475130332062</v>
+        <v>0.3226845497853514</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.07407407407407407</v>
+        <v>-0.351986507405629</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.3999257961316589</v>
+        <v>0.3433319087081056</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.2105263157894737</v>
+        <v>0.2427734155542451</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.7065433854907538</v>
+        <v>0.743899445473257</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.4571660564677099</v>
+        <v>0.199131402526374</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.3991728799092452</v>
+        <v>-0.0790710038678278</v>
       </c>
       <c r="AI31" t="n">
-        <v>0.8504327499187997</v>
+        <v>0.6788487373575266</v>
       </c>
       <c r="AJ31" t="n">
-        <v>0.3789224056224715</v>
+        <v>0.3326823765161521</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.8072398190045248</v>
+        <v>0.5311474824813568</v>
       </c>
       <c r="AL31" t="n">
-        <v>-0.1739232128544169</v>
+        <v>-0.1312141344681276</v>
       </c>
       <c r="AM31" t="n">
-        <v>1.22276253964591</v>
+        <v>0.8576914252866554</v>
       </c>
       <c r="AN31" t="n">
-        <v>-0.454545454545455</v>
+        <v>-0.6127022377815027</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>0.06584636226111726</v>
       </c>
       <c r="AP31" t="n">
-        <v>-0.6800000000000006</v>
+        <v>-0.642105886072241</v>
       </c>
       <c r="AQ31" t="n">
-        <v>-1.329479768786129</v>
+        <v>-0.8886908665328939</v>
       </c>
       <c r="AR31" t="n">
-        <v>1.797062750333779</v>
+        <v>0.9642176826181802</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.6640625</v>
+        <v>0.5838054005387163</v>
       </c>
       <c r="AT31" t="n">
-        <v>-0.01226993865030605</v>
+        <v>0.1334820572831298</v>
       </c>
       <c r="AU31" t="n">
-        <v>0.4028107601036431</v>
+        <v>0.3989916501120456</v>
       </c>
       <c r="AV31" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.3660317012674376</v>
       </c>
       <c r="AW31" t="n">
         <v>0</v>
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.4166666666666667</v>
+        <v>-0.3573942848683141</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -5274,10 +5274,10 @@
         <v>1</v>
       </c>
       <c r="U32" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -5292,70 +5292,70 @@
         <v>1</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.7728873794799251</v>
+        <v>0.2954988086669205</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.6300331595572497</v>
+        <v>0.09778304589630557</v>
       </c>
       <c r="AC32" t="n">
-        <v>6.859259259259259</v>
+        <v>0.9999779826311277</v>
       </c>
       <c r="AD32" t="n">
-        <v>0.02492579613165891</v>
+        <v>-0.01637037541152294</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.1403508771929824</v>
+        <v>0.1722612816410813</v>
       </c>
       <c r="AF32" t="n">
-        <v>0.4173067804646751</v>
+        <v>0.5242493022455266</v>
       </c>
       <c r="AG32" t="n">
-        <v>-0.6739294436606613</v>
+        <v>-0.4658916986777195</v>
       </c>
       <c r="AH32" t="n">
-        <v>3.573465042317981</v>
+        <v>0.9669266448229165</v>
       </c>
       <c r="AI32" t="n">
-        <v>0.4465865960726452</v>
+        <v>0.3970536172538512</v>
       </c>
       <c r="AJ32" t="n">
-        <v>-0.8094833914789776</v>
+        <v>-0.6626916974782733</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.06877828054298638</v>
+        <v>-0.1497944196299914</v>
       </c>
       <c r="AL32" t="n">
-        <v>-0.2078215179391626</v>
+        <v>-0.1559364218162308</v>
       </c>
       <c r="AM32" t="n">
-        <v>-0.9179826017599876</v>
+        <v>-0.7256572408737566</v>
       </c>
       <c r="AN32" t="n">
-        <v>1.136363636363636</v>
+        <v>0.9386058041156282</v>
       </c>
       <c r="AO32" t="n">
-        <v>-0.05740718783228937</v>
+        <v>-0.01166760640651577</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.1199999999999992</v>
+        <v>0.2140151211968808</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.4046242774566465</v>
+        <v>0.4830034784034863</v>
       </c>
       <c r="AR32" t="n">
-        <v>0.009345794392523404</v>
+        <v>-0.205763228453559</v>
       </c>
       <c r="AS32" t="n">
-        <v>-0.3828125</v>
+        <v>-0.612735088573286</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.447852760736197</v>
+        <v>0.9314666052093725</v>
       </c>
       <c r="AU32" t="n">
-        <v>1.454758812051696</v>
+        <v>0.8892383743495522</v>
       </c>
       <c r="AV32" t="n">
-        <v>1.153846153846154</v>
+        <v>0.8771260829059431</v>
       </c>
       <c r="AW32" t="n">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2771635421220417</v>
       </c>
       <c r="E33" t="n">
         <v>1</v>
@@ -5425,10 +5425,10 @@
         <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -5443,70 +5443,70 @@
         <v>1</v>
       </c>
       <c r="AA33" t="n">
-        <v>5.410211656359586</v>
+        <v>0.9941867877820095</v>
       </c>
       <c r="AB33" t="n">
-        <v>-0.3424917101106873</v>
+        <v>-0.4468185158542887</v>
       </c>
       <c r="AC33" t="n">
-        <v>0</v>
+        <v>-0.2938670538330621</v>
       </c>
       <c r="AD33" t="n">
-        <v>-0.7250742038683411</v>
+        <v>-0.643921974600956</v>
       </c>
       <c r="AE33" t="n">
-        <v>-0.03508771929824561</v>
+        <v>-0.01031087233993886</v>
       </c>
       <c r="AF33" t="n">
-        <v>0</v>
+        <v>0.03827165922512319</v>
       </c>
       <c r="AG33" t="n">
-        <v>-1.416738428819592</v>
+        <v>-0.748207754874452</v>
       </c>
       <c r="AH33" t="n">
-        <v>-0.7410731292228157</v>
+        <v>-0.6865925792456921</v>
       </c>
       <c r="AI33" t="n">
-        <v>1.554278903764953</v>
+        <v>0.9114493616675279</v>
       </c>
       <c r="AJ33" t="n">
-        <v>-0.5592418455852579</v>
+        <v>-0.5056178168692679</v>
       </c>
       <c r="AK33" t="n">
-        <v>-0.3918552036199096</v>
+        <v>-0.5470699746529611</v>
       </c>
       <c r="AL33" t="n">
-        <v>-0.3396859247188237</v>
+        <v>-0.2500053355845848</v>
       </c>
       <c r="AM33" t="n">
-        <v>1.026051982125912</v>
+        <v>0.7939468073873392</v>
       </c>
       <c r="AN33" t="n">
-        <v>-0.4318181818181823</v>
+        <v>-0.5904698869425136</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.7978433900714745</v>
+        <v>0.8159445605279581</v>
       </c>
       <c r="AP33" t="n">
-        <v>0.6400000000000006</v>
+        <v>0.6930526854701553</v>
       </c>
       <c r="AQ33" t="n">
-        <v>-0.1156069364161839</v>
+        <v>-0.05581512441633704</v>
       </c>
       <c r="AR33" t="n">
-        <v>0.7222963951935916</v>
+        <v>0.5870747856589582</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.78125</v>
+        <v>0.6766248710372454</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.4417177914110432</v>
+        <v>0.5452349448745308</v>
       </c>
       <c r="AU33" t="n">
-        <v>0.7664471237400072</v>
+        <v>0.6449976878165654</v>
       </c>
       <c r="AV33" t="n">
-        <v>0.6923076923076923</v>
+        <v>0.6922229234734661</v>
       </c>
       <c r="AW33" t="n">
         <v>0</v>
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.25</v>
+        <v>-0.8998440634279272</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -5576,10 +5576,10 @@
         <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V34" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W34" t="n">
         <v>1</v>
@@ -5594,70 +5594,70 @@
         <v>1</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.2580419756145209</v>
+        <v>0.01432911544295678</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.4578461195060513</v>
+        <v>-0.004383495767448277</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.6518518518518519</v>
+        <v>-0.7034272333454962</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.317437620662016</v>
+        <v>0.268776459181485</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.1191453507773892</v>
+        <v>0.1505651598290757</v>
       </c>
       <c r="AF34" t="n">
-        <v>0.03072494148724562</v>
+        <v>0.07817546946180021</v>
       </c>
       <c r="AG34" t="n">
-        <v>0.06842595688107336</v>
+        <v>-0.04100969339336147</v>
       </c>
       <c r="AH34" t="n">
-        <v>-0.2731434108273967</v>
+        <v>-0.4843667595265044</v>
       </c>
       <c r="AI34" t="n">
-        <v>0.1395634186072944</v>
+        <v>0.1104031517118556</v>
       </c>
       <c r="AJ34" t="n">
-        <v>0.006474482091446554</v>
+        <v>-0.01251326935985939</v>
       </c>
       <c r="AK34" t="n">
-        <v>0.1838449735639493</v>
+        <v>-0.03519276883602811</v>
       </c>
       <c r="AL34" t="n">
-        <v>0.004512444783732478</v>
+        <v>0.0009059322526329723</v>
       </c>
       <c r="AM34" t="n">
-        <v>0.3768861154118889</v>
+        <v>0.3915762409650463</v>
       </c>
       <c r="AN34" t="n">
-        <v>0.4204545454545456</v>
+        <v>0.5569882308291338</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.4662644427030537</v>
+        <v>0.6020100871685656</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.2400000000000002</v>
+        <v>0.3489468373136336</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.1541425818882434</v>
+        <v>0.2414398497861032</v>
       </c>
       <c r="AR34" t="n">
-        <v>1.493991989319092</v>
+        <v>0.9257466768202504</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.7265625</v>
+        <v>0.635562988627234</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.01226993865030693</v>
+        <v>0.1587293811742163</v>
       </c>
       <c r="AU34" t="n">
-        <v>0.0002133575062401861</v>
+        <v>0.04130726618654382</v>
       </c>
       <c r="AV34" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.2900982051127327</v>
       </c>
       <c r="AW34" t="n">
         <v>0</v>
@@ -5676,7 +5676,7 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.083333333333333</v>
+        <v>-0.8488151745662359</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -5727,10 +5727,10 @@
         <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -5745,70 +5745,70 @@
         <v>1</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.000674439808012837</v>
+        <v>-0.1307712781285314</v>
       </c>
       <c r="AB35" t="n">
-        <v>0.3889241723567746</v>
+        <v>-0.04537240947243534</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.2666666666666667</v>
+        <v>-0.4903267401855677</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.7749257961316589</v>
+        <v>0.624349306375235</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.3508771929824561</v>
+        <v>0.3758044131980035</v>
       </c>
       <c r="AF35" t="n">
-        <v>-0.639118065433855</v>
+        <v>-0.6610609574419243</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.08479411917207626</v>
+        <v>-0.03079715464916824</v>
       </c>
       <c r="AH35" t="n">
-        <v>-0.6820649643666664</v>
+        <v>-0.6651725395240526</v>
       </c>
       <c r="AI35" t="n">
-        <v>-0.1965367039211154</v>
+        <v>-0.2238712513325304</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0.01751883812583497</v>
+        <v>-0.001887456870237773</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.4434389140271493</v>
+        <v>0.2221027408792864</v>
       </c>
       <c r="AL35" t="n">
-        <v>0.0003304760194205532</v>
+        <v>-0.002208374953736638</v>
       </c>
       <c r="AM35" t="n">
-        <v>-0.2794701201758518</v>
+        <v>-0.2562602902942031</v>
       </c>
       <c r="AN35" t="n">
-        <v>-0.772727272727273</v>
+        <v>-0.8339972788139156</v>
       </c>
       <c r="AO35" t="n">
-        <v>0.5452118111241057</v>
+        <v>0.6657241761660199</v>
       </c>
       <c r="AP35" t="n">
-        <v>-0.4400000000000004</v>
+        <v>-0.4365912690051316</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.6165703275529846</v>
+        <v>0.6436133448488613</v>
       </c>
       <c r="AR35" t="n">
-        <v>-0.6181575433911883</v>
+        <v>-0.7552124066288145</v>
       </c>
       <c r="AS35" t="n">
-        <v>0.298580853535114</v>
+        <v>0.1837970521336144</v>
       </c>
       <c r="AT35" t="n">
-        <v>-0.1963190184049073</v>
+        <v>-0.05914413515635027</v>
       </c>
       <c r="AU35" t="n">
-        <v>-0.06472170742882455</v>
+        <v>-0.02013718742353365</v>
       </c>
       <c r="AV35" t="n">
-        <v>-0.1153846153846154</v>
+        <v>-0.04194052725204086</v>
       </c>
       <c r="AW35" t="n">
         <v>0</v>
@@ -5827,7 +5827,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.75</v>
+        <v>-0.6711852882635027</v>
       </c>
       <c r="E36" t="n">
         <v>1</v>
@@ -5878,10 +5878,10 @@
         <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W36" t="n">
         <v>1</v>
@@ -5896,70 +5896,70 @@
         <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>-1.545774758959878</v>
+        <v>-0.7626813302436208</v>
       </c>
       <c r="AB36" t="n">
-        <v>-0.3424917101106873</v>
+        <v>-0.4468185158542887</v>
       </c>
       <c r="AC36" t="n">
-        <v>-0.2666666666666667</v>
+        <v>-0.4903267401855677</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.1608300928754502</v>
+        <v>0.1186936559702674</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.04634956818159309</v>
+        <v>0.07510120970218209</v>
       </c>
       <c r="AF36" t="n">
-        <v>0.04567807264155414</v>
+        <v>0.0975134206387586</v>
       </c>
       <c r="AG36" t="n">
-        <v>0.1453522837802043</v>
+        <v>0.007025962123161965</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.3195103201683028</v>
+        <v>-0.1317203071511298</v>
       </c>
       <c r="AI36" t="n">
-        <v>0.1078945567616854</v>
+        <v>0.07878857850039435</v>
       </c>
       <c r="AJ36" t="n">
-        <v>0.02223294912479619</v>
+        <v>0.002648274758949409</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.2871701901248127</v>
+        <v>0.06859917387252933</v>
       </c>
       <c r="AL36" t="n">
-        <v>0.004051211380993121</v>
+        <v>0.000562452046857203</v>
       </c>
       <c r="AM36" t="n">
-        <v>0.1712938059720092</v>
+        <v>0.1992865778763187</v>
       </c>
       <c r="AN36" t="n">
-        <v>0.001494120156340802</v>
+        <v>-0.01396129200976604</v>
       </c>
       <c r="AO36" t="n">
-        <v>-0.0342477654319084</v>
+        <v>0.01963901910589302</v>
       </c>
       <c r="AP36" t="n">
-        <v>-0.04256552281666082</v>
+        <v>0.01840855222359826</v>
       </c>
       <c r="AQ36" t="n">
-        <v>-0.05981070709023471</v>
+        <v>0.006630123332358037</v>
       </c>
       <c r="AR36" t="n">
-        <v>0.1883975137852016</v>
+        <v>0.0127465927763389</v>
       </c>
       <c r="AS36" t="n">
-        <v>0.1777940530211219</v>
+        <v>0.02650754524529782</v>
       </c>
       <c r="AT36" t="n">
-        <v>-0.1931023015253226</v>
+        <v>-0.05577346675200735</v>
       </c>
       <c r="AU36" t="n">
-        <v>-0.04414389128108931</v>
+        <v>-0.0006599471529529767</v>
       </c>
       <c r="AV36" t="n">
-        <v>-0.1067169671370383</v>
+        <v>-0.0323581023525164</v>
       </c>
       <c r="AW36" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.666666666666667</v>
+        <v>-0.9654239740074001</v>
       </c>
       <c r="E37" t="n">
         <v>1</v>
@@ -6029,10 +6029,10 @@
         <v>1</v>
       </c>
       <c r="U37" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W37" t="n">
         <v>1</v>
@@ -6047,70 +6047,70 @@
         <v>1</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.1943720680125862</v>
+        <v>-0.02156125562571234</v>
       </c>
       <c r="AB37" t="n">
-        <v>-0.3424917101106873</v>
+        <v>-0.4468185158542887</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.1481481481481481</v>
+        <v>-0.1712576644130788</v>
       </c>
       <c r="AD37" t="n">
-        <v>2.649925796131659</v>
+        <v>0.9890988564063772</v>
       </c>
       <c r="AE37" t="n">
-        <v>2.070175438596491</v>
+        <v>0.9758090644709647</v>
       </c>
       <c r="AF37" t="n">
-        <v>-0.215563911487497</v>
+        <v>-0.2380085653385047</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.3558739221278556</v>
+        <v>0.1376671766388981</v>
       </c>
       <c r="AH37" t="n">
-        <v>-1.301144420992242</v>
+        <v>-0.838435672144757</v>
       </c>
       <c r="AI37" t="n">
-        <v>-1.014951865465818</v>
+        <v>-0.7826558826130171</v>
       </c>
       <c r="AJ37" t="n">
-        <v>-1.012381942203615</v>
+        <v>-0.7585618741020143</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.07345438715439763</v>
+        <v>-0.1451939647484436</v>
       </c>
       <c r="AL37" t="n">
-        <v>-0.6146011789561118</v>
+        <v>-0.4302046819803699</v>
       </c>
       <c r="AM37" t="n">
-        <v>-0.2076389218266641</v>
+        <v>-0.1859576673482617</v>
       </c>
       <c r="AN37" t="n">
-        <v>-0.2500000000000003</v>
+        <v>-0.3796014606144301</v>
       </c>
       <c r="AO37" t="n">
-        <v>-0.7574197678232626</v>
+        <v>-0.743396393025184</v>
       </c>
       <c r="AP37" t="n">
-        <v>0.1600000000000001</v>
+        <v>0.2602081383723176</v>
       </c>
       <c r="AQ37" t="n">
-        <v>-0.6319845857418117</v>
+        <v>-0.561022345491868</v>
       </c>
       <c r="AR37" t="n">
-        <v>0</v>
+        <v>-0.2168079215724847</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.625</v>
+        <v>0.5488036150153242</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.1472392638036814</v>
+        <v>0.2931240058041512</v>
       </c>
       <c r="AU37" t="n">
-        <v>-0.05173469444181183</v>
+        <v>-0.007845610156737664</v>
       </c>
       <c r="AV37" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.3285958462299234</v>
       </c>
       <c r="AW37" t="n">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.619139542494697</v>
       </c>
       <c r="E38" t="n">
         <v>1</v>
@@ -6180,10 +6180,10 @@
         <v>1</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -6198,70 +6198,70 @@
         <v>1</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>-0.130397538075627</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.3424917101106873</v>
+        <v>-0.07290904473171461</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.9185185185185185</v>
+        <v>-0.8032653509895035</v>
       </c>
       <c r="AD38" t="n">
-        <v>-1.537574203868341</v>
+        <v>-0.91792631057081</v>
       </c>
       <c r="AE38" t="n">
-        <v>-1.894736842105263</v>
+        <v>-0.9613915937127797</v>
       </c>
       <c r="AF38" t="n">
-        <v>-0.6120910384068279</v>
+        <v>-0.640764937147617</v>
       </c>
       <c r="AG38" t="n">
-        <v>2.398598631314914</v>
+        <v>0.8884910443930681</v>
       </c>
       <c r="AH38" t="n">
-        <v>-0.2360326594245969</v>
+        <v>-0.4651518841135224</v>
       </c>
       <c r="AI38" t="n">
-        <v>0.6004327499187987</v>
+        <v>0.5191159838697217</v>
       </c>
       <c r="AJ38" t="n">
-        <v>-0.01721286007801136</v>
+        <v>-0.03529032983166955</v>
       </c>
       <c r="AK38" t="n">
-        <v>-0.1737556561085972</v>
+        <v>-0.3755312741214299</v>
       </c>
       <c r="AL38" t="n">
-        <v>0.9718394990099903</v>
+        <v>0.6176979119886766</v>
       </c>
       <c r="AM38" t="n">
-        <v>0</v>
+        <v>0.02562561678239356</v>
       </c>
       <c r="AN38" t="n">
-        <v>0</v>
+        <v>-0.01625179646668577</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.5057381269135797</v>
+        <v>0.6349455531910474</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.6400000000000006</v>
+        <v>0.6930526854701553</v>
       </c>
       <c r="AQ38" t="n">
-        <v>-0.5587668593448953</v>
+        <v>-0.5022455714187853</v>
       </c>
       <c r="AR38" t="n">
-        <v>-0.1495327102803737</v>
+        <v>-0.3844568241775145</v>
       </c>
       <c r="AS38" t="n">
-        <v>-0.1640625</v>
+        <v>-0.4008121680244281</v>
       </c>
       <c r="AT38" t="n">
-        <v>0</v>
+        <v>0.1461295139931204</v>
       </c>
       <c r="AU38" t="n">
-        <v>0.4547588120516951</v>
+        <v>0.4395118692669241</v>
       </c>
       <c r="AV38" t="n">
-        <v>0</v>
+        <v>0.08556460639978404</v>
       </c>
       <c r="AW38" t="n">
         <v>0</v>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2771635421220417</v>
       </c>
       <c r="E39" t="n">
         <v>1</v>
@@ -6331,10 +6331,10 @@
         <v>1</v>
       </c>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V39" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W39" t="n">
         <v>1</v>
@@ -6349,70 +6349,70 @@
         <v>1</v>
       </c>
       <c r="AA39" t="n">
-        <v>-1.545774758959878</v>
+        <v>-0.7626813302436208</v>
       </c>
       <c r="AB39" t="n">
-        <v>0.3424917101106873</v>
+        <v>-0.07290904473171461</v>
       </c>
       <c r="AC39" t="n">
-        <v>1.451851851851852</v>
+        <v>0.7485089650595658</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.08742579613165891</v>
+        <v>0.04596851538997422</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.8771929824561403</v>
+        <v>0.7389158917611117</v>
       </c>
       <c r="AF39" t="n">
-        <v>-0.7974869606448554</v>
+        <v>-0.7620573272000633</v>
       </c>
       <c r="AG39" t="n">
-        <v>-0.03974538682092472</v>
+        <v>-0.1081863634004747</v>
       </c>
       <c r="AH39" t="n">
-        <v>-0.6751228273247665</v>
+        <v>-0.6625771131153674</v>
       </c>
       <c r="AI39" t="n">
-        <v>-0.3351922012834417</v>
+        <v>-0.3517221709366388</v>
       </c>
       <c r="AJ39" t="n">
-        <v>-0.01775422850540759</v>
+        <v>-0.03581055582054107</v>
       </c>
       <c r="AK39" t="n">
-        <v>-0.7257918552036199</v>
+        <v>-0.7397970988342244</v>
       </c>
       <c r="AL39" t="n">
-        <v>-0.0007837362913864188</v>
+        <v>-0.003038122812470208</v>
       </c>
       <c r="AM39" t="n">
-        <v>-0.319078705871558</v>
+        <v>-0.2939472476668688</v>
       </c>
       <c r="AN39" t="n">
-        <v>-0.363636363636364</v>
+        <v>-0.5181735936253662</v>
       </c>
       <c r="AO39" t="n">
-        <v>-0.2837355572969472</v>
+        <v>-0.3073768081071223</v>
       </c>
       <c r="AP39" t="n">
-        <v>-0.5200000000000005</v>
+        <v>-0.5123595252080357</v>
       </c>
       <c r="AQ39" t="n">
-        <v>-0.03853564547206496</v>
+        <v>0.03045330743320394</v>
       </c>
       <c r="AR39" t="n">
-        <v>-0.2336448598130841</v>
+        <v>-0.4694209854596498</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.9765625</v>
+        <v>0.7934237268249942</v>
       </c>
       <c r="AT39" t="n">
-        <v>-0.49079754601227</v>
+        <v>-0.3529485470360659</v>
       </c>
       <c r="AU39" t="n">
-        <v>-0.6491372918444095</v>
+        <v>-0.5178344294404631</v>
       </c>
       <c r="AV39" t="n">
-        <v>-0.3461538461538461</v>
+        <v>-0.2889718944635423</v>
       </c>
       <c r="AW39" t="n">
         <v>0</v>
@@ -6431,7 +6431,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2771635421220417</v>
       </c>
       <c r="E40" t="n">
         <v>1</v>
@@ -6482,10 +6482,10 @@
         <v>1</v>
       </c>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -6500,70 +6500,70 @@
         <v>1</v>
       </c>
       <c r="AA40" t="n">
-        <v>-0.03112193056227494</v>
+        <v>-0.1476034459623828</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.3672705373170012</v>
+        <v>-0.05822517761654338</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.8296296296296296</v>
+        <v>0.4005157976524895</v>
       </c>
       <c r="AD40" t="n">
-        <v>1.899925796131659</v>
+        <v>0.9521970203048785</v>
       </c>
       <c r="AE40" t="n">
-        <v>1.192982456140351</v>
+        <v>0.8564424397185981</v>
       </c>
       <c r="AF40" t="n">
-        <v>-0.9615457562825984</v>
+        <v>-0.838151544953596</v>
       </c>
       <c r="AG40" t="n">
-        <v>-0.04929461523156096</v>
+        <v>-0.1140784296102215</v>
       </c>
       <c r="AH40" t="n">
-        <v>-0.6404121421152669</v>
+        <v>-0.6493591401783984</v>
       </c>
       <c r="AI40" t="n">
-        <v>0.5619712114572609</v>
+        <v>0.4902453143636164</v>
       </c>
       <c r="AJ40" t="n">
-        <v>-0.2394350823002337</v>
+        <v>-0.244090184116531</v>
       </c>
       <c r="AK40" t="n">
-        <v>-0.4931027751394108</v>
+        <v>-0.6144349072107192</v>
       </c>
       <c r="AL40" t="n">
-        <v>0.266754753247278</v>
+        <v>0.1937184302474487</v>
       </c>
       <c r="AM40" t="n">
-        <v>0.4359203095659198</v>
+        <v>0.4417797477064116</v>
       </c>
       <c r="AN40" t="n">
-        <v>-0.1477272727272731</v>
+        <v>-0.2381129972166927</v>
       </c>
       <c r="AO40" t="n">
-        <v>-0.6389987151916847</v>
+        <v>-0.6628797320768506</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.3599999999999994</v>
+        <v>0.47081171351559</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.4624277456647412</v>
+        <v>0.5310785471051404</v>
       </c>
       <c r="AR40" t="n">
-        <v>0.3871829105473966</v>
+        <v>0.2530311997305514</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.453125</v>
+        <v>0.3712338182987142</v>
       </c>
       <c r="AT40" t="n">
-        <v>-0.4294478527607363</v>
+        <v>-0.2952509749653446</v>
       </c>
       <c r="AU40" t="n">
-        <v>-0.6101762528833702</v>
+        <v>-0.4903292751260014</v>
       </c>
       <c r="AV40" t="n">
-        <v>-0.3076923076923077</v>
+        <v>-0.2494856909398409</v>
       </c>
       <c r="AW40" t="n">
         <v>0</v>
@@ -6582,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.25</v>
+        <v>0.465341549799722</v>
       </c>
       <c r="E41" t="n">
         <v>1</v>
@@ -6633,10 +6633,10 @@
         <v>1</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -6651,70 +6651,70 @@
         <v>0</v>
       </c>
       <c r="AA41" t="n">
-        <v>-0.7728873794799527</v>
+        <v>-0.5130561592160638</v>
       </c>
       <c r="AB41" t="n">
-        <v>-0.3424917101106873</v>
+        <v>-0.4468185158542887</v>
       </c>
       <c r="AC41" t="n">
-        <v>1.540740740740741</v>
+        <v>0.7808147910856231</v>
       </c>
       <c r="AD41" t="n">
-        <v>-0.6872850703790192</v>
+        <v>-0.6213081586025532</v>
       </c>
       <c r="AE41" t="n">
-        <v>-0.6935625090614354</v>
+        <v>-0.6056821864284654</v>
       </c>
       <c r="AF41" t="n">
-        <v>-0.2180654338549076</v>
+        <v>-0.2410818047328642</v>
       </c>
       <c r="AG41" t="n">
-        <v>-0.4713451749809532</v>
+        <v>-0.3611851078381453</v>
       </c>
       <c r="AH41" t="n">
-        <v>3.497101534857081</v>
+        <v>0.9634365657410557</v>
       </c>
       <c r="AI41" t="n">
-        <v>-1.668798019311972</v>
+        <v>-0.9367535947448064</v>
       </c>
       <c r="AJ41" t="n">
-        <v>1.39341515924566</v>
+        <v>0.867267591495212</v>
       </c>
       <c r="AK41" t="n">
-        <v>1.665158371040724</v>
+        <v>0.8965894503616756</v>
       </c>
       <c r="AL41" t="n">
-        <v>0.06336492273880345</v>
+        <v>0.04470354305237469</v>
       </c>
       <c r="AM41" t="n">
-        <v>-2.247600259071082</v>
+        <v>-0.9796348666871921</v>
       </c>
       <c r="AN41" t="n">
-        <v>1.136363636363636</v>
+        <v>0.9386058041156282</v>
       </c>
       <c r="AO41" t="n">
-        <v>-0.481103978349579</v>
+        <v>-0.5259083113612723</v>
       </c>
       <c r="AP41" t="n">
-        <v>-2.24</v>
+        <v>-0.9904738004495008</v>
       </c>
       <c r="AQ41" t="n">
-        <v>-1.136801541425821</v>
+        <v>-0.8336009590869643</v>
       </c>
       <c r="AR41" t="n">
-        <v>0.6755674232309747</v>
+        <v>0.5479073400709802</v>
       </c>
       <c r="AS41" t="n">
-        <v>-0.8515625</v>
+        <v>-0.8697064550424086</v>
       </c>
       <c r="AT41" t="n">
-        <v>-0.5521472392638038</v>
+        <v>-0.4080811206901147</v>
       </c>
       <c r="AU41" t="n">
-        <v>-0.1945918372989546</v>
+        <v>-0.1421128295142668</v>
       </c>
       <c r="AV41" t="n">
-        <v>-0.1923076923076923</v>
+        <v>-0.1264443917520454</v>
       </c>
       <c r="AW41" t="n">
         <v>0</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2771635421220417</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -6784,10 +6784,10 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -6802,70 +6802,70 @@
         <v>1</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.05239089244407431</v>
+        <v>-0.1012599952226553</v>
       </c>
       <c r="AB42" t="n">
-        <v>0.3703366119467374</v>
+        <v>-0.05640634681676011</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.01481481481481482</v>
+        <v>-0.2819603364129319</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.6499257961316589</v>
+        <v>0.5422631678193648</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.4912280701754386</v>
+        <v>0.4949618346348796</v>
       </c>
       <c r="AF42" t="n">
-        <v>-0.7197249881460408</v>
+        <v>-0.7161779403562734</v>
       </c>
       <c r="AG42" t="n">
-        <v>-0.2349968615212934</v>
+        <v>-0.2265904223641596</v>
       </c>
       <c r="AH42" t="n">
-        <v>-0.6490898134176418</v>
+        <v>-0.652701389803105</v>
       </c>
       <c r="AI42" t="n">
-        <v>0.2350481345341832</v>
+        <v>0.2041364516139013</v>
       </c>
       <c r="AJ42" t="n">
-        <v>-0.4519954687736637</v>
+        <v>-0.4248835733360815</v>
       </c>
       <c r="AK42" t="n">
-        <v>-0.7764705882352941</v>
+        <v>-0.7620132826207596</v>
       </c>
       <c r="AL42" t="n">
-        <v>-1.377313043362892</v>
+        <v>-0.7731609396596163</v>
       </c>
       <c r="AM42" t="n">
-        <v>0.361552610506103</v>
+        <v>0.3781279976952576</v>
       </c>
       <c r="AN42" t="n">
-        <v>-0.3863636363636367</v>
+        <v>-0.5432034958761532</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.9267907584925278</v>
+        <v>0.8665072488105695</v>
       </c>
       <c r="AP42" t="n">
-        <v>-0.3600000000000003</v>
+        <v>-0.3540783965479112</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.028901734104047</v>
+        <v>0.8414780075515698</v>
       </c>
       <c r="AR42" t="n">
-        <v>-0.9305740987983979</v>
+        <v>-0.8790205346694363</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.7265625</v>
+        <v>0.635562988627234</v>
       </c>
       <c r="AT42" t="n">
-        <v>-1.067484662576687</v>
+        <v>-0.7509357668017037</v>
       </c>
       <c r="AU42" t="n">
-        <v>-1.77900742171454</v>
+        <v>-0.9278860928919295</v>
       </c>
       <c r="AV42" t="n">
-        <v>-1.192307692307692</v>
+        <v>-0.8437933795779664</v>
       </c>
       <c r="AW42" t="n">
         <v>0</v>
@@ -6884,7 +6884,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5</v>
+        <v>0.6822754766200587</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -6935,10 +6935,10 @@
         <v>1</v>
       </c>
       <c r="U43" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W43" t="n">
         <v>1</v>
@@ -6953,70 +6953,70 @@
         <v>1</v>
       </c>
       <c r="AA43" t="n">
-        <v>-0.3864436897399763</v>
+        <v>-0.3354942779691847</v>
       </c>
       <c r="AB43" t="n">
-        <v>3.082425390996185</v>
+        <v>0.9150436589795111</v>
       </c>
       <c r="AC43" t="n">
-        <v>1.422222222222222</v>
+        <v>0.7368670299793306</v>
       </c>
       <c r="AD43" t="n">
-        <v>-1.725074203868341</v>
+        <v>-0.9428159651206635</v>
       </c>
       <c r="AE43" t="n">
-        <v>-1.754385964912281</v>
+        <v>-0.9484906818659582</v>
       </c>
       <c r="AF43" t="n">
-        <v>-0.322380275011854</v>
+        <v>-0.3643387936024991</v>
       </c>
       <c r="AG43" t="n">
-        <v>-0.5557552869308318</v>
+        <v>-0.4061419245690092</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.1197518639727734</v>
+        <v>-0.2599239904686684</v>
       </c>
       <c r="AI43" t="n">
-        <v>-2.418798019311972</v>
+        <v>-0.9856906784448363</v>
       </c>
       <c r="AJ43" t="n">
-        <v>-0.1428167248123109</v>
+        <v>-0.1548992791923779</v>
       </c>
       <c r="AK43" t="n">
-        <v>0.5447963800904977</v>
+        <v>0.3165446650531447</v>
       </c>
       <c r="AL43" t="n">
-        <v>0.9447208549421933</v>
+        <v>0.6050521444695655</v>
       </c>
       <c r="AM43" t="n">
-        <v>-1.673254001620719</v>
+        <v>-0.9350448396705857</v>
       </c>
       <c r="AN43" t="n">
-        <v>-0.1136363636363638</v>
+        <v>-0.188227573592891</v>
       </c>
       <c r="AO43" t="n">
-        <v>0.9136328637556845</v>
+        <v>0.8620060891828443</v>
       </c>
       <c r="AP43" t="n">
-        <v>-0.1600000000000001</v>
+        <v>-0.1246661178697484</v>
       </c>
       <c r="AQ43" t="n">
-        <v>-1.907514450867054</v>
+        <v>-0.9682299751635409</v>
       </c>
       <c r="AR43" t="n">
-        <v>2.291054739652871</v>
+        <v>0.9893239905322962</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.34375</v>
+        <v>0.2406999731624589</v>
       </c>
       <c r="AT43" t="n">
-        <v>-0.8343558282208587</v>
+        <v>-0.6230663571794096</v>
       </c>
       <c r="AU43" t="n">
-        <v>-0.6880983308054482</v>
+        <v>-0.544309091269247</v>
       </c>
       <c r="AV43" t="n">
-        <v>-0.6538461538461539</v>
+        <v>-0.563592708306856</v>
       </c>
       <c r="AW43" t="n">
         <v>0</v>
@@ -7035,7 +7035,7 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.2771635421220417</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
@@ -7086,10 +7086,10 @@
         <v>1</v>
       </c>
       <c r="U44" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W44" t="n">
         <v>1</v>
@@ -7104,70 +7104,70 @@
         <v>1</v>
       </c>
       <c r="AA44" t="n">
-        <v>-0.7728873794799527</v>
+        <v>-0.5130561592160638</v>
       </c>
       <c r="AB44" t="n">
-        <v>-0.3424917101106873</v>
+        <v>-0.4468185158542887</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.9629629629629629</v>
+        <v>0.4938288912346216</v>
       </c>
       <c r="AD44" t="n">
-        <v>0.8999257961316589</v>
+        <v>0.6946295924138213</v>
       </c>
       <c r="AE44" t="n">
-        <v>1.298245614035088</v>
+        <v>0.8832643668383622</v>
       </c>
       <c r="AF44" t="n">
-        <v>-0.6182550972024656</v>
+        <v>-0.6454758959778318</v>
       </c>
       <c r="AG44" t="n">
-        <v>1.655789646155984</v>
+        <v>0.7400787136928649</v>
       </c>
       <c r="AH44" t="n">
-        <v>-0.2811565501969464</v>
+        <v>-0.4884560783242749</v>
       </c>
       <c r="AI44" t="n">
-        <v>0.5619712114572609</v>
+        <v>0.4902453143636164</v>
       </c>
       <c r="AJ44" t="n">
-        <v>-0.500304647517625</v>
+        <v>-0.4622097288199347</v>
       </c>
       <c r="AK44" t="n">
-        <v>-0.1936651583710408</v>
+        <v>-0.3925999559551545</v>
       </c>
       <c r="AL44" t="n">
-        <v>0.4362462786710068</v>
+        <v>0.311691655801149</v>
       </c>
       <c r="AM44" t="n">
-        <v>-0.5112045970118454</v>
+        <v>-0.4626578035872208</v>
       </c>
       <c r="AN44" t="n">
-        <v>-0.5227272727272727</v>
+        <v>-0.6738618293162207</v>
       </c>
       <c r="AO44" t="n">
-        <v>0.1899486532293682</v>
+        <v>0.3119797299832184</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.4399999999999995</v>
+        <v>0.5434405000080978</v>
       </c>
       <c r="AQ44" t="n">
-        <v>-0.2466281310211949</v>
+        <v>-0.1999152351740859</v>
       </c>
       <c r="AR44" t="n">
-        <v>-0.1695594125500667</v>
+        <v>-0.4053651465906898</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.703125</v>
+        <v>0.6167637746159085</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.1349693251533744</v>
+        <v>0.2812885030259311</v>
       </c>
       <c r="AU44" t="n">
-        <v>0.2599536172464997</v>
+        <v>0.2795681638461186</v>
       </c>
       <c r="AV44" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.3660317012674376</v>
       </c>
       <c r="AW44" t="n">
         <v>0</v>
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.9166666666666666</v>
+        <v>-0.7748682295487168</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -7237,10 +7237,10 @@
         <v>1</v>
       </c>
       <c r="U45" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W45" t="n">
         <v>1</v>
@@ -7255,70 +7255,70 @@
         <v>1</v>
       </c>
       <c r="AA45" t="n">
-        <v>-0.3864436897399763</v>
+        <v>-0.3354942779691847</v>
       </c>
       <c r="AB45" t="n">
-        <v>0.543546607390183</v>
+        <v>0.04658881600187934</v>
       </c>
       <c r="AC45" t="n">
-        <v>1.6</v>
+        <v>0.8002788055704405</v>
       </c>
       <c r="AD45" t="n">
-        <v>2.524925796131659</v>
+        <v>0.9860313512275671</v>
       </c>
       <c r="AE45" t="n">
-        <v>2.075163197126109</v>
+        <v>0.976058237936083</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.6534376481744902</v>
+        <v>0.711363961526871</v>
       </c>
       <c r="AG45" t="n">
-        <v>3.51281210905331</v>
+        <v>0.9710745143607349</v>
       </c>
       <c r="AH45" t="n">
-        <v>-0.2481813992479218</v>
+        <v>-0.4714919383346492</v>
       </c>
       <c r="AI45" t="n">
-        <v>-0.361105711619663</v>
+        <v>-0.3743844804783945</v>
       </c>
       <c r="AJ45" t="n">
-        <v>0.03562731418604655</v>
+        <v>0.01553458475700155</v>
       </c>
       <c r="AK45" t="n">
-        <v>-0.5755656108597285</v>
+        <v>-0.663448329526241</v>
       </c>
       <c r="AL45" t="n">
-        <v>-0.2078215179391626</v>
+        <v>-0.1559364218162308</v>
       </c>
       <c r="AM45" t="n">
-        <v>2.524452154839967</v>
+        <v>0.9895539616340753</v>
       </c>
       <c r="AN45" t="n">
-        <v>-0.1363636363636365</v>
+        <v>-0.2216095520700539</v>
       </c>
       <c r="AO45" t="n">
-        <v>0.6636328637556854</v>
+        <v>0.7456653862889672</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.08</v>
+        <v>0.8836812564049022</v>
       </c>
       <c r="AQ45" t="n">
-        <v>0.847784200385358</v>
+        <v>0.7712176939197216</v>
       </c>
       <c r="AR45" t="n">
-        <v>-0.7236315086782377</v>
+        <v>-0.8059806314820308</v>
       </c>
       <c r="AS45" t="n">
-        <v>-0.7265625</v>
+        <v>-0.8232814928204404</v>
       </c>
       <c r="AT45" t="n">
-        <v>-2.417177914110429</v>
+        <v>-0.9834817918019226</v>
       </c>
       <c r="AU45" t="n">
-        <v>-2.817968460675579</v>
+        <v>-0.9895908047807416</v>
       </c>
       <c r="AV45" t="n">
-        <v>-2.461538461538462</v>
+        <v>-0.9898533180754895</v>
       </c>
       <c r="AW45" t="n">
         <v>0</v>
@@ -7337,7 +7337,7 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.619139542494697</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -7388,10 +7388,10 @@
         <v>1</v>
       </c>
       <c r="U46" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W46" t="n">
         <v>1</v>
@@ -7406,70 +7406,70 @@
         <v>0</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.3388796204032221</v>
+        <v>0.05983176361238008</v>
       </c>
       <c r="AB46" t="n">
-        <v>0.4724420437000019</v>
+        <v>0.004303460100451777</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.08888888888888889</v>
+        <v>-0.3633087440129351</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.5249257961316589</v>
+        <v>0.4483317139259444</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.3859649122807017</v>
+        <v>0.4070135210361769</v>
       </c>
       <c r="AF46" t="n">
-        <v>0.1437174016121385</v>
+        <v>0.2218514354664938</v>
       </c>
       <c r="AG46" t="n">
-        <v>-0.7414575332205642</v>
+        <v>-0.4982665469662874</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.008677671302375015</v>
+        <v>-0.3277264534952448</v>
       </c>
       <c r="AI46" t="n">
-        <v>0.1965865960726456</v>
+        <v>0.1667282295085016</v>
       </c>
       <c r="AJ46" t="n">
-        <v>-0.5969230050055477</v>
+        <v>-0.5321073460171821</v>
       </c>
       <c r="AK46" t="n">
-        <v>-0.539366515837104</v>
+        <v>-0.6425722013823806</v>
       </c>
       <c r="AL46" t="n">
-        <v>-0.004431687430688067</v>
+        <v>-0.005754696892196557</v>
       </c>
       <c r="AM46" t="n">
-        <v>-0.2804946838711069</v>
+        <v>-0.2572456078884037</v>
       </c>
       <c r="AN46" t="n">
-        <v>-0.454545454545455</v>
+        <v>-0.6127022377815027</v>
       </c>
       <c r="AO46" t="n">
-        <v>0.6767907584925268</v>
+        <v>0.7534589462815622</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.24</v>
+        <v>0.9198651001087755</v>
       </c>
       <c r="AQ46" t="n">
-        <v>0.4046242774566465</v>
+        <v>0.4830034784034863</v>
       </c>
       <c r="AR46" t="n">
-        <v>-0.6355140186915889</v>
+        <v>-0.7642886492549772</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>0.804604409351067</v>
       </c>
       <c r="AT46" t="n">
-        <v>-0.5889570552147236</v>
+        <v>-0.4398187860444738</v>
       </c>
       <c r="AU46" t="n">
-        <v>-0.3244619671690847</v>
+        <v>-0.2599200733306223</v>
       </c>
       <c r="AV46" t="n">
-        <v>-0.7307692307692307</v>
+        <v>-0.6189137110635519</v>
       </c>
       <c r="AW46" t="n">
         <v>0</v>
@@ -7488,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.3333333333333333</v>
+        <v>-0.2581684061764928</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
@@ -7539,10 +7539,10 @@
         <v>1</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>0.985948068800665</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W47" t="n">
         <v>1</v>
@@ -7557,70 +7557,70 @@
         <v>1</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.7728873794799251</v>
+        <v>0.2954988086669205</v>
       </c>
       <c r="AB47" t="n">
-        <v>-0.6849834202213746</v>
+        <v>-0.5944744579723749</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.325925925925926</v>
+        <v>-0.01716248673458182</v>
       </c>
       <c r="AD47" t="n">
-        <v>1.962425796131659</v>
+        <v>0.9576846673196776</v>
       </c>
       <c r="AE47" t="n">
-        <v>1.929824561403509</v>
+        <v>0.967646250745906</v>
       </c>
       <c r="AF47" t="n">
-        <v>1.597961119013751</v>
+        <v>0.9716484613638093</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.1195256086681961</v>
+        <v>-0.009108570571876978</v>
       </c>
       <c r="AH47" t="n">
-        <v>1.397105079682358</v>
+        <v>0.5283637043195322</v>
       </c>
       <c r="AI47" t="n">
-        <v>1.119663519149569</v>
+        <v>0.7998498284012961</v>
       </c>
       <c r="AJ47" t="n">
-        <v>0.8137050143181237</v>
+        <v>0.6435283085736336</v>
       </c>
       <c r="AK47" t="n">
-        <v>2.44343891402715</v>
+        <v>0.9774659143922193</v>
       </c>
       <c r="AL47" t="n">
-        <v>0.7413310244337187</v>
+        <v>0.5002312580222671</v>
       </c>
       <c r="AM47" t="n">
-        <v>0.1809251424103683</v>
+        <v>0.2087897646027936</v>
       </c>
       <c r="AN47" t="n">
-        <v>1.477272727272727</v>
+        <v>0.9779800743109303</v>
       </c>
       <c r="AO47" t="n">
-        <v>0.308369705860948</v>
+        <v>0.4485094903669712</v>
       </c>
       <c r="AP47" t="n">
-        <v>-1.12</v>
+        <v>-0.8617919121371681</v>
       </c>
       <c r="AQ47" t="n">
-        <v>-0.366088631984587</v>
+        <v>-0.3243177915534737</v>
       </c>
       <c r="AR47" t="n">
-        <v>2.660881174899867</v>
+        <v>0.9957102043009209</v>
       </c>
       <c r="AS47" t="n">
-        <v>-0.109375</v>
+        <v>-0.3385447515845876</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.5153374233128839</v>
+        <v>0.5973223620052645</v>
       </c>
       <c r="AU47" t="n">
-        <v>0.5196938769867598</v>
+        <v>0.487744388872788</v>
       </c>
       <c r="AV47" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.4023192294555042</v>
       </c>
       <c r="AW47" t="n">
         <v>0</v>
@@ -7639,7 +7639,7 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1666666666666667</v>
+        <v>-0.04461459224905492</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
@@ -7690,10 +7690,10 @@
         <v>1</v>
       </c>
       <c r="U48" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W48" t="n">
         <v>1</v>
@@ -7708,70 +7708,70 @@
         <v>1</v>
       </c>
       <c r="AA48" t="n">
-        <v>0</v>
+        <v>-0.130397538075627</v>
       </c>
       <c r="AB48" t="n">
-        <v>-0.3424917101106873</v>
+        <v>-0.4468185158542887</v>
       </c>
       <c r="AC48" t="n">
-        <v>-0.4296296296296296</v>
+        <v>-0.5910674643974613</v>
       </c>
       <c r="AD48" t="n">
-        <v>0</v>
+        <v>-0.04122351920546026</v>
       </c>
       <c r="AE48" t="n">
-        <v>-0.1310704755841438</v>
+        <v>-0.1106907048674179</v>
       </c>
       <c r="AF48" t="n">
-        <v>0.3366998577524893</v>
+        <v>0.4439371187743323</v>
       </c>
       <c r="AG48" t="n">
-        <v>0.2625031457708699</v>
+        <v>0.08004304720177553</v>
       </c>
       <c r="AH48" t="n">
-        <v>0.8243787737256147</v>
+        <v>0.2021853088250432</v>
       </c>
       <c r="AI48" t="n">
-        <v>1.408125057611108</v>
+        <v>0.8829038939014522</v>
       </c>
       <c r="AJ48" t="n">
-        <v>0.4948644346079787</v>
+        <v>0.4279599101612486</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.5248868778280543</v>
+        <v>0.2984154703053333</v>
       </c>
       <c r="AL48" t="n">
-        <v>0.1650598379930407</v>
+        <v>0.1198861673344715</v>
       </c>
       <c r="AM48" t="n">
-        <v>1.686610891328868</v>
+        <v>0.9427380406544793</v>
       </c>
       <c r="AN48" t="n">
-        <v>0.3409090909090908</v>
+        <v>0.4672012545446503</v>
       </c>
       <c r="AO48" t="n">
-        <v>0.308369705860948</v>
+        <v>0.4485094903669712</v>
       </c>
       <c r="AP48" t="n">
-        <v>-0.2400000000000002</v>
+        <v>-0.2195949244198452</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.01926782273602974</v>
+        <v>0.09492797352024622</v>
       </c>
       <c r="AR48" t="n">
-        <v>0.2069425901201603</v>
+        <v>0.03567276309546127</v>
       </c>
       <c r="AS48" t="n">
-        <v>-0.703125</v>
+        <v>-0.813058817367162</v>
       </c>
       <c r="AT48" t="n">
-        <v>0</v>
+        <v>0.1461295139931204</v>
       </c>
       <c r="AU48" t="n">
-        <v>0.1820315393244223</v>
+        <v>0.2102651339107943</v>
       </c>
       <c r="AV48" t="n">
-        <v>0.6538461538461539</v>
+        <v>0.6693868940149711</v>
       </c>
       <c r="AW48" t="n">
         <v>0</v>
@@ -7790,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8814230771304676</v>
       </c>
       <c r="E49" t="n">
         <v>1</v>
@@ -7841,10 +7841,10 @@
         <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W49" t="n">
         <v>1</v>
@@ -7859,70 +7859,70 @@
         <v>1</v>
       </c>
       <c r="AA49" t="n">
-        <v>-1.545774758959878</v>
+        <v>-0.7626813302436208</v>
       </c>
       <c r="AB49" t="n">
-        <v>1.712458550553436</v>
+        <v>0.6305449432529118</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.237037037037037</v>
+        <v>-0.09477777684029952</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.02492579613165891</v>
+        <v>-0.01637037541152294</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.4912280701754386</v>
+        <v>0.4949618346348796</v>
       </c>
       <c r="AF49" t="n">
-        <v>-0.5385964912280702</v>
+        <v>-0.5808087452813824</v>
       </c>
       <c r="AG49" t="n">
-        <v>-0.2687609063012448</v>
+        <v>-0.2465029526198223</v>
       </c>
       <c r="AH49" t="n">
-        <v>-0.08677671302374891</v>
+        <v>-0.3834425742663561</v>
       </c>
       <c r="AI49" t="n">
-        <v>-0.4380287885427404</v>
+        <v>-0.4390101321940445</v>
       </c>
       <c r="AJ49" t="n">
-        <v>-0.6645558552470936</v>
+        <v>-0.5771336235617897</v>
       </c>
       <c r="AK49" t="n">
-        <v>-0.6823529411764706</v>
+        <v>-0.7193730621525449</v>
       </c>
       <c r="AL49" t="n">
-        <v>-0.8722282976001794</v>
+        <v>-0.5730166061379524</v>
       </c>
       <c r="AM49" t="n">
-        <v>-0.4747767159896231</v>
+        <v>-0.4326746957697153</v>
       </c>
       <c r="AN49" t="n">
-        <v>0</v>
+        <v>-0.01625179646668577</v>
       </c>
       <c r="AO49" t="n">
-        <v>0.6636328637556854</v>
+        <v>0.7456653862889672</v>
       </c>
       <c r="AP49" t="n">
-        <v>-0.4800000000000004</v>
+        <v>-0.4753563194158595</v>
       </c>
       <c r="AQ49" t="n">
-        <v>-0.2986512524084802</v>
+        <v>-0.2551567781004557</v>
       </c>
       <c r="AR49" t="n">
-        <v>0.3631508678237652</v>
+        <v>0.2250038577178558</v>
       </c>
       <c r="AS49" t="n">
-        <v>-0.3359375</v>
+        <v>-0.5726321654998556</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.1472392638036814</v>
+        <v>0.2931240058041512</v>
       </c>
       <c r="AU49" t="n">
-        <v>0.3248886821815656</v>
+        <v>0.3352081588177663</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.3285958462299234</v>
       </c>
       <c r="AW49" t="n">
         <v>0</v>
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.8333333333333334</v>
+        <v>-0.727147421426668</v>
       </c>
       <c r="E50" t="n">
         <v>1</v>
@@ -7992,10 +7992,10 @@
         <v>1</v>
       </c>
       <c r="U50" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
@@ -8010,70 +8010,70 @@
         <v>1</v>
       </c>
       <c r="AA50" t="n">
-        <v>1.159331069219901</v>
+        <v>0.4795832592247129</v>
       </c>
       <c r="AB50" t="n">
-        <v>-1.027475130332062</v>
+        <v>-0.7106013351234176</v>
       </c>
       <c r="AC50" t="n">
-        <v>2.014814814814815</v>
+        <v>0.8982173841427433</v>
       </c>
       <c r="AD50" t="n">
-        <v>0.4439115571826822</v>
+        <v>0.3814547536341741</v>
       </c>
       <c r="AE50" t="n">
-        <v>1.100949561506965</v>
+        <v>0.8284439385334368</v>
       </c>
       <c r="AF50" t="n">
-        <v>1.580891417733523</v>
+        <v>0.9703775756196104</v>
       </c>
       <c r="AG50" t="n">
-        <v>-0.2687609063012448</v>
+        <v>-0.2465029526198223</v>
       </c>
       <c r="AH50" t="n">
-        <v>3.063217969738337</v>
+        <v>0.9356155329856074</v>
       </c>
       <c r="AI50" t="n">
-        <v>-0.5341826346965867</v>
+        <v>-0.5137918822732657</v>
       </c>
       <c r="AJ50" t="n">
-        <v>-1.166971314184292</v>
+        <v>-0.8149384811732997</v>
       </c>
       <c r="AK50" t="n">
-        <v>1.460522234409422</v>
+        <v>0.8479326839491246</v>
       </c>
       <c r="AL50" t="n">
-        <v>-1.462058806074756</v>
+        <v>-0.7973336643926948</v>
       </c>
       <c r="AM50" t="n">
-        <v>-0.7661997641673969</v>
+        <v>-0.6429708899549034</v>
       </c>
       <c r="AN50" t="n">
-        <v>-1.136363636363636</v>
+        <v>-0.9423588640948485</v>
       </c>
       <c r="AO50" t="n">
-        <v>-1.270577662560106</v>
+        <v>-0.929101100608218</v>
       </c>
       <c r="AP50" t="n">
-        <v>-1.56</v>
+        <v>-0.9506784267524133</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0</v>
+        <v>0.07349791271494831</v>
       </c>
       <c r="AR50" t="n">
-        <v>-0.03738317757009338</v>
+        <v>-0.2604097003230955</v>
       </c>
       <c r="AS50" t="n">
-        <v>-0.078125</v>
+        <v>-0.3015365872385168</v>
       </c>
       <c r="AT50" t="n">
-        <v>-1.521472392638037</v>
+        <v>-0.8961642827956677</v>
       </c>
       <c r="AU50" t="n">
-        <v>-1.960825603532722</v>
+        <v>-0.948345995953451</v>
       </c>
       <c r="AV50" t="n">
-        <v>-1.615384615384615</v>
+        <v>-0.9357306304120093</v>
       </c>
       <c r="AW50" t="n">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3751105745702884</v>
       </c>
       <c r="E51" t="n">
         <v>1</v>
@@ -8143,10 +8143,10 @@
         <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W51" t="n">
         <v>1</v>
@@ -8161,70 +8161,70 @@
         <v>1</v>
       </c>
       <c r="AA51" t="n">
-        <v>0.7728873794799251</v>
+        <v>0.2954988086669205</v>
       </c>
       <c r="AB51" t="n">
-        <v>-1.027475130332062</v>
+        <v>-0.7106013351234176</v>
       </c>
       <c r="AC51" t="n">
-        <v>-0.6814814814814815</v>
+        <v>-0.7163070086529658</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.5249257961316589</v>
+        <v>0.4483317139259444</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.4912280701754386</v>
+        <v>0.4949618346348796</v>
       </c>
       <c r="AF51" t="n">
-        <v>0.006215613612204828</v>
+        <v>0.04635814772104009</v>
       </c>
       <c r="AG51" t="n">
-        <v>0.1715121164535767</v>
+        <v>0.02336486093172873</v>
       </c>
       <c r="AH51" t="n">
-        <v>0.2336546807559531</v>
+        <v>-0.1876341614537911</v>
       </c>
       <c r="AI51" t="n">
-        <v>0.1246308061068319</v>
+        <v>0.09551999043548476</v>
       </c>
       <c r="AJ51" t="n">
-        <v>0.02314909520850933</v>
+        <v>0.003529747548897509</v>
       </c>
       <c r="AK51" t="n">
-        <v>0.2859486725123133</v>
+        <v>0.06737636959234923</v>
       </c>
       <c r="AL51" t="n">
-        <v>0.003967355235196488</v>
+        <v>0.0005000044146732884</v>
       </c>
       <c r="AM51" t="n">
-        <v>0.3874073719766921</v>
+        <v>0.4007085340084947</v>
       </c>
       <c r="AN51" t="n">
-        <v>-0.05681818181818213</v>
+        <v>-0.1030094349788668</v>
       </c>
       <c r="AO51" t="n">
-        <v>1.229422337439896</v>
+        <v>0.9388217636786093</v>
       </c>
       <c r="AP51" t="n">
-        <v>-0.04000000000000092</v>
+        <v>0.02154725339831541</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.368015414258188</v>
+        <v>0.9225806243872731</v>
       </c>
       <c r="AR51" t="n">
-        <v>0.1721409680094473</v>
+        <v>-0.007362249824798475</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.2262638041711977</v>
+        <v>0.0902306352793244</v>
       </c>
       <c r="AT51" t="n">
-        <v>-0.9586368128395518</v>
+        <v>-0.696598698306133</v>
       </c>
       <c r="AU51" t="n">
-        <v>-0.8038896912880081</v>
+        <v>-0.6168302060386711</v>
       </c>
       <c r="AV51" t="n">
-        <v>-0.8625150184257765</v>
+        <v>-0.7009140084461206</v>
       </c>
       <c r="AW51" t="n">
         <v>0</v>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.6666666666666666</v>
+        <v>-0.6063612540679829</v>
       </c>
       <c r="E52" t="n">
         <v>1</v>
@@ -8294,10 +8294,10 @@
         <v>1</v>
       </c>
       <c r="U52" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W52" t="n">
         <v>1</v>
@@ -8312,70 +8312,70 @@
         <v>1</v>
       </c>
       <c r="AA52" t="n">
-        <v>0.3864436897399763</v>
+        <v>0.08650142022793875</v>
       </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>-0.2700134826579289</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.725925925925926</v>
+        <v>-0.73474785092622</v>
       </c>
       <c r="AD52" t="n">
-        <v>-0.5375742038683411</v>
+        <v>-0.5210112561511667</v>
       </c>
       <c r="AE52" t="n">
-        <v>1.192982456140351</v>
+        <v>0.8564424397185981</v>
       </c>
       <c r="AF52" t="n">
-        <v>1.008677098150782</v>
+        <v>0.8747445915441382</v>
       </c>
       <c r="AG52" t="n">
-        <v>-1.332328316869714</v>
+        <v>-0.7240647336866056</v>
       </c>
       <c r="AH52" t="n">
-        <v>0.6421476763757421</v>
+        <v>0.08299870570344881</v>
       </c>
       <c r="AI52" t="n">
-        <v>1.785048134534185</v>
+        <v>0.9434442622612631</v>
       </c>
       <c r="AJ52" t="n">
-        <v>-0.001753922879943717</v>
+        <v>-0.02042814157874173</v>
       </c>
       <c r="AK52" t="n">
-        <v>-0.11710407239819</v>
+        <v>-0.3255766523468533</v>
       </c>
       <c r="AL52" t="n">
-        <v>-1.614601178956112</v>
+        <v>-0.8351272467879143</v>
       </c>
       <c r="AM52" t="n">
-        <v>1.657468586511089</v>
+        <v>0.9393041540979892</v>
       </c>
       <c r="AN52" t="n">
-        <v>0.7500000000000002</v>
+        <v>0.8123052174626465</v>
       </c>
       <c r="AO52" t="n">
-        <v>1.082053916387264</v>
+        <v>0.9102176159166665</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.44</v>
+        <v>0.9501119642456276</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.3526011560693613</v>
+        <v>0.4370816237445559</v>
       </c>
       <c r="AR52" t="n">
-        <v>-0.5246995994659546</v>
+        <v>-0.7010528015312809</v>
       </c>
       <c r="AS52" t="n">
-        <v>-0.4375</v>
+        <v>-0.6558277971473111</v>
       </c>
       <c r="AT52" t="n">
-        <v>-0.3803680981595086</v>
+        <v>-0.2474643108927039</v>
       </c>
       <c r="AU52" t="n">
-        <v>-0.1166697593768766</v>
+        <v>-0.06920566180958836</v>
       </c>
       <c r="AV52" t="n">
-        <v>-0.2692307692307692</v>
+        <v>-0.2091520688426244</v>
       </c>
       <c r="AW52" t="n">
         <v>0</v>
@@ -8394,7 +8394,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.5</v>
+        <v>-0.4491586645508897</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
@@ -8445,10 +8445,10 @@
         <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W53" t="n">
         <v>1</v>
@@ -8463,70 +8463,70 @@
         <v>1</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.2810576366098925</v>
+        <v>0.02729867422610019</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.438989340511256</v>
+        <v>-0.01560518704905529</v>
       </c>
       <c r="AC53" t="n">
-        <v>-0.725925925925926</v>
+        <v>-0.73474785092622</v>
       </c>
       <c r="AD53" t="n">
-        <v>-0.1729368152323509</v>
+        <v>-0.2106311201143081</v>
       </c>
       <c r="AE53" t="n">
-        <v>-0.07155120550588752</v>
+        <v>-0.04857976357875791</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.005263157894736907</v>
+        <v>0.04511937423427829</v>
       </c>
       <c r="AG53" t="n">
-        <v>-0.8427496675604184</v>
+        <v>-0.544323156582783</v>
       </c>
       <c r="AH53" t="n">
-        <v>-0.4842140586725189</v>
+        <v>-0.58483038270899</v>
       </c>
       <c r="AI53" t="n">
-        <v>1.196586596072646</v>
+        <v>0.8260866313835041</v>
       </c>
       <c r="AJ53" t="n">
-        <v>-1.070352956696369</v>
+        <v>-0.7812601967260894</v>
       </c>
       <c r="AK53" t="n">
-        <v>-0.620814479638009</v>
+        <v>-0.6881615508695943</v>
       </c>
       <c r="AL53" t="n">
-        <v>-1.140024907769671</v>
+        <v>-0.6918161795574006</v>
       </c>
       <c r="AM53" t="n">
-        <v>0.4237776825585133</v>
+        <v>0.4316626982512994</v>
       </c>
       <c r="AN53" t="n">
-        <v>0.7727272727272725</v>
+        <v>0.8238286427325689</v>
       </c>
       <c r="AO53" t="n">
-        <v>0.6110012848083163</v>
+        <v>0.7123636538769681</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.2400000000000002</v>
+        <v>0.3489468373136336</v>
       </c>
       <c r="AQ53" t="n">
-        <v>-0.01926782273602974</v>
+        <v>0.05199976213470977</v>
       </c>
       <c r="AR53" t="n">
-        <v>-0.8731642189586114</v>
+        <v>-0.861832632486896</v>
       </c>
       <c r="AS53" t="n">
-        <v>-0.1796875</v>
+        <v>-0.4179748484158456</v>
       </c>
       <c r="AT53" t="n">
-        <v>-0.245398773006135</v>
+        <v>-0.1103609988120264</v>
       </c>
       <c r="AU53" t="n">
-        <v>-0.2855009282080453</v>
+        <v>-0.2252123872127948</v>
       </c>
       <c r="AV53" t="n">
-        <v>0</v>
+        <v>0.08556460639978404</v>
       </c>
       <c r="AW53" t="n">
         <v>0</v>
@@ -8545,7 +8545,7 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.5</v>
+        <v>-0.9468733427412582</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
@@ -8596,10 +8596,10 @@
         <v>1</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V54" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
@@ -8614,70 +8614,70 @@
         <v>1</v>
       </c>
       <c r="AA54" t="n">
-        <v>0.2425182274071807</v>
+        <v>0.005578334296135586</v>
       </c>
       <c r="AB54" t="n">
-        <v>0.4513153320901065</v>
+        <v>-0.008270243585564859</v>
       </c>
       <c r="AC54" t="n">
-        <v>-0.1185185185185185</v>
+        <v>-0.3856320675280233</v>
       </c>
       <c r="AD54" t="n">
-        <v>1.649925796131659</v>
+        <v>0.9224654833611496</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.3508771929824561</v>
+        <v>0.3758044131980035</v>
       </c>
       <c r="AF54" t="n">
-        <v>-0.08008534850640107</v>
+        <v>-0.06599177733970571</v>
       </c>
       <c r="AG54" t="n">
-        <v>0.8454525714371507</v>
+        <v>0.4172892332443341</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>-0.3328944683856667</v>
       </c>
       <c r="AI54" t="n">
-        <v>1.215817365303415</v>
+        <v>0.8321414157457608</v>
       </c>
       <c r="AJ54" t="n">
-        <v>-0.857792570222939</v>
+        <v>-0.6879635993972149</v>
       </c>
       <c r="AK54" t="n">
-        <v>0.1846153846153847</v>
+        <v>-0.03441890345182991</v>
       </c>
       <c r="AL54" t="n">
-        <v>-1.495957111159502</v>
+        <v>-0.8063457321392838</v>
       </c>
       <c r="AM54" t="n">
-        <v>1.80803716140294</v>
+        <v>0.9551215461458532</v>
       </c>
       <c r="AN54" t="n">
-        <v>-0.5000000000000006</v>
+        <v>-0.6543878851376798</v>
       </c>
       <c r="AO54" t="n">
-        <v>0.5583697058609489</v>
+        <v>0.6755120266902331</v>
       </c>
       <c r="AP54" t="n">
-        <v>0.1199999999999992</v>
+        <v>0.2140151211968808</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.3082851637764923</v>
+        <v>0.3960660421077117</v>
       </c>
       <c r="AR54" t="n">
-        <v>0.4806408544726302</v>
+        <v>0.3577105389909077</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.078125</v>
+        <v>-0.1046298604933234</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.4049079754601233</v>
+        <v>0.5174681701833141</v>
       </c>
       <c r="AU54" t="n">
-        <v>1.065148422441305</v>
+        <v>0.7815925039995251</v>
       </c>
       <c r="AV54" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.5347202608114747</v>
       </c>
       <c r="AW54" t="n">
         <v>0</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1666666666666667</v>
+        <v>-0.04461459224905492</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
@@ -8747,10 +8747,10 @@
         <v>1</v>
       </c>
       <c r="U55" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V55" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -8765,70 +8765,70 @@
         <v>1</v>
       </c>
       <c r="AA55" t="n">
-        <v>0.03768030025648098</v>
+        <v>-0.1094611616038543</v>
       </c>
       <c r="AB55" t="n">
-        <v>-0.3424917101106873</v>
+        <v>-0.4468185158542887</v>
       </c>
       <c r="AC55" t="n">
-        <v>-0.4296296296296296</v>
+        <v>-0.5910674643974613</v>
       </c>
       <c r="AD55" t="n">
-        <v>-0.4125742038683411</v>
+        <v>-0.4243465114569722</v>
       </c>
       <c r="AE55" t="n">
-        <v>0</v>
+        <v>0.02654400647126983</v>
       </c>
       <c r="AF55" t="n">
-        <v>-0.7623992413466099</v>
+        <v>-0.7422057177281424</v>
       </c>
       <c r="AG55" t="n">
-        <v>0.2208177430080503</v>
+        <v>0.05411927318602591</v>
       </c>
       <c r="AH55" t="n">
-        <v>-0.7254533208785409</v>
+        <v>-0.6810335408105966</v>
       </c>
       <c r="AI55" t="n">
-        <v>-0.07264417315812499</v>
+        <v>-0.1025583172876552</v>
       </c>
       <c r="AJ55" t="n">
-        <v>-1.224942328677045</v>
+        <v>-0.8328404723287807</v>
       </c>
       <c r="AK55" t="n">
-        <v>-0.9411764705882353</v>
+        <v>-0.8231932753145567</v>
       </c>
       <c r="AL55" t="n">
-        <v>0.266754753247278</v>
+        <v>0.1937184302474487</v>
       </c>
       <c r="AM55" t="n">
-        <v>1.334474708114057</v>
+        <v>0.8852567396971788</v>
       </c>
       <c r="AN55" t="n">
-        <v>0.227272727272727</v>
+        <v>0.3205305721524314</v>
       </c>
       <c r="AO55" t="n">
-        <v>-0.2968934520337886</v>
+        <v>-0.323395292631515</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.08</v>
+        <v>0.8836812564049022</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.3853564547206167</v>
+        <v>0.4662831607101988</v>
       </c>
       <c r="AR55" t="n">
-        <v>-0.540720961281709</v>
+        <v>-0.7109917325253398</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.15625</v>
+        <v>0.866218319746342</v>
       </c>
       <c r="AT55" t="n">
-        <v>-1.337423312883436</v>
+        <v>-0.8507584963133834</v>
       </c>
       <c r="AU55" t="n">
-        <v>-1.623163265870384</v>
+        <v>-0.9043201976780706</v>
       </c>
       <c r="AV55" t="n">
-        <v>-1.423076923076923</v>
+        <v>-0.903265722423381</v>
       </c>
       <c r="AW55" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.25</v>
+        <v>-0.1531794064600764</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
@@ -8898,10 +8898,10 @@
         <v>1</v>
       </c>
       <c r="U56" t="n">
-        <v>1</v>
+        <v>0.8821917060669884</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
@@ -8916,70 +8916,70 @@
         <v>1</v>
       </c>
       <c r="AA56" t="n">
-        <v>-1.159331069219929</v>
+        <v>-0.6554140263198619</v>
       </c>
       <c r="AB56" t="n">
-        <v>0.3798194299811747</v>
+        <v>-0.05077871282141819</v>
       </c>
       <c r="AC56" t="n">
-        <v>-0.3555555555555556</v>
+        <v>-0.5472094864947074</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.5249257961316589</v>
+        <v>0.4483317139259444</v>
       </c>
       <c r="AE56" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3437189004179294</v>
       </c>
       <c r="AF56" t="n">
-        <v>-0.7396396396396396</v>
+        <v>-0.7285871247815286</v>
       </c>
       <c r="AG56" t="n">
-        <v>0.271463810177977</v>
+        <v>0.08560269751304642</v>
       </c>
       <c r="AH56" t="n">
-        <v>1.338096914826209</v>
+        <v>0.4993395894353997</v>
       </c>
       <c r="AI56" t="n">
-        <v>0.4658173653034147</v>
+        <v>0.4132457140868667</v>
       </c>
       <c r="AJ56" t="n">
-        <v>0.3112895553809257</v>
+        <v>0.2736154194914235</v>
       </c>
       <c r="AK56" t="n">
-        <v>1.695927601809954</v>
+        <v>0.9024928761920092</v>
       </c>
       <c r="AL56" t="n">
-        <v>-0.3095164331933999</v>
+        <v>-0.2288269900397984</v>
       </c>
       <c r="AM56" t="n">
-        <v>-1.041837397235542</v>
+        <v>-0.7806408727525852</v>
       </c>
       <c r="AN56" t="n">
-        <v>0</v>
+        <v>-0.01625179646668577</v>
       </c>
       <c r="AO56" t="n">
-        <v>-0.07227329115980265</v>
+        <v>-0.03175523413482408</v>
       </c>
       <c r="AP56" t="n">
-        <v>-0.2400000000000002</v>
+        <v>-0.2195949244198452</v>
       </c>
       <c r="AQ56" t="n">
-        <v>0.4046242774566465</v>
+        <v>0.4830034784034863</v>
       </c>
       <c r="AR56" t="n">
-        <v>1.451268357810414</v>
+        <v>0.9178085051402853</v>
       </c>
       <c r="AS56" t="n">
-        <v>-0.0546875</v>
+        <v>-0.2731640180661846</v>
       </c>
       <c r="AT56" t="n">
-        <v>-1.263803680981595</v>
+        <v>-0.8279220731274258</v>
       </c>
       <c r="AU56" t="n">
-        <v>-1.142643785350903</v>
+        <v>-0.7781065189242026</v>
       </c>
       <c r="AV56" t="n">
-        <v>-1.115384615384615</v>
+        <v>-0.8174360349786687</v>
       </c>
       <c r="AW56" t="n">
         <v>0</v>
@@ -8998,7 +8998,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.1666666666666667</v>
+        <v>-0.04461459224905492</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -9049,10 +9049,10 @@
         <v>1</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
@@ -9067,70 +9067,70 @@
         <v>0</v>
       </c>
       <c r="AA57" t="n">
-        <v>0</v>
+        <v>-0.130397538075627</v>
       </c>
       <c r="AB57" t="n">
-        <v>-0.6849834202213746</v>
+        <v>-0.5944744579723749</v>
       </c>
       <c r="AC57" t="n">
-        <v>-0.3111111111111111</v>
+        <v>-0.5193431386273409</v>
       </c>
       <c r="AD57" t="n">
-        <v>-0.0333268451609392</v>
+        <v>-0.07436834009505745</v>
       </c>
       <c r="AE57" t="n">
-        <v>-0.0104256902791967</v>
+        <v>0.01559624657061802</v>
       </c>
       <c r="AF57" t="n">
-        <v>-0.4463306197605192</v>
+        <v>-0.4955790385729527</v>
       </c>
       <c r="AG57" t="n">
-        <v>6.754160407928643</v>
+        <v>0.9994887772389329</v>
       </c>
       <c r="AH57" t="n">
-        <v>0.6042988282308364</v>
+        <v>0.05782388814664717</v>
       </c>
       <c r="AI57" t="n">
-        <v>-0.9572595577735099</v>
+        <v>-0.7590925932535133</v>
       </c>
       <c r="AJ57" t="n">
-        <v>0.5934151592456601</v>
+        <v>0.5021809288587293</v>
       </c>
       <c r="AK57" t="n">
-        <v>-0.03026128434555168</v>
+        <v>-0.2454209727323435</v>
       </c>
       <c r="AL57" t="n">
-        <v>-0.1501943992950948</v>
+        <v>-0.113808989641916</v>
       </c>
       <c r="AM57" t="n">
-        <v>-0.6447734940933244</v>
+        <v>-0.5636765790465342</v>
       </c>
       <c r="AN57" t="n">
-        <v>0.9204545454545451</v>
+        <v>0.8842960809157033</v>
       </c>
       <c r="AO57" t="n">
-        <v>-0.03373555729694628</v>
+        <v>0.02033120679650305</v>
       </c>
       <c r="AP57" t="n">
-        <v>0.03999999999999915</v>
+        <v>0.1188979364114951</v>
       </c>
       <c r="AQ57" t="n">
-        <v>-0.847784200385358</v>
+        <v>-0.7044422296407993</v>
       </c>
       <c r="AR57" t="n">
-        <v>-0.4192256341789052</v>
+        <v>-0.6284767620136475</v>
       </c>
       <c r="AS57" t="n">
-        <v>0.3046875</v>
+        <v>0.1915717541750273</v>
       </c>
       <c r="AT57" t="n">
-        <v>-1.950920245398773</v>
+        <v>-0.9565685101998537</v>
       </c>
       <c r="AU57" t="n">
-        <v>-2.181604824311942</v>
+        <v>-0.9656902475083617</v>
       </c>
       <c r="AV57" t="n">
-        <v>-2</v>
+        <v>-0.9720594200349588</v>
       </c>
       <c r="AW57" t="n">
         <v>0</v>
@@ -9149,7 +9149,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.854436136604922</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
@@ -9200,10 +9200,10 @@
         <v>1</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V58" t="n">
-        <v>1</v>
+        <v>0.9460597927336883</v>
       </c>
       <c r="W58" t="n">
         <v>1</v>
@@ -9218,70 +9218,70 @@
         <v>0</v>
       </c>
       <c r="AA58" t="n">
-        <v>-0.3864436897399763</v>
+        <v>-0.3354942779691847</v>
       </c>
       <c r="AB58" t="n">
-        <v>-1.027475130332062</v>
+        <v>-0.7106013351234176</v>
       </c>
       <c r="AC58" t="n">
-        <v>0.3851851851851852</v>
+        <v>0.0347544480724623</v>
       </c>
       <c r="AD58" t="n">
-        <v>-0.4125742038683411</v>
+        <v>-0.4243465114569722</v>
       </c>
       <c r="AE58" t="n">
-        <v>-0.4912280701754386</v>
+        <v>-0.453827829304181</v>
       </c>
       <c r="AF58" t="n">
-        <v>0.1138454243717401</v>
+        <v>0.1845309083032061</v>
       </c>
       <c r="AG58" t="n">
-        <v>0.794806504267224</v>
+        <v>0.3908176146026685</v>
       </c>
       <c r="AH58" t="n">
-        <v>0.2308260566431721</v>
+        <v>-0.1894578499187644</v>
       </c>
       <c r="AI58" t="n">
-        <v>-0.1303364808504322</v>
+        <v>-0.1596608650092061</v>
       </c>
       <c r="AJ58" t="n">
-        <v>-1.263589671672215</v>
+        <v>-0.8438859376065522</v>
       </c>
       <c r="AK58" t="n">
-        <v>0</v>
+        <v>-0.2166139387825246</v>
       </c>
       <c r="AL58" t="n">
-        <v>0.004291489749298558</v>
+        <v>0.0007413872083216353</v>
       </c>
       <c r="AM58" t="n">
-        <v>0.1687825154029609</v>
+        <v>0.1968024489710046</v>
       </c>
       <c r="AN58" t="n">
-        <v>0.7045454545454547</v>
+        <v>0.7872168242004084</v>
       </c>
       <c r="AO58" t="n">
-        <v>-0.2047881888758953</v>
+        <v>-0.2078425427357431</v>
       </c>
       <c r="AP58" t="n">
-        <v>-1.52</v>
+        <v>-0.9457425423497595</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.522157996146437</v>
+        <v>0.9445621876572693</v>
       </c>
       <c r="AR58" t="n">
-        <v>0.204272363150868</v>
+        <v>0.03237346656706298</v>
       </c>
       <c r="AS58" t="n">
-        <v>-0.0859375</v>
+        <v>-0.3108795461429708</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.386503067484663</v>
+        <v>0.9223965482013674</v>
       </c>
       <c r="AU58" t="n">
-        <v>1.285927643220526</v>
+        <v>0.8506363733525504</v>
       </c>
       <c r="AV58" t="n">
-        <v>1.230769230769231</v>
+        <v>0.89536194095974</v>
       </c>
       <c r="AW58" t="n">
         <v>0</v>
@@ -9300,7 +9300,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="n">
-        <v>-1.083333333333333</v>
+        <v>-0.8488151745662359</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
@@ -9351,10 +9351,10 @@
         <v>1</v>
       </c>
       <c r="U59" t="n">
-        <v>-1</v>
+        <v>-0.6608896801540163</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
@@ -9369,70 +9369,70 @@
         <v>1</v>
       </c>
       <c r="AA59" t="n">
-        <v>-0.3864436897399763</v>
+        <v>-0.3354942779691847</v>
       </c>
       <c r="AB59" t="n">
-        <v>-0.6849834202213746</v>
+        <v>-0.5944744579723749</v>
       </c>
       <c r="AC59" t="n">
-        <v>0.02962962962962963</v>
+        <v>-0.2699661289567384</v>
       </c>
       <c r="AD59" t="n">
-        <v>-0.6000742038683411</v>
+        <v>-0.5649673455773495</v>
       </c>
       <c r="AE59" t="n">
-        <v>-1.403508771929824</v>
+        <v>-0.8952786358546019</v>
       </c>
       <c r="AF59" t="n">
-        <v>-0.194357515410147</v>
+        <v>-0.2117692586404956</v>
       </c>
       <c r="AG59" t="n">
-        <v>0.1261818192827679</v>
+        <v>-0.004950395662022019</v>
       </c>
       <c r="AH59" t="n">
-        <v>-0.008677671302374861</v>
+        <v>-0.3380425620317823</v>
       </c>
       <c r="AI59" t="n">
-        <v>-0.08897931131931994</v>
+        <v>-0.118812141797206</v>
       </c>
       <c r="AJ59" t="n">
-        <v>0.02976847236899436</v>
+        <v>0.009898354324133961</v>
       </c>
       <c r="AK59" t="n">
-        <v>0.6877828054298643</v>
+        <v>0.4394944506800026</v>
       </c>
       <c r="AL59" t="n">
-        <v>0.002949856583990044</v>
+        <v>-0.000257726517196938</v>
       </c>
       <c r="AM59" t="n">
-        <v>-0.5938837925422432</v>
+        <v>-0.5268764133489359</v>
       </c>
       <c r="AN59" t="n">
-        <v>-0.9090909090909095</v>
+        <v>-0.8875407192697773</v>
       </c>
       <c r="AO59" t="n">
-        <v>-0.481103978349579</v>
+        <v>-0.5259083113612723</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.1199999999999992</v>
+        <v>0.2140151211968808</v>
       </c>
       <c r="AQ59" t="n">
-        <v>-0.7514450867052037</v>
+        <v>-0.6458492374608811</v>
       </c>
       <c r="AR59" t="n">
-        <v>-0.7436582109479306</v>
+        <v>-0.8144894846875009</v>
       </c>
       <c r="AS59" t="n">
-        <v>-0.03125</v>
+        <v>-0.2443080937251652</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.3368841547595906</v>
+        <v>0.463186228581936</v>
       </c>
       <c r="AU59" t="n">
-        <v>0.01320037049325348</v>
+        <v>0.05357358039832298</v>
       </c>
       <c r="AV59" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.5036259259283438</v>
       </c>
       <c r="AW59" t="n">
         <v>0</v>
@@ -9451,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>0.1730960220394006</v>
       </c>
       <c r="E60" t="n">
         <v>1</v>
@@ -9502,10 +9502,10 @@
         <v>1</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>0.2872694671372572</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>-0.5063234827816416</v>
       </c>
       <c r="W60" t="n">
         <v>1</v>
@@ -9520,70 +9520,70 @@
         <v>0</v>
       </c>
       <c r="AA60" t="n">
-        <v>-0.3864436897399763</v>
+        <v>-0.3354942779691847</v>
       </c>
       <c r="AB60" t="n">
-        <v>0</v>
+        <v>-0.2700134826579289</v>
       </c>
       <c r="AC60" t="n">
-        <v>-0.237037037037037</v>
+        <v>-0.4703534465647949</v>
       </c>
       <c r="AD60" t="n">
-        <v>0.6499257961316589</v>
+        <v>0.5422631678193648</v>
       </c>
       <c r="AE60" t="n">
-        <v>-0.2105263157894737</v>
+        <v>-0.1921981558275261</v>
       </c>
       <c r="AF60" t="n">
-        <v>-0.5262683736367947</v>
+        <v>-0.5700619434651383</v>
       </c>
       <c r="AG60" t="n">
-        <v>-1.146626070579981</v>
+        <v>-0.6641047674474021</v>
       </c>
       <c r="AH60" t="n">
-        <v>-0.3627266604392704</v>
+        <v>-0.528858799168049</v>
       </c>
       <c r="AI60" t="n">
-        <v>0.2158173653034137</v>
+        <v>0.1854995482052193</v>
       </c>
       <c r="AJ60" t="n">
-        <v>-1.327357787614244</v>
+        <v>-0.8606580092497461</v>
       </c>
       <c r="AK60" t="n">
-        <v>-0.7638009049773756</v>
+        <v>-0.7566180434943016</v>
       </c>
       <c r="AL60" t="n">
-        <v>1.795568312569312</v>
+        <v>0.8703945130976944</v>
       </c>
       <c r="AM60" t="n">
-        <v>0.4334917841644389</v>
+        <v>0.4397651865607997</v>
       </c>
       <c r="AN60" t="n">
-        <v>0.1136363636363632</v>
+        <v>0.156690956761507</v>
       </c>
       <c r="AO60" t="n">
-        <v>0.308369705860948</v>
+        <v>0.4485094903669712</v>
       </c>
       <c r="AP60" t="n">
-        <v>0.1600000000000001</v>
+        <v>0.2602081383723176</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.01926782273602974</v>
+        <v>0.09492797352024622</v>
       </c>
       <c r="AR60" t="n">
-        <v>-0.5327102803738317</v>
+        <v>-0.7060570351531914</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.8828125</v>
+        <v>0.9791500662458577</v>
       </c>
       <c r="AT60" t="n">
-        <v>-0.9079754601226994</v>
+        <v>-0.6681536454593382</v>
       </c>
       <c r="AU60" t="n">
-        <v>-0.6751113178184356</v>
+        <v>-0.5355995222746966</v>
       </c>
       <c r="AV60" t="n">
-        <v>-0.8461538461538461</v>
+        <v>-0.6915820890736937</v>
       </c>
       <c r="AW60" t="n">
         <v>0</v>
